--- a/QALD9-Plus-testing/few-shot-entity-aligned/few-shot-wikidata-dbpedia/few_shot_mistral_dbpedia_results_analysis.xlsx
+++ b/QALD9-Plus-testing/few-shot-entity-aligned/few-shot-wikidata-dbpedia/few_shot_mistral_dbpedia_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\few-shot-entity-aligned\few-shot-wikidata-dbpedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B308C95-262D-468B-A5AE-817EAE7BE1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF941C2-6644-4B82-A114-B6B284B41BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="430">
   <si>
     <t>Question</t>
   </si>
@@ -349,558 +349,1274 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; dbo:founder ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director res:Stanley_Kubrick . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Musical ; dbo:musicBy res:Elton_John . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { res:Skype dbo:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:league res:Bundesliga . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?movie dbo:director res:William_Shatner ; dbo:starring ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri dbo:starring res:Leonardo_DiCaprio . }</t>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; dbo:founder ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director res:Stanley_Kubrick . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Musical ; dbo:musicBy res:Elton_John . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { res:Skype dbo:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:league res:Bundesliga . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?movie dbo:director res:William_Shatner ; dbo:starring ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri dbo:starring res:Leonardo_DiCaprio . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; &lt;http://dbpedia.org/ontology/deathDate&gt; ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:starring res:Elizabeth_Taylor . ?uri dbo:starring res:Richard_Burton . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Minecraft dbo:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/The_Lego_Movie&gt; dbo:budget ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?label WHERE { res:Elvis_Presley dbo:artist ?uri . ?uri dbo:releaseDate ?date . ?uri dbo:recordLabel ?label . } ORDER BY ?date LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?val WHERE { res:Toy_Story dbo:runtime ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation res:Bandleader ; dbo:instrument res:Trumpet . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:starring res:Julia_Roberts . ?uri dbo:director res:Garry_Marshall . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?year WHERE { res:Rachel_Stevens dbo:birthYear ?year . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?s dbo:deathCause ?uri . } GROUP BY ?uri ORDER BY DESC(COUNT(DISTINCT ?s)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?num WHERE { res:Yokohama_Marine_Tower dbo:height ?num . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:locatedInArea res:Italy ; dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Albert_Einstein dbo:doctoralAdvisor ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:owner res:Donald_Trump ; rdf:type dbo:Organisation . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?o1 WHERE { res:Tom_Cruise dbo:spouse ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { res:Eurasia dbo:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:The_Interpretation_of_Dreams dbo:author ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { res:John_Adams dbo:birthDate ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:European_Union dbo:populationTotal ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/China&gt; dbo:currency ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:William_Shakespeare dbo:deathDate ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:launchSite res:Baikonur_Cosmodrome . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Island res:Japan . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:World_of_Warcraft dbo:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Company . ?uri dbo:industry res:Advertising . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Angela_Merkel dbo:almaMater ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow . ?uri dbo:starring res:Neil_Patrick_Harris . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:starring res:Tom_Cruise. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Mount_Everest dbo:locatedInArea ?uri . ?uri rdf:type dbo:Country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:John_F._Kennedy dbo:deathPlace ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Brooklyn_Bridge dbo:crosses ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Swimmer res:Swimmer ; dbo:birthPlace res:Moscow . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?movie WHERE { ?movie dbo:starring res:Alec_Guinness . ?movie dbo:releaseDate ?releaseDate . } ORDER BY DESC(?releaseDate) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?res WHERE { ?res wdt:P31/wdt:P279* wd:Q8502 . ?res wdt:P2044 ?elevation . ?res wdt:P30/wdt:P361 wd:Q2 . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { res:Cairo dbo:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:Person . ?uri dbo:birthPlace res:Heraklion . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?child) AS ?c) WHERE { res:Benjamin_Franklin dbo:child ?child . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?elevation WHERE { res:Düsseldorf_Airport dbo:elevation ?elevation . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE { res:Mecca dbo:country ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { res:Claudia_Schiffer dbo:height ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:The_Pillars_of_the_Earth dbo:author ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; dbo:genre ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Frank_Sinatra dbo:birthPlace ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:City ; dbo:populationTotal ?population . } ORDER BY ?population LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow ; dbo:creator res:Walt_Disney . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:country res:Sweden . ?uri rdf:type dbo:Holiday . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Apple_Inc. dbo:netIncome ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Abraham_Lincoln dbo:deathPlace ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Himalayas dbo:country ?country . ?country dbo:capital ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; dbo:country ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { res:Michael_Jordan dbo:height ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director res:Clint_Eastwood ; dbo:starring res:Clint_Eastwood . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:currency res:West_African_CFA_franc . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { res:Iraq dbo:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Holiday . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:PoliticalParty ; dbo:country res:Greece ; dbo:ideology res:Pro-Europeanism . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Charmed&gt; dbo:starring ?actor . ?actor dbo:birthDate ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:The_Three_Dancers dbo:author ?painter . ?painter dbo:movement ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Actor . { ?uri dbo:birthPlace res:Germany . } UNION { ?uri dbo:birthPlace ?place . ?place dbo:country res:Germany . } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Brooklyn_Bridge dbo:architect ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; &lt;http://dbpedia.org/ontology/composer&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film ; dbo:director res:Francis_Ford_Coppola . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?name WHERE { res:Adele dbo:birthName ?name. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Album . ?uri dbo:artist res:Queen_(band) . ?uri dbo:releaseDate ?date } ORDER BY ?date LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Czech_Republic dbo:currency ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:birthPlace res:Vienna . ?uri dbo:deathPlace res:Berlin . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Bridge ; dbo:crosses res:Seine . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation res:Musician . ?x a dbo:Book ; dbo:author ?uri . } GROUP BY ?uri ORDER BY DESC(COUNT(?x)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow . ?uri dbo:creator res:John_Cleese . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Writer . ?uri dbo:award res:Nobel_Prize_in_Literature . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { ?res dbo:occupation res:Bandleader . ?res dbo:instrument res:Trumpet . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:BasketballPlayer . ?uri dbo:height ?height . FILTER(?height &gt; 200) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/Film&gt; . ?uri dbo:starring &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?uri dbo:starring &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?o1 WHERE { res:Canada dbo:capital ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:birthPlace res:Malta . ?uri rdf:type dbo:SoccerPlayer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Cameroon dbo:capital ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub rdf:type dbo:ProgrammingLanguage . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:nationality res:Russia . ?uri dbo:nationality res:Soviet_Union . ?uri dbo:nationality res:Soviet_Union . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Family_Guy dbo:creator ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?population WHERE { res:Mexico_City dbo:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Batman dbo:creator ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?number WHERE { res:Australia dbo:capital ?uri . ?uri dbo:populationTotal ?number . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { res:North_Rhine-Westphalia dbo:areaTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?employees WHERE { res:IBM dbo:numberOfEmployees ?employees . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?value WHERE { res:Pulp_Fiction dbo:budget ?value . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:starring res:Jesse_Eisenberg . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:country res:Denmark . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Himalayas dbo:country ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Country . ?uri dbo:areaTotal ?area . } ORDER BY DESC(?area) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { res:Angela_Merkel dbo:almaMater ?res . ?res rdf:type dbo:EducationalInstitution . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q111135&gt; &lt;http://www.wikidata.org/prop/direct/P170&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Penguin_Books dbo:founder ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director res:Stanley_Kubrick }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Musical ; dbo:musicBy res:Elton_John }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { res:Skype dbo:developer ?uri. }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/SoccerClub&gt; ; &lt;http://dbpedia.org/ontology/league&gt; &lt;http://dbpedia.org/resource/Bundesliga&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?x dbo:director res:William_Shatner ; dbo:starring ?uri }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Mountain&gt; ; &lt;http://dbpedia.org/ontology/elevation&gt; ?elevation } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; }</t>
   </si>
   <si>
     <t>SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; &lt;http://dbpedia.org/ontology/deathDate&gt; ?date }</t>
   </si>
   <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:starring res:Elizabeth_Taylor . ?uri dbo:starring res:Richard_Burton . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Minecraft dbo:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/The_Lego_Movie&gt; dbo:budget ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?label WHERE { res:Elvis_Presley dbo:artist ?uri . ?uri dbo:releaseDate ?date . ?uri dbo:recordLabel ?label . } ORDER BY ?date LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?val WHERE { res:Toy_Story dbo:runtime ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation res:Bandleader ; dbo:instrument res:Trumpet . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:starring res:Julia_Roberts . ?uri dbo:director res:Garry_Marshall . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?year WHERE { res:Rachel_Stevens dbo:birthYear ?year . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?s dbo:deathCause ?uri . } GROUP BY ?uri ORDER BY DESC(COUNT(DISTINCT ?s)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?num WHERE { res:Yokohama_Marine_Tower dbo:height ?num . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:locatedInArea res:Italy ; dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Burton&gt; }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Minecraft&gt; &lt;http://dbpedia.org/ontology/developer&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?n WHERE { res:The_Lego_Movie dbo:budget ?n }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?x rdf:type dbo:Album ; dbo:artist res:Elvis_Presley ; dbo:releaseDate ?y ; dbo:recordLabel ?uri } ORDER BY ASC(?y) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?runtime WHERE { res:Toy_Story dbo:runtime ?runtime }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation res:Bandleader ; dbo:instrument res:Trumpet }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; ; &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Rachel_Stevens dbo:birthYear ?uri }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?x WHERE { ?uri &lt;http://dbpedia.org/ontology/deathCause&gt; ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?num WHERE { res:Yokohama_Marine_Tower dbo:height ?num }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Mountain ; dbo:locatedInArea res:Italy ; dbo:elevation ?num } ORDER BY DESC(?num) OFFSET 0 LIMIT 1</t>
   </si>
   <si>
     <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Albert_Einstein dbo:doctoralAdvisor ?uri }</t>
   </si>
   <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:owner res:Donald_Trump ; rdf:type dbo:Organisation . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?o1 WHERE { res:Tom_Cruise dbo:spouse ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { res:Eurasia dbo:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:The_Interpretation_of_Dreams dbo:author ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { res:John_Adams dbo:birthDate ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:European_Union dbo:populationTotal ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/China&gt; dbo:currency ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:William_Shakespeare dbo:deathDate ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:launchSite res:Baikonur_Cosmodrome . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Island res:Japan . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:World_of_Warcraft dbo:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Company . ?uri dbo:industry res:Advertising . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Angela_Merkel dbo:almaMater ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow . ?uri dbo:starring res:Neil_Patrick_Harris . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:starring res:Tom_Cruise. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Mount_Everest dbo:locatedInArea ?uri . ?uri rdf:type dbo:Country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:John_F._Kennedy dbo:deathPlace ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Brooklyn_Bridge dbo:crosses ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Swimmer res:Swimmer ; dbo:birthPlace res:Moscow . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?movie WHERE { ?movie dbo:starring res:Alec_Guinness . ?movie dbo:releaseDate ?releaseDate . } ORDER BY DESC(?releaseDate) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?res WHERE { ?res wdt:P31/wdt:P279* wd:Q8502 . ?res wdt:P2044 ?elevation . ?res wdt:P30/wdt:P361 wd:Q2 . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { res:Cairo dbo:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:Person . ?uri dbo:birthPlace res:Heraklion . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?child) AS ?c) WHERE { res:Benjamin_Franklin dbo:child ?child . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?elevation WHERE { res:Düsseldorf_Airport dbo:elevation ?elevation . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE { res:Mecca dbo:country ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { res:Claudia_Schiffer dbo:height ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:The_Pillars_of_the_Earth dbo:author ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; dbo:genre ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Frank_Sinatra dbo:birthPlace ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:City ; dbo:populationTotal ?population . } ORDER BY ?population LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow ; dbo:creator res:Walt_Disney . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:country res:Sweden . ?uri rdf:type dbo:Holiday . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Apple_Inc. dbo:netIncome ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Abraham_Lincoln dbo:deathPlace ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Himalayas dbo:country ?country . ?country dbo:capital ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; dbo:country ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { res:Michael_Jordan dbo:height ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director res:Clint_Eastwood ; dbo:starring res:Clint_Eastwood . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:currency res:West_African_CFA_franc . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { res:Iraq dbo:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Holiday . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:PoliticalParty ; dbo:country res:Greece ; dbo:ideology res:Pro-Europeanism . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Charmed&gt; dbo:starring ?actor . ?actor dbo:birthDate ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:The_Three_Dancers dbo:author ?painter . ?painter dbo:movement ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Actor . { ?uri dbo:birthPlace res:Germany . } UNION { ?uri dbo:birthPlace ?place . ?place dbo:country res:Germany . } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Brooklyn_Bridge dbo:architect ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; &lt;http://dbpedia.org/ontology/composer&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film ; dbo:director res:Francis_Ford_Coppola . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?name WHERE { res:Adele dbo:birthName ?name. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Album . ?uri dbo:artist res:Queen_(band) . ?uri dbo:releaseDate ?date } ORDER BY ?date LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Czech_Republic dbo:currency ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:birthPlace res:Vienna . ?uri dbo:deathPlace res:Berlin . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Bridge ; dbo:crosses res:Seine . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation res:Musician . ?x a dbo:Book ; dbo:author ?uri . } GROUP BY ?uri ORDER BY DESC(COUNT(?x)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow . ?uri dbo:creator res:John_Cleese . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Writer . ?uri dbo:award res:Nobel_Prize_in_Literature . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { ?res dbo:occupation res:Bandleader . ?res dbo:instrument res:Trumpet . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:BasketballPlayer . ?uri dbo:height ?height . FILTER(?height &gt; 200) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/Film&gt; . ?uri dbo:starring &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?uri dbo:starring &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?o1 WHERE { res:Canada dbo:capital ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:birthPlace res:Malta . ?uri rdf:type dbo:SoccerPlayer . }</t>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?owner WHERE { ?owner dbo:owner dbr:Donald_Trump }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/spouse&gt; &lt;http://dbpedia.org/resource/Tom_Cruise&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?population WHERE { res:Eurasia dbo:populationTotal ?population }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?Author WHERE { dbr:The_Interpretation_of_Dreams dbo:author ?Author }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?date WHERE { res:John_Adams dbo:birthDate ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?europop WHERE { dbr:European_Union dbo:populationTotal ?europop }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:China dbo:currency ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?x WHERE { dbr:William_Shakespeare dbo:deathDate ?x } LIMIT 1</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Rocket&gt; ; &lt;http://dbpedia.org/ontology/launchSite&gt; &lt;http://dbpedia.org/resource/Baikonur_Cosmodrome&gt; }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Island&gt; ; &lt;http://dbpedia.org/ontology/country&gt; &lt;http://dbpedia.org/resource/Japan&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:World_of_Warcraft dbo:developer ?uri }</t>
+  </si>
+  <si>
+    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://dbpedia.org/ontology/Company&gt; { ?uri &lt;http://dbpedia.org/ontology/industry&gt; &lt;http://dbpedia.org/resource/Advertising&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/industry&gt; ?industry FILTER regex(?industry, "advertising", "i") } }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?university WHERE { res:Angela_Merkel dbo:almaMater ?university }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/TelevisionShow&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Tom_Cruise&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Mount_Everest dbo:locatedInArea ?uri . ?uri rdf:type dbo:Country }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/John_F._Kennedy&gt; &lt;http://dbpedia.org/ontology/deathPlace&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Brooklyn_Bridge dbo:crosses ?uri }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Swimmer&gt; ; &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Moscow&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film ; dbo:starring res:Alec_Guinness ; dbo:releaseDate ?date } ORDER BY DESC(?date) LIMIT 1</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Mountain&gt; ; &lt;http://dbpedia.org/ontology/elevation&gt; ?elevation } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?pop WHERE { dbr:Cairo dbo:populationTotal ?pop }</t>
+  </si>
+  <si>
+    <t>PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX onto: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type onto:Person ; onto:birthPlace &lt;http://dbpedia.org/resource/Heraklion&gt;. }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { res:Benjamin_Franklin dbo:child ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?ele WHERE { dbr:Düsseldorf_Airport dbo:elevation ?ele } LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Mecca dbo:country ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?height WHERE { res:Claudia_Schiffer dbo:height ?height }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:The_Pillars_of_the_Earth dbo:author ?uri }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; &lt;http://dbpedia.org/ontology/genre&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?place WHERE { res:Frank_Sinatra dbo:birthPlace ?place }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:City ; dbo:populationTotal ?pop } ORDER BY ASC(?pop) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow ; dbo:creator res:Walt_Disney }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Holiday&gt; ; &lt;http://dbpedia.org/ontology/country&gt; &lt;http://dbpedia.org/resource/Sweden&gt; }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?ni WHERE { &lt;http://dbpedia.org/resource/Apple_Inc.&gt; &lt;http://dbpedia.org/ontology/netIncome&gt; ?ni }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { res:Abraham_Lincoln dbo:deathPlace ?uri. }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Himalayas&gt; &lt;http://dbpedia.org/ontology/country&gt; ?country . ?country &lt;http://dbpedia.org/ontology/capital&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Limerick_Lake dbo:country ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?num WHERE { res:Michael_Jordan dbo:height ?num }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Clint_Eastwood&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Clint_Eastwood&gt; }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/currency&gt; &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?pIraq WHERE { dbr:Iraq dbo:populationTotal ?pIraq }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Holiday }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/PoliticalParty&gt; ; &lt;http://dbpedia.org/ontology/country&gt; &lt;http://dbpedia.org/resource/Greece&gt; ; &lt;http://dbpedia.org/ontology/ideology&gt; &lt;http://dbpedia.org/resource/Pro-Europeanism&gt; }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Charmed&gt; &lt;http://dbpedia.org/ontology/starring&gt; ?actor . ?actor &lt;http://dbpedia.org/ontology/birthDate&gt; ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:The_Three_Dancers dbo:author ?person . ?person dbo:movement ?uri }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Actor&gt; { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Germany&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt; ?place . ?place &lt;http://dbpedia.org/ontology/country&gt; &lt;http://dbpedia.org/resource/Germany&gt; } }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Brooklyn_Bridge dbo:architect ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Game_of_Thrones dbo:composer ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film ; dbo:director res:Francis_Ford_Coppola }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?bn WHERE { dbr:Adele dbo:birthName ?bn }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Album ; dbo:artist &lt;http://dbpedia.org/resource/Queen_(band)&gt; ; dbo:releaseDate ?d } ORDER BY ASC(?d) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Czech_Republic dbo:currency ?uri }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Vienna&gt; ; &lt;http://dbpedia.org/ontology/deathPlace&gt; &lt;http://dbpedia.org/resource/Berlin&gt; }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Bridge&gt; ; &lt;http://dbpedia.org/ontology/crosses&gt; &lt;http://dbpedia.org/resource/Seine&gt; }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/occupation&gt; &lt;http://dbpedia.org/resource/Musician&gt; . ?x &lt;http://dbpedia.org/ontology/author&gt; ?uri . ?x &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#type&gt; &lt;http://dbpedia.org/ontology/Book&gt; . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/TelevisionShow&gt; ; &lt;http://dbpedia.org/ontology/creator&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Writer&gt; ; &lt;http://dbpedia.org/ontology/award&gt; &lt;http://dbpedia.org/resource/Nobel_Prize_in_Literature&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; dbo:discoverer ?uri }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/occupation&gt; &lt;http://dbpedia.org/resource/Bandleader&gt; ; &lt;http://dbpedia.org/ontology/instrument&gt; &lt;http://dbpedia.org/resource/Trumpet&gt; }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; ; &lt;http://dbpedia.org/ontology/height&gt; ?n FILTER ( ?n &gt; 2.0 ) }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film ; dbo:starring res:Julia_Roberts ; dbo:starring res:Richard_Gere }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Canada dbo:capital ?uri }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/SoccerPlayer&gt; ; &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Malta&gt; }</t>
   </si>
   <si>
     <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Cameroon dbo:capital ?uri }</t>
   </si>
   <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub rdf:type dbo:ProgrammingLanguage . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:nationality res:Russia . ?uri dbo:nationality res:Soviet_Union . ?uri dbo:nationality res:Soviet_Union . }</t>
+    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://dbpedia.org/ontology/ProgrammingLanguage&gt; }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Astronaut&gt; { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } }</t>
   </si>
   <si>
     <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Family_Guy dbo:creator ?uri }</t>
   </si>
   <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?population WHERE { res:Mexico_City dbo:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Batman dbo:creator ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?number WHERE { res:Australia dbo:capital ?uri . ?uri dbo:populationTotal ?number . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { res:North_Rhine-Westphalia dbo:areaTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?employees WHERE { res:IBM dbo:numberOfEmployees ?employees . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?value WHERE { res:Pulp_Fiction dbo:budget ?value . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:starring res:Jesse_Eisenberg . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:country res:Denmark . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Himalayas dbo:country ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Country . ?uri dbo:areaTotal ?area . } ORDER BY DESC(?area) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { res:Angela_Merkel dbo:almaMater ?res . ?res rdf:type dbo:EducationalInstitution . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q111135&gt; &lt;http://www.wikidata.org/prop/direct/P170&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Penguin_Books dbo:founder ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director res:Stanley_Kubrick }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Musical ; dbo:musicBy res:Elton_John }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { res:Skype dbo:developer ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/SoccerClub&gt; ; &lt;http://dbpedia.org/ontology/league&gt; &lt;http://dbpedia.org/resource/Bundesliga&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?x dbo:director res:William_Shatner ; dbo:starring ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Mountain&gt; ; &lt;http://dbpedia.org/ontology/elevation&gt; ?elevation } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Burton&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Minecraft&gt; &lt;http://dbpedia.org/ontology/developer&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?n WHERE { res:The_Lego_Movie dbo:budget ?n }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?x rdf:type dbo:Album ; dbo:artist res:Elvis_Presley ; dbo:releaseDate ?y ; dbo:recordLabel ?uri } ORDER BY ASC(?y) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?runtime WHERE { res:Toy_Story dbo:runtime ?runtime }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation res:Bandleader ; dbo:instrument res:Trumpet }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; ; &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Rachel_Stevens dbo:birthYear ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?x WHERE { ?uri &lt;http://dbpedia.org/ontology/deathCause&gt; ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?num WHERE { res:Yokohama_Marine_Tower dbo:height ?num }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Mountain ; dbo:locatedInArea res:Italy ; dbo:elevation ?num } ORDER BY DESC(?num) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?owner WHERE { ?owner dbo:owner dbr:Donald_Trump }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/spouse&gt; &lt;http://dbpedia.org/resource/Tom_Cruise&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?population WHERE { res:Eurasia dbo:populationTotal ?population }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?Author WHERE { dbr:The_Interpretation_of_Dreams dbo:author ?Author }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?date WHERE { res:John_Adams dbo:birthDate ?date }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?europop WHERE { dbr:European_Union dbo:populationTotal ?europop }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:China dbo:currency ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?x WHERE { dbr:William_Shakespeare dbo:deathDate ?x } LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Rocket&gt; ; &lt;http://dbpedia.org/ontology/launchSite&gt; &lt;http://dbpedia.org/resource/Baikonur_Cosmodrome&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Island&gt; ; &lt;http://dbpedia.org/ontology/country&gt; &lt;http://dbpedia.org/resource/Japan&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:World_of_Warcraft dbo:developer ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://dbpedia.org/ontology/Company&gt; { ?uri &lt;http://dbpedia.org/ontology/industry&gt; &lt;http://dbpedia.org/resource/Advertising&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/industry&gt; ?industry FILTER regex(?industry, "advertising", "i") } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?university WHERE { res:Angela_Merkel dbo:almaMater ?university }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/TelevisionShow&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Tom_Cruise&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Mount_Everest dbo:locatedInArea ?uri . ?uri rdf:type dbo:Country }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/John_F._Kennedy&gt; &lt;http://dbpedia.org/ontology/deathPlace&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Brooklyn_Bridge dbo:crosses ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Swimmer&gt; ; &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Moscow&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film ; dbo:starring res:Alec_Guinness ; dbo:releaseDate ?date } ORDER BY DESC(?date) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Mountain&gt; ; &lt;http://dbpedia.org/ontology/elevation&gt; ?elevation } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?pop WHERE { dbr:Cairo dbo:populationTotal ?pop }</t>
-  </si>
-  <si>
-    <t>PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX onto: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type onto:Person ; onto:birthPlace &lt;http://dbpedia.org/resource/Heraklion&gt;. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { res:Benjamin_Franklin dbo:child ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?ele WHERE { dbr:Düsseldorf_Airport dbo:elevation ?ele } LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Mecca dbo:country ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?height WHERE { res:Claudia_Schiffer dbo:height ?height }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:The_Pillars_of_the_Earth dbo:author ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; &lt;http://dbpedia.org/ontology/genre&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?place WHERE { res:Frank_Sinatra dbo:birthPlace ?place }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:City ; dbo:populationTotal ?pop } ORDER BY ASC(?pop) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow ; dbo:creator res:Walt_Disney }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Holiday&gt; ; &lt;http://dbpedia.org/ontology/country&gt; &lt;http://dbpedia.org/resource/Sweden&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?ni WHERE { &lt;http://dbpedia.org/resource/Apple_Inc.&gt; &lt;http://dbpedia.org/ontology/netIncome&gt; ?ni }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { res:Abraham_Lincoln dbo:deathPlace ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Himalayas&gt; &lt;http://dbpedia.org/ontology/country&gt; ?country . ?country &lt;http://dbpedia.org/ontology/capital&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Limerick_Lake dbo:country ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?num WHERE { res:Michael_Jordan dbo:height ?num }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Clint_Eastwood&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Clint_Eastwood&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/currency&gt; &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?pIraq WHERE { dbr:Iraq dbo:populationTotal ?pIraq }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Holiday }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/PoliticalParty&gt; ; &lt;http://dbpedia.org/ontology/country&gt; &lt;http://dbpedia.org/resource/Greece&gt; ; &lt;http://dbpedia.org/ontology/ideology&gt; &lt;http://dbpedia.org/resource/Pro-Europeanism&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Charmed&gt; &lt;http://dbpedia.org/ontology/starring&gt; ?actor . ?actor &lt;http://dbpedia.org/ontology/birthDate&gt; ?date }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:The_Three_Dancers dbo:author ?person . ?person dbo:movement ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Actor&gt; { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Germany&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt; ?place . ?place &lt;http://dbpedia.org/ontology/country&gt; &lt;http://dbpedia.org/resource/Germany&gt; } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Brooklyn_Bridge dbo:architect ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Game_of_Thrones dbo:composer ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film ; dbo:director res:Francis_Ford_Coppola }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?bn WHERE { dbr:Adele dbo:birthName ?bn }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Album ; dbo:artist &lt;http://dbpedia.org/resource/Queen_(band)&gt; ; dbo:releaseDate ?d } ORDER BY ASC(?d) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Czech_Republic dbo:currency ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Vienna&gt; ; &lt;http://dbpedia.org/ontology/deathPlace&gt; &lt;http://dbpedia.org/resource/Berlin&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Bridge&gt; ; &lt;http://dbpedia.org/ontology/crosses&gt; &lt;http://dbpedia.org/resource/Seine&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/occupation&gt; &lt;http://dbpedia.org/resource/Musician&gt; . ?x &lt;http://dbpedia.org/ontology/author&gt; ?uri . ?x &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#type&gt; &lt;http://dbpedia.org/ontology/Book&gt; . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/TelevisionShow&gt; ; &lt;http://dbpedia.org/ontology/creator&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Writer&gt; ; &lt;http://dbpedia.org/ontology/award&gt; &lt;http://dbpedia.org/resource/Nobel_Prize_in_Literature&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; dbo:discoverer ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/occupation&gt; &lt;http://dbpedia.org/resource/Bandleader&gt; ; &lt;http://dbpedia.org/ontology/instrument&gt; &lt;http://dbpedia.org/resource/Trumpet&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; ; &lt;http://dbpedia.org/ontology/height&gt; ?n FILTER ( ?n &gt; 2.0 ) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film ; dbo:starring res:Julia_Roberts ; dbo:starring res:Richard_Gere }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Canada dbo:capital ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/SoccerPlayer&gt; ; &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Malta&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://dbpedia.org/ontology/ProgrammingLanguage&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Astronaut&gt; { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } }</t>
-  </si>
-  <si>
     <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?Mexico_City WHERE { dbr:Mexico_City dbo:populationTotal ?Mexico_City }</t>
   </si>
   <si>
@@ -943,120 +1659,150 @@
     <t>['http://dbpedia.org/resource/2001:_A_Space_Odyssey_(film)', 'http://dbpedia.org/resource/A_Clockwork_Orange_(film)', 'http://dbpedia.org/resource/Barry_Lyndon', 'http://dbpedia.org/resource/Day_of_the_Fight', 'http://dbpedia.org/resource/Dr._Strangelove', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Fear_and_Desire', 'http://dbpedia.org/resource/Flying_Padre', 'http://dbpedia.org/resource/Full_Metal_Jacket', "http://dbpedia.org/resource/Killer's_Kiss", 'http://dbpedia.org/resource/Lolita_(1962_film)', 'http://dbpedia.org/resource/Paths_of_Glory', 'http://dbpedia.org/resource/Spartacus_(film)', 'http://dbpedia.org/resource/The_Killing_(film)__The_Killing__1', 'http://dbpedia.org/resource/The_Seafarers__The_Seafarers__1', 'http://dbpedia.org/resource/The_Shining_(film)']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/Aida_(musical)', 'http://dbpedia.org/resource/Billy_Elliot_the_Musical', 'http://dbpedia.org/resource/Lestat_(musical)', 'http://dbpedia.org/resource/Tammy_Faye_(musical)', 'http://dbpedia.org/resource/The_Devil_Wears_Prada_(musical)', 'http://dbpedia.org/resource/The_Lion_King_(musical)']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/1969–70_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1970–71_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1971–72_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1971–72_VfL_Bochum_season', 'http://dbpedia.org/resource/1972–73_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1972–73_VfL_Bochum_season', 'http://dbpedia.org/resource/1973–74_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1973–74_VfL_Bochum_season', 'http://dbpedia.org/resource/1974–75_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1974–75_VfL_Bochum_season', 'http://dbpedia.org/resource/1975–76_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1975–76_Hamburger_SV_season', 'http://dbpedia.org/resource/1975–76_VfL_Bochum_season', 'http://dbpedia.org/resource/1976–77_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1976–77_Hamburger_SV_season', 'http://dbpedia.org/resource/1976–77_Tennis_Borussia_Berlin_season', 'http://dbpedia.org/resource/1976–77_VfL_Bochum_season', 'http://dbpedia.org/resource/1977–78_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1977–78_VfL_Bochum_season', 'http://dbpedia.org/resource/1978–79_Hamburger_SV_season', 'http://dbpedia.org/resource/1978–79_VfL_Bochum_season', 'http://dbpedia.org/resource/1979–80_VfL_Bochum_season', 'http://dbpedia.org/resource/1980–81_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1980–81_VfL_Bochum_season', 'http://dbpedia.org/resource/1981–82_Hamburger_SV_season', 'http://dbpedia.org/resource/1981–82_VfL_Bochum_season', 'http://dbpedia.org/resource/1982–83_Hamburger_SV_season', 'http://dbpedia.org/resource/1982–83_VfL_Bochum_season', 'http://dbpedia.org/resource/1983–84_VfL_Bochum_season', 'http://dbpedia.org/resource/1984–85_VfL_Bochum_season', 'http://dbpedia.org/resource/1985–86_VfL_Bochum_season', 'http://dbpedia.org/resource/1986–87_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1986–87_Hamburger_SV_season', 'http://dbpedia.org/resource/1986–87_VfL_Bochum_season', 'http://dbpedia.org/resource/1987–88_VfL_Bochum_season', 'http://dbpedia.org/resource/1988–89_VfL_Bochum_season', 'http://dbpedia.org/resource/1989–90_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1989–90_VfL_Bochum_season', 'http://dbpedia.org/resource/1990–91_VfL_Bochum_season', 'http://dbpedia.org/resource/1991–92_VfL_Bochum_season', 'http://dbpedia.org/resource/1992–93_Borussia_Dortmund_season', 'http://dbpedia.org/resource/1992–93_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1992–93_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/1992–93_VfL_Bochum_season', 'http://dbpedia.org/resource/1993–94_Karlsruher_SC_season', 'http://dbpedia.org/resource/1993–94_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/1994–95_Borussia_Dortmund_season', 'http://dbpedia.org/resource/1994–95_SC_Freiburg_season', 'http://dbpedia.org/resource/1994–95_VfL_Bochum_season', 'http://dbpedia.org/resource/1995–96_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/1995–96_Borussia_Dortmund_season', 'http://dbpedia.org/resource/1995–96_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/1995–96_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1995–96_Fortuna_Düsseldorf_season', 'http://dbpedia.org/resource/1995–96_KFC_Uerdingen_05_season', 'http://dbpedia.org/resource/1996–97_Borussia_Dortmund_season', 'http://dbpedia.org/resource/1996–97_FC_Schalke_04_season', 'http://dbpedia.org/resource/1996–97_VfL_Bochum_season', 'http://dbpedia.org/resource/1997–98_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/1997–98_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/1997–98_Borussia_Dortmund_season', 'http://dbpedia.org/resource/1997–98_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1997–98_FC_Hansa_Rostock_season', 'http://dbpedia.org/resource/1997–98_FC_Schalke_04_season', 'http://dbpedia.org/resource/1997–98_VfL_Bochum_season', 'http://dbpedia.org/resource/1998–99_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/1998–99_Borussia_Dortmund_season', 'http://dbpedia.org/resource/1998–99_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/1998–99_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1998–99_Hertha_BSC_season', 'http://dbpedia.org/resource/1998–99_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/1998–99_VfL_Bochum_season', 'http://dbpedia.org/resource/1999–2000_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/1999–2000_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/1999–2000_Borussia_Dortmund_season', 'http://dbpedia.org/resource/1999–2000_FC_Schalke_04_season', 'http://dbpedia.org/resource/1999–2000_Hamburger_SV_season', 'http://dbpedia.org/resource/1999–2000_MSV_Duisburg_season', 'http://dbpedia.org/resource/1999–2000_SpVgg_Unterhaching_season', 'http://dbpedia.org/resource/1999–2000_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/1999–2000_TSV_1860_Munich_season', 'http://dbpedia.org/resource/1999–2000_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2000–01_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/2000–01_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2000–01_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2000–01_FC_Energie_Cottbus_season', 'http://dbpedia.org/resource/2000–01_Hamburger_SV_season', 'http://dbpedia.org/resource/2000–01_SC_Freiburg_season', 'http://dbpedia.org/resource/2000–01_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2000–01_VfL_Bochum_season', 'http://dbpedia.org/resource/2000–01_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2001–02_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/2001–02_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2001–02_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2001–02_FC_Schalke_04_season', 'http://dbpedia.org/resource/2001–02_FC_St._Pauli_season', 'http://dbpedia.org/resource/2001–02_Hamburger_SV_season', 'http://dbpedia.org/resource/2001–02_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2001–02_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2001–02_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2002–03_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/2002–03_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2002–03_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2002–03_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2002–03_Hamburger_SV_season', 'http://dbpedia.org/resource/2002–03_Hertha_BSC_season', 'http://dbpedia.org/resource/2002–03_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2002–03_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2002–03_VfL_Bochum_season', 'http://dbpedia.org/resource/2002–03_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2003–04_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2003–04_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2003–04_Hamburger_SV_season', 'http://dbpedia.org/resource/2003–04_Hertha_BSC_season', 'http://dbpedia.org/resource/2003–04_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2003–04_TSV_1860_Munich_season', 'http://dbpedia.org/resource/2003–04_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2003–04_VfL_Bochum_season', 'http://dbpedia.org/resource/2003–04_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2004–05_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/2004–05_1._FSV_Mainz_05_season', 'http://dbpedia.org/resource/2004–05_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2004–05_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2004–05_FC_Schalke_04_season', 'http://dbpedia.org/resource/2004–05_Hamburger_SV_season', 'http://dbpedia.org/resource/2004–05_Hertha_BSC_season', 'http://dbpedia.org/resource/2004–05_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2004–05_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2004–05_VfL_Bochum_season', 'http://dbpedia.org/resource/2004–05_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2005–06_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2005–06_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2005–06_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2005–06_FC_Schalke_04_season', 'http://dbpedia.org/resource/2005–06_Hamburger_SV_season', 'http://dbpedia.org/resource/2005–06_Hertha_BSC_season', 'http://dbpedia.org/resource/2005–06_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2005–06_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2005–06_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2006–07_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2006–07_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2006–07_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2006–07_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2006–07_FC_Schalke_04_season', 'http://dbpedia.org/resource/2006–07_Hamburger_SV_season', 'http://dbpedia.org/resource/2006–07_Hertha_BSC_season', 'http://dbpedia.org/resource/2006–07_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2006–07_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2006–07_VfL_Bochum_season', 'http://dbpedia.org/resource/2006–07_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2007–08_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2007–08_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2007–08_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2007–08_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2007–08_FC_Hansa_Rostock_season', 'http://dbpedia.org/resource/2007–08_FC_Schalke_04_season', 'http://dbpedia.org/resource/2007–08_Hamburger_SV_season', 'http://dbpedia.org/resource/2007–08_Hertha_BSC_season', 'http://dbpedia.org/resource/2007–08_Karlsruher_SC_season', 'http://dbpedia.org/resource/2007–08_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2007–08_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2007–08_VfL_Bochum_season', 'http://dbpedia.org/resource/2007–08_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2008–09_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2008–09_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2008–09_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2008–09_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2008–09_FC_Energie_Cottbus_season', 'http://dbpedia.org/resource/2008–09_FC_Schalke_04_season', 'http://dbpedia.org/resource/2008–09_Hamburger_SV_season', 'http://dbpedia.org/resource/2008–09_Hertha_BSC_season', 'http://dbpedia.org/resource/2008–09_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2008–09_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2008–09_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2008–09_VfL_Bochum_season', 'http://dbpedia.org/resource/2008–09_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2009–10_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2009–10_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2009–10_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2009–10_FC_Schalke_04_season', 'http://dbpedia.org/resource/2009–10_Hannover_96_season', 'http://dbpedia.org/resource/2009–10_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2009–10_VfL_Bochum_season', 'http://dbpedia.org/resource/2010–11_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/2010–11_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2010–11_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2010–11_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2010–11_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2011–12_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/2011–12_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2011–12_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2011–12_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_Hannover_96_season', 'http://dbpedia.org/resource/2011–12_SC_Freiburg_season', 'http://dbpedia.org/resource/2011–12_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2011–12_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2011–12_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2012–13_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2012–13_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2012–13_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2012–13_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2012–13_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2013–14_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2013–14_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2013–14_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2013–14_SC_Freiburg_season', 'http://dbpedia.org/resource/2013–14_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2013–14_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2013–14_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2014–15_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2014–15_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2014–15_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2014–15_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2015–16_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2015–16_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2015–16_FC_Ingolstadt_04_season', 'http://dbpedia.org/resource/2015–16_FC_Schalke_04_season', 'http://dbpedia.org/resource/2015–16_SK_Rapid_Wien_season', 'http://dbpedia.org/resource/2015–16_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2016–17_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2016–17_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2016–17_FC_Schalke_04_season', 'http://dbpedia.org/resource/2016–17_Hamburger_SV_season', 'http://dbpedia.org/resource/2017–18_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2017–18_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2017–18_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2017–18_FC_Schalke_04_season', 'http://dbpedia.org/resource/2017–18_RB_Leipzig_season', 'http://dbpedia.org/resource/2018–19_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2018–19_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2018–19_Hannover_96_season', 'http://dbpedia.org/resource/2019–20_1._FC_Heidenheim_season', 'http://dbpedia.org/resource/2019–20_1._FC_Köln_season', 'http://dbpedia.org/resource/2019–20_1._FSV_Mainz_05_season', 'http://dbpedia.org/resource/2019–20_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2019–20_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2019–20_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2019–20_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2019–20_FC_Augsburg_season', 'http://dbpedia.org/resource/2019–20_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2019–20_FC_Schalke_04_season', 'http://dbpedia.org/resource/2019–20_Fortuna_Düsseldorf_season', 'http://dbpedia.org/resource/2019–20_Hertha_BSC_season', 'http://dbpedia.org/resource/2019–20_RB_Leipzig_season', 'http://dbpedia.org/resource/2019–20_SC_Freiburg_season', 'http://dbpedia.org/resource/2019–20_SC_Paderborn_07_season', 'http://dbpedia.org/resource/2019–20_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2019–20_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2019–20_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2020–21_1._FC_Köln_season', 'http://dbpedia.org/resource/2020–21_1._FC_Union_Berlin_season', 'http://dbpedia.org/resource/2020–21_1._FSV_Mainz_05_season', 'http://dbpedia.org/resource/2020–21_Arminia_Bielefeld_season', 'http://dbpedia.org/resource/2020–21_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2020–21_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2020–21_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2020–21_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2020–21_FC_Augsburg_season', 'http://dbpedia.org/resource/2020–21_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2020–21_FC_Schalke_04_season', 'http://dbpedia.org/resource/2020–21_Hertha_BSC_season', 'http://dbpedia.org/resource/2020–21_RB_Leipzig_season', 'http://dbpedia.org/resource/2020–21_SC_Freiburg_season', 'http://dbpedia.org/resource/2020–21_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2020–21_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2020–21_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2020–21_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2021–22_1._FC_Köln_season', 'http://dbpedia.org/resource/2021–22_1._FSV_Mainz_05_season', 'http://dbpedia.org/resource/2021–22_Arminia_Bielefeld_season', 'http://dbpedia.org/resource/2021–22_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2021–22_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2021–22_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2021–22_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2021–22_FC_Augsburg_season', 'http://dbpedia.org/resource/2021–22_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2021–22_Hertha_BSC_season', 'http://dbpedia.org/resource/2021–22_RB_Leipzig_season', 'http://dbpedia.org/resource/2021–22_SC_Freiburg_season', 'http://dbpedia.org/resource/2021–22_SpVgg_Greuther_Fürth_season', 'http://dbpedia.org/resource/2021–22_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2021–22_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2021–22_VfL_Bochum_season', 'http://dbpedia.org/resource/2021–22_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2022–23_1._FC_Köln_season', 'http://dbpedia.org/resource/2022–23_1._FC_Union_Berlin_season', 'http://dbpedia.org/resource/2022–23_1._FSV_Mainz_05_season', 'http://dbpedia.org/resource/2022–23_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2022–23_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2022–23_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2022–23_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2022–23_FC_Augsburg_season', 'http://dbpedia.org/resource/2022–23_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2022–23_FC_Schalke_04_season', 'http://dbpedia.org/resource/2022–23_Hertha_BSC_season', 'http://dbpedia.org/resource/2022–23_RB_Leipzig_season', 'http://dbpedia.org/resource/2022–23_SC_Freiburg_season', 'http://dbpedia.org/resource/2022–23_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2022–23_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2022–23_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2022–23_VfL_Bochum_season', 'http://dbpedia.org/resource/2022–23_VfL_Wolfsburg_season']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
+  </si>
+  <si>
+    <t>['No answer']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['1986-02-28']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
+  </si>
+  <si>
+    <t>['60.0']</t>
+  </si>
+  <si>
+    <t>['4860']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
+  </si>
+  <si>
+    <t>["http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
+  </si>
+  <si>
+    <t>['1978']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
+  </si>
+  <si>
+    <t>['106.07']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
+  </si>
+  <si>
+    <t>['5360351985']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+  </si>
+  <si>
+    <t>['1735-10-30']</t>
+  </si>
+  <si>
+    <t>['446828803']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Renminbi']</t>
+  </si>
+  <si>
+    <t>['1616-04-23']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_109', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_110', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_200', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_250', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_31', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_41', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_45', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_81', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_90', 'http://dbpedia.org/resource/Dnepr_(rocket)', 'http://dbpedia.org/resource/Energia_(rocket)', "http://dbpedia.org/resource/Gagarin's_Start", 'http://dbpedia.org/resource/Irtysh_(rocket)', 'http://dbpedia.org/resource/Kosmos_3_(rocket)', 'http://dbpedia.org/resource/Kosmos-1', 'http://dbpedia.org/resource/Molniya_(rocket)', 'http://dbpedia.org/resource/Molniya-M', 'http://dbpedia.org/resource/N1_(rocket)', 'http://dbpedia.org/resource/Polyot_(rocket)__Polyot_11A59__1', 'http://dbpedia.org/resource/Proton_(rocket_family)', 'http://dbpedia.org/resource/Proton-K', 'http://dbpedia.org/resource/Proton-M', 'http://dbpedia.org/resource/R-7A_Semyorka', 'http://dbpedia.org/resource/Rokot', 'http://dbpedia.org/resource/Soyuz_(rocket_family)', 'http://dbpedia.org/resource/Soyuz_(rocket)', 'http://dbpedia.org/resource/Soyuz-2', 'http://dbpedia.org/resource/Soyuz-FG', 'http://dbpedia.org/resource/Soyuz-L', 'http://dbpedia.org/resource/Soyuz-U', 'http://dbpedia.org/resource/Soyuz-U2', 'http://dbpedia.org/resource/Soyuz/Vostok', 'http://dbpedia.org/resource/Sputnik_(rocket)__Sputnik_727__1', 'http://dbpedia.org/resource/Strela_(rocket)', 'http://dbpedia.org/resource/Tsyklon-2', 'http://dbpedia.org/resource/Tsyklon', 'http://dbpedia.org/resource/Voskhod_(rocket)', 'http://dbpedia.org/resource/Vostok_(rocket_family)', 'http://dbpedia.org/resource/Vostok-2_(rocket)', 'http://dbpedia.org/resource/Vostok-2M', 'http://dbpedia.org/resource/Vostok-K', 'http://dbpedia.org/resource/Vostok-L', 'http://dbpedia.org/resource/Zenit_(rocket_family)', 'http://dbpedia.org/resource/Zenit-2', 'http://dbpedia.org/resource/Zenit-2M', 'http://dbpedia.org/resource/Zenit-3F', 'http://dbpedia.org/resource/Zenit-3SLB']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/140_Proof', 'http://dbpedia.org/resource/495_Communications', 'http://dbpedia.org/resource/72andSunny', 'http://dbpedia.org/resource/Abbott_Mead_Vickers_BBDO', 'http://dbpedia.org/resource/AdDuplex', 'http://dbpedia.org/resource/AdForum', 'http://dbpedia.org/resource/AdGreetz', 'http://dbpedia.org/resource/AdKeeper', 'http://dbpedia.org/resource/AdPack_USA', 'http://dbpedia.org/resource/All_By_Students_Notebooks', 'http://dbpedia.org/resource/Amalgamated_Advertising', 'http://dbpedia.org/resource/Anomaly_(advertising_agency)', 'http://dbpedia.org/resource/Argentonia', 'http://dbpedia.org/resource/AudienceProject', 'http://dbpedia.org/resource/B-Reel', 'http://dbpedia.org/resource/Bang_(company)', 'http://dbpedia.org/resource/Barker_(advertising_agency)', 'http://dbpedia.org/resource/Barkley_Inc.', 'http://dbpedia.org/resource/Bastion_Collective', 'http://dbpedia.org/resource/BBB_National_Programs', 'http://dbpedia.org/resource/Beasley_Broadcast_Group', 'http://dbpedia.org/resource/Berk_Communications', 'http://dbpedia.org/resource/Blue_Zoo_Animation_Studio', 'http://dbpedia.org/resource/BlueFocus_Communication_Group', 'http://dbpedia.org/resource/Boase_Massimi_Pollitt', 'http://dbpedia.org/resource/Boats_Group', 'http://dbpedia.org/resource/Bookmark_Content_and_Communications', 'http://dbpedia.org/resource/Brand_Keys', 'http://dbpedia.org/resource/Bromley_Originate_Change', 'http://dbpedia.org/resource/Butler,_Shine,_Stern_&amp;_Partners', 'http://dbpedia.org/resource/BYU_Adlab', 'http://dbpedia.org/resource/Cabe_Rawit_Marketing_Communications', 'http://dbpedia.org/resource/Camp+King', 'http://dbpedia.org/resource/Campaigns_&amp;_Grey', 'http://dbpedia.org/resource/Carbone_Smolan_Agency', "http://dbpedia.org/resource/Children's_Advertising_Review_Unit", 'http://dbpedia.org/resource/CKS_Group', 'http://dbpedia.org/resource/Classified_Ventures', 'http://dbpedia.org/resource/Clever_Bins', 'http://dbpedia.org/resource/Collett_Dickenson_Pearce', 'http://dbpedia.org/resource/Commonground/MGS', 'http://dbpedia.org/resource/Compass_Media_Networks', 'http://dbpedia.org/resource/Cordiant_Communications_Group', 'http://dbpedia.org/resource/Creature_(company)', 'http://dbpedia.org/resource/Crispin_Porter_+_Bogusky', 'http://dbpedia.org/resource/Dancer_Fitzgerald_Sample', 'http://dbpedia.org/resource/Dancing_Diablo', 'http://dbpedia.org/resource/DCF_Advertising', 'http://dbpedia.org/resource/Doe-Anderson_Inc.', 'http://dbpedia.org/resource/Dominion_Enterprises', 'http://dbpedia.org/resource/Doner_Company', 'http://dbpedia.org/resource/Door_Number_3', 'http://dbpedia.org/resource/Droga5', 'http://dbpedia.org/resource/DRUM_Agency', 'http://dbpedia.org/resource/Due_North_Communications', 'http://dbpedia.org/resource/Earthsky_Pictures', 'http://dbpedia.org/resource/Emakina_Group', 'http://dbpedia.org/resource/Empower_(company)', 'http://dbpedia.org/resource/Eniro', 'http://dbpedia.org/resource/Equativ', 'http://dbpedia.org/resource/Essence_Global', 'http://dbpedia.org/resource/Euro_RSCG_London', 'http://dbpedia.org/resource/FCB_(advertising_agency)', 'http://dbpedia.org/resource/Flock_Edit', 'http://dbpedia.org/resource/Flurry_(company)', 'http://dbpedia.org/resource/Focus_Media', 'http://dbpedia.org/resource/Forum_Communications_Company', 'http://dbpedia.org/resource/Fred_&amp;_Farid_Group', 'http://dbpedia.org/resource/Gigil', 'http://dbpedia.org/resource/Goodby,_Silverstein_&amp;_Partners', 'http://dbpedia.org/resource/Google', 'http://dbpedia.org/resource/Gotham,_Inc.', 'http://dbpedia.org/resource/Grey_Global_Group', 'http://dbpedia.org/resource/Griffin-Bacal_Advertising', 'http://dbpedia.org/resource/GSD&amp;M', 'http://dbpedia.org/resource/GTB_(advertising_agency)', 'http://dbpedia.org/resource/GumCo', 'http://dbpedia.org/resource/GWI_(company)', 'http://dbpedia.org/resource/Hogarth_Worldwide', 'http://dbpedia.org/resource/I_Wear_Your_Shirt', 'http://dbpedia.org/resource/ID_(public_relations)', 'http://dbpedia.org/resource/Initiative_(agency)', 'http://dbpedia.org/resource/Invite_Media', 'http://dbpedia.org/resource/Jackson_Radio_Works', 'http://dbpedia.org/resource/Janimation', 'http://dbpedia.org/resource/Johannes_Leonardo', 'http://dbpedia.org/resource/Johnstone_and_Cushing', 'http://dbpedia.org/resource/Karmarama_(advertising_agency)', 'http://dbpedia.org/resource/Ketchum_Inc.', 'http://dbpedia.org/resource/La_comunidad_(agency)', 'http://dbpedia.org/resource/Lamar_Advertising_Company', 'http://dbpedia.org/resource/LatinWorks', 'http://dbpedia.org/resource/Laughlin_Constable', 'http://dbpedia.org/resource/Le_Book', 'http://dbpedia.org/resource/Level_Studios', 'http://dbpedia.org/resource/Logical_Position', 'http://dbpedia.org/resource/Lopez_Negrete_Communications', 'http://dbpedia.org/resource/Lowe_Roche', 'http://dbpedia.org/resource/LPM_Comunicação', 'http://dbpedia.org/resource/M&amp;C_Saatchi', 'http://dbpedia.org/resource/Magnite_Inc', 'http://dbpedia.org/resource/Makovsky_(agency)', 'http://dbpedia.org/resource/MARC_USA', 'http://dbpedia.org/resource/Marfeel', 'http://dbpedia.org/resource/Marmoset_(music_agency)', 'http://dbpedia.org/resource/Martin_Williams_Advertising', 'http://dbpedia.org/resource/Mason_&amp;_Associates', 'http://dbpedia.org/resource/Massive_Incorporated', 'http://dbpedia.org/resource/Matari_Advertising', 'http://dbpedia.org/resource/Matomy_Media', 'http://dbpedia.org/resource/Maximum_Effort', 'http://dbpedia.org/resource/Maxus_(media_agency)', 'http://dbpedia.org/resource/Mc_Group', 'http://dbpedia.org/resource/McCann_(company)', 'http://dbpedia.org/resource/McGarrah_Jessee', 'http://dbpedia.org/resource/McKinney_(advertising_agency)', 'http://dbpedia.org/resource/MDB_Communications', 'http://dbpedia.org/resource/Mediahub', 'http://dbpedia.org/resource/Mekanism', 'http://dbpedia.org/resource/Merchlar', 'http://dbpedia.org/resource/MGSCOMM', 'http://dbpedia.org/resource/Mindshare_(firm)', 'http://dbpedia.org/resource/Mithun_Agency', 'http://dbpedia.org/resource/MMA_Creative', 'http://dbpedia.org/resource/Modernista!', 'http://dbpedia.org/resource/Moxie_Sozo', 'http://dbpedia.org/resource/MullenLowe_U.S.', 'http://dbpedia.org/resource/N._W._Ayer_&amp;_Son', 'http://dbpedia.org/resource/Narcity_Media', 'http://dbpedia.org/resource/Nativex', 'http://dbpedia.org/resource/NBG_Radio_Network', 'http://dbpedia.org/resource/Noble_(company)', 'http://dbpedia.org/resource/Nova_M_Radio', 'http://dbpedia.org/resource/Ogilvy_(agency)', 'http://dbpedia.org/resource/OMD_Worldwide', 'http://dbpedia.org/resource/OOh!media', 'http://dbpedia.org/resource/OwnLocal', 'http://dbpedia.org/resource/PeakBiety_Branding_+_Advertising', 'http://dbpedia.org/resource/Porterhouse_Media', 'http://dbpedia.org/resource/Premiere_Networks', 'http://dbpedia.org/resource/Promotus_Advertising', 'http://dbpedia.org/resource/Proximity_Worldwide', 'http://dbpedia.org/resource/Purple_Strategies', 'http://dbpedia.org/resource/Quarry_(company)', 'http://dbpedia.org/resource/R/GA', 'http://dbpedia.org/resource/R%5CWest', 'http://dbpedia.org/resource/Radio_Express', 'http://dbpedia.org/resource/Razor_Creative', 'http://dbpedia.org/resource/Red_Zebra_Broadcasting', 'http://dbpedia.org/resource/Richards/Carlberg', 'http://dbpedia.org/resource/Rothco', 'http://dbpedia.org/resource/Scholz_&amp;_Friends', 'http://dbpedia.org/resource/Screenvision', 'http://dbpedia.org/resource/Seiter_&amp;_Miller_Advertising', 'http://dbpedia.org/resource/Sensis_(company)', 'http://dbpedia.org/resource/Serviceplan', 'http://dbpedia.org/resource/Siren_interactive', 'http://dbpedia.org/resource/Sirved', 'http://dbpedia.org/resource/Smith_(advertising_agency)', 'http://dbpedia.org/resource/Soccer_United_Marketing', 'http://dbpedia.org/resource/Stein_IAS', 'http://dbpedia.org/resource/Stevens_Reed_Curcio_&amp;_Potholm', 'http://dbpedia.org/resource/Stinkdigital', 'http://dbpedia.org/resource/Storeboard_Media', 'http://dbpedia.org/resource/Strata_(company)', 'http://dbpedia.org/resource/Stuart_Advertising_Agency', 'http://dbpedia.org/resource/Sullivan_&amp;_Company', 'http://dbpedia.org/resource/T3_(company)', 'http://dbpedia.org/resource/TBWA_Worldwide', 'http://dbpedia.org/resource/TBWA%5CChiat%5CDay', 'http://dbpedia.org/resource/Telmar_(company)', 'http://dbpedia.org/resource/The_Ant_Farm', 'http://dbpedia.org/resource/The_Barbarian_Group', 'http://dbpedia.org/resource/The_Kluger_Agency', 'http://dbpedia.org/resource/The_Marketing_Group', 'http://dbpedia.org/resource/The_North_Alliance', 'http://dbpedia.org/resource/The_San_Jose_Group', 'http://dbpedia.org/resource/TheSwizzle.com', 'http://dbpedia.org/resource/Titan_(transit_advertising_company)', 'http://dbpedia.org/resource/TM_Advertising', 'http://dbpedia.org/resource/Tocquigny', 'http://dbpedia.org/resource/Tombras_Group', 'http://dbpedia.org/resource/Topham_Guerin', 'http://dbpedia.org/resource/Toth_Brand_Imaging', 'http://dbpedia.org/resource/Traction_(agency)', 'http://dbpedia.org/resource/Tremor_International', 'http://dbpedia.org/resource/Tribal_Worldwide', 'http://dbpedia.org/resource/UNIT9', 'http://dbpedia.org/resource/United_Group', 'http://dbpedia.org/resource/UWG_Inc.', 'http://dbpedia.org/resource/Will_Vinton__Productions__1', 'http://dbpedia.org/resource/Work_Labs', 'http://dbpedia.org/resource/WPP-Scangroup', 'http://dbpedia.org/resource/Wunderman_Thompson', 'http://dbpedia.org/resource/Wunderman', 'http://dbpedia.org/resource/XM_Gravity_Indonesia', 'http://dbpedia.org/resource/YachtWorld', 'http://dbpedia.org/resource/ZERO_VFX']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Dallas']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/East_River']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Edwin_(film)']</t>
+  </si>
+  <si>
+    <t>['10100166']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['44.8', '44.8056']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Saudi_Arabia']</t>
+  </si>
+  <si>
+    <t>['1.8']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Ken_Follett']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', "http://dbpedia.org/resource/International_Men's_Day", "http://dbpedia.org/resource/Knut's_party", "http://dbpedia.org/resource/Saint_Knut's_Day", "http://dbpedia.org/resource/Sweden_Finns'_Day", 'http://dbpedia.org/resource/Veterans_Day_(Sweden)', 'http://dbpedia.org/resource/Victoria_Days']</t>
+  </si>
+  <si>
     <t>['Query failed']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/1969–70_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1970–71_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1971–72_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1971–72_VfL_Bochum_season', 'http://dbpedia.org/resource/1972–73_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1972–73_VfL_Bochum_season', 'http://dbpedia.org/resource/1973–74_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1973–74_VfL_Bochum_season', 'http://dbpedia.org/resource/1974–75_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1974–75_VfL_Bochum_season', 'http://dbpedia.org/resource/1975–76_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1975–76_Hamburger_SV_season', 'http://dbpedia.org/resource/1975–76_VfL_Bochum_season', 'http://dbpedia.org/resource/1976–77_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1976–77_Hamburger_SV_season', 'http://dbpedia.org/resource/1976–77_Tennis_Borussia_Berlin_season', 'http://dbpedia.org/resource/1976–77_VfL_Bochum_season', 'http://dbpedia.org/resource/1977–78_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1977–78_VfL_Bochum_season', 'http://dbpedia.org/resource/1978–79_Hamburger_SV_season', 'http://dbpedia.org/resource/1978–79_VfL_Bochum_season', 'http://dbpedia.org/resource/1979–80_VfL_Bochum_season', 'http://dbpedia.org/resource/1980–81_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1980–81_VfL_Bochum_season', 'http://dbpedia.org/resource/1981–82_Hamburger_SV_season', 'http://dbpedia.org/resource/1981–82_VfL_Bochum_season', 'http://dbpedia.org/resource/1982–83_Hamburger_SV_season', 'http://dbpedia.org/resource/1982–83_VfL_Bochum_season', 'http://dbpedia.org/resource/1983–84_VfL_Bochum_season', 'http://dbpedia.org/resource/1984–85_VfL_Bochum_season', 'http://dbpedia.org/resource/1985–86_VfL_Bochum_season', 'http://dbpedia.org/resource/1986–87_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1986–87_Hamburger_SV_season', 'http://dbpedia.org/resource/1986–87_VfL_Bochum_season', 'http://dbpedia.org/resource/1987–88_VfL_Bochum_season', 'http://dbpedia.org/resource/1988–89_VfL_Bochum_season', 'http://dbpedia.org/resource/1989–90_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1989–90_VfL_Bochum_season', 'http://dbpedia.org/resource/1990–91_VfL_Bochum_season', 'http://dbpedia.org/resource/1991–92_VfL_Bochum_season', 'http://dbpedia.org/resource/1992–93_Borussia_Dortmund_season', 'http://dbpedia.org/resource/1992–93_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1992–93_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/1992–93_VfL_Bochum_season', 'http://dbpedia.org/resource/1993–94_Karlsruher_SC_season', 'http://dbpedia.org/resource/1993–94_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/1994–95_Borussia_Dortmund_season', 'http://dbpedia.org/resource/1994–95_SC_Freiburg_season', 'http://dbpedia.org/resource/1994–95_VfL_Bochum_season', 'http://dbpedia.org/resource/1995–96_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/1995–96_Borussia_Dortmund_season', 'http://dbpedia.org/resource/1995–96_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/1995–96_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1995–96_Fortuna_Düsseldorf_season', 'http://dbpedia.org/resource/1995–96_KFC_Uerdingen_05_season', 'http://dbpedia.org/resource/1996–97_Borussia_Dortmund_season', 'http://dbpedia.org/resource/1996–97_FC_Schalke_04_season', 'http://dbpedia.org/resource/1996–97_VfL_Bochum_season', 'http://dbpedia.org/resource/1997–98_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/1997–98_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/1997–98_Borussia_Dortmund_season', 'http://dbpedia.org/resource/1997–98_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1997–98_FC_Hansa_Rostock_season', 'http://dbpedia.org/resource/1997–98_FC_Schalke_04_season', 'http://dbpedia.org/resource/1997–98_VfL_Bochum_season', 'http://dbpedia.org/resource/1998–99_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/1998–99_Borussia_Dortmund_season', 'http://dbpedia.org/resource/1998–99_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/1998–99_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1998–99_Hertha_BSC_season', 'http://dbpedia.org/resource/1998–99_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/1998–99_VfL_Bochum_season', 'http://dbpedia.org/resource/1999–2000_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/1999–2000_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/1999–2000_Borussia_Dortmund_season', 'http://dbpedia.org/resource/1999–2000_FC_Schalke_04_season', 'http://dbpedia.org/resource/1999–2000_Hamburger_SV_season', 'http://dbpedia.org/resource/1999–2000_MSV_Duisburg_season', 'http://dbpedia.org/resource/1999–2000_SpVgg_Unterhaching_season', 'http://dbpedia.org/resource/1999–2000_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/1999–2000_TSV_1860_Munich_season', 'http://dbpedia.org/resource/1999–2000_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2000–01_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/2000–01_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2000–01_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2000–01_FC_Energie_Cottbus_season', 'http://dbpedia.org/resource/2000–01_Hamburger_SV_season', 'http://dbpedia.org/resource/2000–01_SC_Freiburg_season', 'http://dbpedia.org/resource/2000–01_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2000–01_VfL_Bochum_season', 'http://dbpedia.org/resource/2000–01_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2001–02_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/2001–02_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2001–02_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2001–02_FC_Schalke_04_season', 'http://dbpedia.org/resource/2001–02_FC_St._Pauli_season', 'http://dbpedia.org/resource/2001–02_Hamburger_SV_season', 'http://dbpedia.org/resource/2001–02_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2001–02_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2001–02_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2002–03_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/2002–03_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2002–03_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2002–03_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2002–03_Hamburger_SV_season', 'http://dbpedia.org/resource/2002–03_Hertha_BSC_season', 'http://dbpedia.org/resource/2002–03_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2002–03_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2002–03_VfL_Bochum_season', 'http://dbpedia.org/resource/2002–03_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2003–04_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2003–04_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2003–04_Hamburger_SV_season', 'http://dbpedia.org/resource/2003–04_Hertha_BSC_season', 'http://dbpedia.org/resource/2003–04_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2003–04_TSV_1860_Munich_season', 'http://dbpedia.org/resource/2003–04_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2003–04_VfL_Bochum_season', 'http://dbpedia.org/resource/2003–04_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2004–05_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/2004–05_1._FSV_Mainz_05_season', 'http://dbpedia.org/resource/2004–05_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2004–05_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2004–05_FC_Schalke_04_season', 'http://dbpedia.org/resource/2004–05_Hamburger_SV_season', 'http://dbpedia.org/resource/2004–05_Hertha_BSC_season', 'http://dbpedia.org/resource/2004–05_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2004–05_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2004–05_VfL_Bochum_season', 'http://dbpedia.org/resource/2004–05_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2005–06_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2005–06_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2005–06_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2005–06_FC_Schalke_04_season', 'http://dbpedia.org/resource/2005–06_Hamburger_SV_season', 'http://dbpedia.org/resource/2005–06_Hertha_BSC_season', 'http://dbpedia.org/resource/2005–06_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2005–06_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2005–06_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2006–07_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2006–07_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2006–07_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2006–07_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2006–07_FC_Schalke_04_season', 'http://dbpedia.org/resource/2006–07_Hamburger_SV_season', 'http://dbpedia.org/resource/2006–07_Hertha_BSC_season', 'http://dbpedia.org/resource/2006–07_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2006–07_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2006–07_VfL_Bochum_season', 'http://dbpedia.org/resource/2006–07_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2007–08_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2007–08_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2007–08_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2007–08_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2007–08_FC_Hansa_Rostock_season', 'http://dbpedia.org/resource/2007–08_FC_Schalke_04_season', 'http://dbpedia.org/resource/2007–08_Hamburger_SV_season', 'http://dbpedia.org/resource/2007–08_Hertha_BSC_season', 'http://dbpedia.org/resource/2007–08_Karlsruher_SC_season', 'http://dbpedia.org/resource/2007–08_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2007–08_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2007–08_VfL_Bochum_season', 'http://dbpedia.org/resource/2007–08_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2008–09_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2008–09_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2008–09_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2008–09_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2008–09_FC_Energie_Cottbus_season', 'http://dbpedia.org/resource/2008–09_FC_Schalke_04_season', 'http://dbpedia.org/resource/2008–09_Hamburger_SV_season', 'http://dbpedia.org/resource/2008–09_Hertha_BSC_season', 'http://dbpedia.org/resource/2008–09_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2008–09_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2008–09_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2008–09_VfL_Bochum_season', 'http://dbpedia.org/resource/2008–09_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2009–10_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2009–10_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2009–10_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2009–10_FC_Schalke_04_season', 'http://dbpedia.org/resource/2009–10_Hannover_96_season', 'http://dbpedia.org/resource/2009–10_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2009–10_VfL_Bochum_season', 'http://dbpedia.org/resource/2010–11_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/2010–11_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2010–11_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2010–11_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2010–11_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2011–12_1._FC_Kaiserslautern_season', 'http://dbpedia.org/resource/2011–12_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2011–12_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2011–12_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_Hannover_96_season', 'http://dbpedia.org/resource/2011–12_SC_Freiburg_season', 'http://dbpedia.org/resource/2011–12_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2011–12_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2011–12_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2012–13_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2012–13_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2012–13_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2012–13_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2012–13_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2013–14_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2013–14_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2013–14_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2013–14_SC_Freiburg_season', 'http://dbpedia.org/resource/2013–14_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2013–14_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2013–14_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2014–15_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2014–15_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2014–15_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2014–15_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2015–16_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2015–16_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2015–16_FC_Ingolstadt_04_season', 'http://dbpedia.org/resource/2015–16_FC_Schalke_04_season', 'http://dbpedia.org/resource/2015–16_SK_Rapid_Wien_season', 'http://dbpedia.org/resource/2015–16_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2016–17_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2016–17_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2016–17_FC_Schalke_04_season', 'http://dbpedia.org/resource/2016–17_Hamburger_SV_season', 'http://dbpedia.org/resource/2017–18_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2017–18_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2017–18_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2017–18_FC_Schalke_04_season', 'http://dbpedia.org/resource/2017–18_RB_Leipzig_season', 'http://dbpedia.org/resource/2018–19_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2018–19_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2018–19_Hannover_96_season', 'http://dbpedia.org/resource/2019–20_1._FC_Heidenheim_season', 'http://dbpedia.org/resource/2019–20_1._FC_Köln_season', 'http://dbpedia.org/resource/2019–20_1._FSV_Mainz_05_season', 'http://dbpedia.org/resource/2019–20_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2019–20_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2019–20_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2019–20_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2019–20_FC_Augsburg_season', 'http://dbpedia.org/resource/2019–20_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2019–20_FC_Schalke_04_season', 'http://dbpedia.org/resource/2019–20_Fortuna_Düsseldorf_season', 'http://dbpedia.org/resource/2019–20_Hertha_BSC_season', 'http://dbpedia.org/resource/2019–20_RB_Leipzig_season', 'http://dbpedia.org/resource/2019–20_SC_Freiburg_season', 'http://dbpedia.org/resource/2019–20_SC_Paderborn_07_season', 'http://dbpedia.org/resource/2019–20_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2019–20_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2019–20_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2020–21_1._FC_Köln_season', 'http://dbpedia.org/resource/2020–21_1._FC_Union_Berlin_season', 'http://dbpedia.org/resource/2020–21_1._FSV_Mainz_05_season', 'http://dbpedia.org/resource/2020–21_Arminia_Bielefeld_season', 'http://dbpedia.org/resource/2020–21_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2020–21_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2020–21_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2020–21_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2020–21_FC_Augsburg_season', 'http://dbpedia.org/resource/2020–21_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2020–21_FC_Schalke_04_season', 'http://dbpedia.org/resource/2020–21_Hertha_BSC_season', 'http://dbpedia.org/resource/2020–21_RB_Leipzig_season', 'http://dbpedia.org/resource/2020–21_SC_Freiburg_season', 'http://dbpedia.org/resource/2020–21_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2020–21_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2020–21_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2020–21_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2021–22_1._FC_Köln_season', 'http://dbpedia.org/resource/2021–22_1._FSV_Mainz_05_season', 'http://dbpedia.org/resource/2021–22_Arminia_Bielefeld_season', 'http://dbpedia.org/resource/2021–22_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2021–22_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2021–22_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2021–22_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2021–22_FC_Augsburg_season', 'http://dbpedia.org/resource/2021–22_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2021–22_Hertha_BSC_season', 'http://dbpedia.org/resource/2021–22_RB_Leipzig_season', 'http://dbpedia.org/resource/2021–22_SC_Freiburg_season', 'http://dbpedia.org/resource/2021–22_SpVgg_Greuther_Fürth_season', 'http://dbpedia.org/resource/2021–22_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2021–22_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2021–22_VfL_Bochum_season', 'http://dbpedia.org/resource/2021–22_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2022–23_1._FC_Köln_season', 'http://dbpedia.org/resource/2022–23_1._FC_Union_Berlin_season', 'http://dbpedia.org/resource/2022–23_1._FSV_Mainz_05_season', 'http://dbpedia.org/resource/2022–23_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2022–23_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2022–23_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2022–23_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2022–23_FC_Augsburg_season', 'http://dbpedia.org/resource/2022–23_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2022–23_FC_Schalke_04_season', 'http://dbpedia.org/resource/2022–23_Hertha_BSC_season', 'http://dbpedia.org/resource/2022–23_RB_Leipzig_season', 'http://dbpedia.org/resource/2022–23_SC_Freiburg_season', 'http://dbpedia.org/resource/2022–23_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2022–23_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2022–23_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2022–23_VfL_Bochum_season', 'http://dbpedia.org/resource/2022–23_VfL_Wolfsburg_season']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
-  </si>
-  <si>
-    <t>['No answer']</t>
-  </si>
-  <si>
-    <t>['33']</t>
-  </si>
-  <si>
-    <t>['1986-02-28']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
-  </si>
-  <si>
-    <t>['60.0']</t>
-  </si>
-  <si>
-    <t>['4860']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
-  </si>
-  <si>
-    <t>['1978']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
-  </si>
-  <si>
-    <t>['106.07']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
-  </si>
-  <si>
-    <t>['5360351985']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
-  </si>
-  <si>
-    <t>['1735-10-30']</t>
-  </si>
-  <si>
-    <t>['446828803']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Renminbi']</t>
-  </si>
-  <si>
-    <t>['1616-04-23']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_109', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_110', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_200', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_250', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_31', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_41', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_45', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_81', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_90', 'http://dbpedia.org/resource/Dnepr_(rocket)', 'http://dbpedia.org/resource/Energia_(rocket)', "http://dbpedia.org/resource/Gagarin's_Start", 'http://dbpedia.org/resource/Irtysh_(rocket)', 'http://dbpedia.org/resource/Kosmos_3_(rocket)', 'http://dbpedia.org/resource/Kosmos-1', 'http://dbpedia.org/resource/Molniya_(rocket)', 'http://dbpedia.org/resource/Molniya-M', 'http://dbpedia.org/resource/N1_(rocket)', 'http://dbpedia.org/resource/Polyot_(rocket)__Polyot_11A59__1', 'http://dbpedia.org/resource/Proton_(rocket_family)', 'http://dbpedia.org/resource/Proton-K', 'http://dbpedia.org/resource/Proton-M', 'http://dbpedia.org/resource/R-7A_Semyorka', 'http://dbpedia.org/resource/Rokot', 'http://dbpedia.org/resource/Soyuz_(rocket_family)', 'http://dbpedia.org/resource/Soyuz_(rocket)', 'http://dbpedia.org/resource/Soyuz-2', 'http://dbpedia.org/resource/Soyuz-FG', 'http://dbpedia.org/resource/Soyuz-L', 'http://dbpedia.org/resource/Soyuz-U', 'http://dbpedia.org/resource/Soyuz-U2', 'http://dbpedia.org/resource/Soyuz/Vostok', 'http://dbpedia.org/resource/Sputnik_(rocket)__Sputnik_727__1', 'http://dbpedia.org/resource/Strela_(rocket)', 'http://dbpedia.org/resource/Tsyklon-2', 'http://dbpedia.org/resource/Tsyklon', 'http://dbpedia.org/resource/Voskhod_(rocket)', 'http://dbpedia.org/resource/Vostok_(rocket_family)', 'http://dbpedia.org/resource/Vostok-2_(rocket)', 'http://dbpedia.org/resource/Vostok-2M', 'http://dbpedia.org/resource/Vostok-K', 'http://dbpedia.org/resource/Vostok-L', 'http://dbpedia.org/resource/Zenit_(rocket_family)', 'http://dbpedia.org/resource/Zenit-2', 'http://dbpedia.org/resource/Zenit-2M', 'http://dbpedia.org/resource/Zenit-3F', 'http://dbpedia.org/resource/Zenit-3SLB']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Dallas']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/East_River']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Edwin_(film)']</t>
-  </si>
-  <si>
-    <t>['10100166']</t>
-  </si>
-  <si>
-    <t>['3']</t>
-  </si>
-  <si>
-    <t>['44.8', '44.8056']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Saudi_Arabia']</t>
-  </si>
-  <si>
-    <t>['1.8']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Ken_Follett']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
   </si>
   <si>
@@ -1078,18 +1824,30 @@
     <t>['40462701']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/140th_Anniversary_Celebration_of_the_Emancipation_Proclamation', 'http://dbpedia.org/resource/19_Kislev', "http://dbpedia.org/resource/21_July_Martyr's_Day_Rally", 'http://dbpedia.org/resource/3_May_Constitution_Day', 'http://dbpedia.org/resource/420_(cannabis_culture)', 'http://dbpedia.org/resource/75th_Anniversary_of_Indian_Independence', 'http://dbpedia.org/resource/Aadi_Perukku', 'http://dbpedia.org/resource/Abaca_Festival', 'http://dbpedia.org/resource/Aberri_Eguna', 'http://dbpedia.org/resource/Absentee_funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Accession_Day_(Jammu_and_Kashmir)', 'http://dbpedia.org/resource/Adae_Festival', 'http://dbpedia.org/resource/Advent_Sunday', 'http://dbpedia.org/resource/Advent', 'http://dbpedia.org/resource/Adwa_Victory_Day', 'http://dbpedia.org/resource/Afghan_Independence_Day', 'http://dbpedia.org/resource/Africa_Day', 'http://dbpedia.org/resource/Afro-Colombian_Day', 'http://dbpedia.org/resource/Agawan_Festival', 'http://dbpedia.org/resource/Agonalia', 'http://dbpedia.org/resource/Agrasen_Jayanti', 'http://dbpedia.org/resource/Ahoi_Ashtami', 'http://dbpedia.org/resource/Air_Force_Day_(Pakistan)', 'http://dbpedia.org/resource/Airborne_March', 'http://dbpedia.org/resource/Akita_Kantō', 'http://dbpedia.org/resource/Akitu', 'http://dbpedia.org/resource/Akshaya_Tritiya', 'http://dbpedia.org/resource/Akwasidae_Festival', 'http://dbpedia.org/resource/Alabama_Day', "http://dbpedia.org/resource/Åland's_Autonomy_Day", 'http://dbpedia.org/resource/Alaska_Day', 'http://dbpedia.org/resource/Aldersgate_Day', 'http://dbpedia.org/resource/Alexandra_Rose_Day', "http://dbpedia.org/resource/All_Saints'_Day", "http://dbpedia.org/resource/All_Souls'_Day", 'http://dbpedia.org/resource/Allantide', 'http://dbpedia.org/resource/Allhallowtide', 'http://dbpedia.org/resource/Amalaka_Ekadashi', 'http://dbpedia.org/resource/Ambedkar_Jayanti', 'http://dbpedia.org/resource/Ambubachi_Mela', 'http://dbpedia.org/resource/Amburbium', 'http://dbpedia.org/resource/America_Recycles_Day', "http://dbpedia.org/resource/American_Business_Women's_Day", 'http://dbpedia.org/resource/American_Family_Day', 'http://dbpedia.org/resource/American_Heart_Month', 'http://dbpedia.org/resource/An_Act_for_the_Admission_of_the_State_of_California', 'http://dbpedia.org/resource/Anant_Chaturdashi', 'http://dbpedia.org/resource/Angam_Day', 'http://dbpedia.org/resource/Angarki_Sankashti_Chaturthi', 'http://dbpedia.org/resource/Anishinaabe_Giizhigad', 'http://dbpedia.org/resource/Anniversary_of_the_Unification_of_Italy', 'http://dbpedia.org/resource/Antarctica_Day', 'http://dbpedia.org/resource/Anti-Bullying_Day', 'http://dbpedia.org/resource/Anti-Fascist_Struggle_Day', 'http://dbpedia.org/resource/Anzac_Day', 'http://dbpedia.org/resource/Apple_Feast_of_the_Saviour', "http://dbpedia.org/resource/April_Fools'_Day", 'http://dbpedia.org/resource/Arattupuzha_Pooram', 'http://dbpedia.org/resource/Aravan_Festival_in_Coimbatore', "http://dbpedia.org/resource/Arba'een", 'http://dbpedia.org/resource/Arbor_Day', 'http://dbpedia.org/resource/Armed_Forces_Day_(Bangladesh)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Poland)', 'http://dbpedia.org/resource/Armed_Forces_Day_(South_Korea)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Tajikistan)', 'http://dbpedia.org/resource/Armed_Forces_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Armenian_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Armilustrium', 'http://dbpedia.org/resource/Armistice_Day', 'http://dbpedia.org/resource/Army_Day_(Armenia)', 'http://dbpedia.org/resource/Aromanian_National_Day', 'http://dbpedia.org/resource/Artsakh_Revival_Day', 'http://dbpedia.org/resource/Asalha_Puja', 'http://dbpedia.org/resource/Ash_Wednesday', 'http://dbpedia.org/resource/Ashadhi_Puja', 'http://dbpedia.org/resource/Ashanti_Yam_Festival', 'http://dbpedia.org/resource/Ashenda', 'http://dbpedia.org/resource/Ashtimki', 'http://dbpedia.org/resource/Ashura', 'http://dbpedia.org/resource/Asian_American_and_Pacific_Islander_Heritage_Month', 'http://dbpedia.org/resource/Ask_a_Stupid_Question_Day', 'http://dbpedia.org/resource/Asr_prayer', 'http://dbpedia.org/resource/Assumption_of_Mary', 'http://dbpedia.org/resource/Astan_Bandar', 'http://dbpedia.org/resource/Asteroid_Day', 'http://dbpedia.org/resource/Astronauts_Day', 'http://dbpedia.org/resource/Ati-Atihan_festival', 'http://dbpedia.org/resource/Atla_Tadde', 'http://dbpedia.org/resource/Attukal_Pongala', 'http://dbpedia.org/resource/Auckland_Anniversary_Day', 'http://dbpedia.org/resource/August_Holiday', 'http://dbpedia.org/resource/Australia_Day', 'http://dbpedia.org/resource/Australian_Citizenship_Day', 'http://dbpedia.org/resource/Autism_Sunday', 'http://dbpedia.org/resource/Autumnal_Equinox_Day', 'http://dbpedia.org/resource/Awukudae_Festival', 'http://dbpedia.org/resource/Ayudha_Puja', 'http://dbpedia.org/resource/Ayurveda_Day', 'http://dbpedia.org/resource/Azad_Kashmir_Day', 'http://dbpedia.org/resource/Azores_Day', 'http://dbpedia.org/resource/Baba_Marta_Day', 'http://dbpedia.org/resource/Babinden', 'http://dbpedia.org/resource/Baci', 'http://dbpedia.org/resource/Bali_Jatra', 'http://dbpedia.org/resource/Balipratipada', 'http://dbpedia.org/resource/Ballarat_Show', 'http://dbpedia.org/resource/Baltic_Freedom_Day', 'http://dbpedia.org/resource/Baltic_Unity_Day', 'http://dbpedia.org/resource/Bandi_Chhor_Divas', 'http://dbpedia.org/resource/Bandna', 'http://dbpedia.org/resource/Banned_Books_Week', 'http://dbpedia.org/resource/Barack_Obama_Day', 'http://dbpedia.org/resource/Basant_(festival)', 'http://dbpedia.org/resource/Bastille_Day_military_parade', 'http://dbpedia.org/resource/Bastille_Day', 'http://dbpedia.org/resource/Batakari_Day', 'http://dbpedia.org/resource/Bathukamma', 'http://dbpedia.org/resource/Batik_Day', 'http://dbpedia.org/resource/Battle_of_Saragarhi__Day__1', 'http://dbpedia.org/resource/Bauernfest', 'http://dbpedia.org/resource/Belgian_National_Day', 'http://dbpedia.org/resource/Beltane', 'http://dbpedia.org/resource/Ben-Gurion_Day', 'http://dbpedia.org/resource/Beñesmen', 'http://dbpedia.org/resource/Bengali_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Bennington_Battle_Day', 'http://dbpedia.org/resource/Berchtoldstag', 'http://dbpedia.org/resource/Bhai_Dooj', 'http://dbpedia.org/resource/Bhairava_Ashtami', 'http://dbpedia.org/resource/Bhimana_Amavasya', 'http://dbpedia.org/resource/Bhogi', 'http://dbpedia.org/resource/Bhumchu', 'http://dbpedia.org/resource/Bhume_Naach', 'http://dbpedia.org/resource/Bibi-Ka-Alam', 'http://dbpedia.org/resource/Bihar_Day', 'http://dbpedia.org/resource/Bihu', 'http://dbpedia.org/resource/Binirayan_festival', 'http://dbpedia.org/resource/Birkat_Hachama', "http://dbpedia.org/resource/Birth_of_Baháʼu'lláh", 'http://dbpedia.org/resource/Bisexual_Awareness_Week', 'http://dbpedia.org/resource/Bisu_Parba', 'http://dbpedia.org/resource/Bizhu', 'http://dbpedia.org/resource/Black_Day_(South_Korea)', 'http://dbpedia.org/resource/Black_Friday_(partying)', 'http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Black_History_Month', 'http://dbpedia.org/resource/Black_Ribbon_Day', 'http://dbpedia.org/resource/Blackout_Wednesday', "http://dbpedia.org/resource/Blacks_and_Whites'_Carnival", 'http://dbpedia.org/resource/Blasphemy_Day', 'http://dbpedia.org/resource/Blessed_Rainy_Day', 'http://dbpedia.org/resource/Blue_Beanie_Day', 'http://dbpedia.org/resource/Blue_Christmas_(holiday)', 'http://dbpedia.org/resource/Blue_Mass', 'http://dbpedia.org/resource/Bodhi_Day', 'http://dbpedia.org/resource/Bohag_Bihu', 'http://dbpedia.org/resource/Boishakhi_Mela', 'http://dbpedia.org/resource/Boita_Bandana', 'http://dbpedia.org/resource/Bon_(festival)', 'http://dbpedia.org/resource/Bon_Festival', 'http://dbpedia.org/resource/Bon_Om_Touk', 'http://dbpedia.org/resource/Bonalu', 'http://dbpedia.org/resource/Bonifacio_Day', 'http://dbpedia.org/resource/Book_Lovers_Day', 'http://dbpedia.org/resource/Border_Guards_Day', "http://dbpedia.org/resource/Boss's_Day", 'http://dbpedia.org/resource/Boun_Suang_Huea', 'http://dbpedia.org/resource/Boxing_Day', 'http://dbpedia.org/resource/Boxing_Week', 'http://dbpedia.org/resource/Brain_Tumor_Awareness_Month', "http://dbpedia.org/resource/Buddha's_Birthday", 'http://dbpedia.org/resource/Buhe', 'http://dbpedia.org/resource/Buisu', 'http://dbpedia.org/resource/Bukovina_Day', 'http://dbpedia.org/resource/Bulgarian_Armed_Forces_Day', "http://dbpedia.org/resource/Burmese_Martyrs'_Day", 'http://dbpedia.org/resource/Burns_supper', 'http://dbpedia.org/resource/Buß-_und_Bettag', 'http://dbpedia.org/resource/Busu_Dima', 'http://dbpedia.org/resource/Buwan_ng_Wika', 'http://dbpedia.org/resource/Buy_Nothing_Day', 'http://dbpedia.org/resource/Bwisagu', 'http://dbpedia.org/resource/Cake_and_Cunnilingus_Day', 'http://dbpedia.org/resource/Calan_Gaeaf', 'http://dbpedia.org/resource/Cambodian_New_Year', 'http://dbpedia.org/resource/Canada_Day', 'http://dbpedia.org/resource/Canberra_Day', 'http://dbpedia.org/resource/Cancer_Control_Month', 'http://dbpedia.org/resource/Candlemas', 'http://dbpedia.org/resource/Caribbean-American_Heritage_Month', 'http://dbpedia.org/resource/Caristia', 'http://dbpedia.org/resource/Carl_Garner_Federal_Lands_Cleanup_Day', 'http://dbpedia.org/resource/Carmentalia', 'http://dbpedia.org/resource/Carnaval_de_Ponce', 'http://dbpedia.org/resource/Carnaval_de_Vejigantes', 'http://dbpedia.org/resource/Carnival_in_Belize', 'http://dbpedia.org/resource/Carnival_of_Madeira', 'http://dbpedia.org/resource/Carnival_of_Ovar', 'http://dbpedia.org/resource/Carnival_of_Santa_Cruz_de_Tenerife', 'http://dbpedia.org/resource/Casimir_Pulaski_Day', 'http://dbpedia.org/resource/Cassette_Store_Day', 'http://dbpedia.org/resource/Cassinga_Day', 'http://dbpedia.org/resource/Castile_and_León_Day', 'http://dbpedia.org/resource/Castleton_Garland_Day', 'http://dbpedia.org/resource/Catandungan_Festival', 'http://dbpedia.org/resource/Celebrate_Bisexuality_Day', 'http://dbpedia.org/resource/Ceremony_of_the_Keys_(London)', 'http://dbpedia.org/resource/Cesar_Chavez_Day', 'http://dbpedia.org/resource/Ceuta_Day', 'http://dbpedia.org/resource/Chaand_Raat', "http://dbpedia.org/resource/Chafa'a", 'http://dbpedia.org/resource/Chaharshanbe_Suri', 'http://dbpedia.org/resource/Chaiti_Festival,_Rayagada', 'http://dbpedia.org/resource/Chak_Phra', 'http://dbpedia.org/resource/Chandeshwori_Jatra', 'http://dbpedia.org/resource/Chapchar_Kut', 'http://dbpedia.org/resource/Charak_Puja', 'http://dbpedia.org/resource/Charro_Days', 'http://dbpedia.org/resource/Chasok_Tangnam', 'http://dbpedia.org/resource/Chatar_jatra', 'http://dbpedia.org/resource/Chaturmasya', 'http://dbpedia.org/resource/Cheti_Chand', 'http://dbpedia.org/resource/Chhadakhai', 'http://dbpedia.org/resource/Chhath', 'http://dbpedia.org/resource/Child_Health_Day', 'http://dbpedia.org/resource/Childbirth_Masses', "http://dbpedia.org/resource/Children's_Day_(India)", "http://dbpedia.org/resource/Children's_Day_(Japan)", "http://dbpedia.org/resource/Children's_Day", 'http://dbpedia.org/resource/Chilseok', "http://dbpedia.org/resource/Chinese_New_Year's_Eve", 'http://dbpedia.org/resource/Chinese_New_Year', 'http://dbpedia.org/resource/Chitra_Pournami_(festival)', 'http://dbpedia.org/resource/Chocolate_Day_(Ghana)', 'http://dbpedia.org/resource/Christmas_and_holiday_season', 'http://dbpedia.org/resource/Christmas_Eve', 'http://dbpedia.org/resource/Christmas_in_Ireland', 'http://dbpedia.org/resource/Christmas_in_Romania', 'http://dbpedia.org/resource/Christmas_in_Russia', 'http://dbpedia.org/resource/Christmas_in_Sweden', 'http://dbpedia.org/resource/Christmas_in_Ukraine', 'http://dbpedia.org/resource/Christmas_lights_in_Medellín', 'http://dbpedia.org/resource/Christmas_pageant', 'http://dbpedia.org/resource/Christmas_Sunday', 'http://dbpedia.org/resource/Christmas_traditions', 'http://dbpedia.org/resource/Christmas', 'http://dbpedia.org/resource/Christmastide', 'http://dbpedia.org/resource/Cimarrones_Festival', 'http://dbpedia.org/resource/Cinco_de_Mayo', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Civic_Holiday', 'http://dbpedia.org/resource/Classics_Day', 'http://dbpedia.org/resource/Coast_Guard_Day', 'http://dbpedia.org/resource/Cold_Food_Festival', 'http://dbpedia.org/resource/Coming_of_Age_Day', 'http://dbpedia.org/resource/Commemoration_Day_of_Fallen_Soldiers', 'http://dbpedia.org/resource/Commemoration_Day', 'http://dbpedia.org/resource/Commemoration_of_Atatürk,_Youth_and_Sports_Day', 'http://dbpedia.org/resource/Commonwealth_Day', 'http://dbpedia.org/resource/Concord_Day', 'http://dbpedia.org/resource/Confederate_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Day_(Denmark)', 'http://dbpedia.org/resource/Constitution_Day_(Ghana)', 'http://dbpedia.org/resource/Constitution_Day_(India)', 'http://dbpedia.org/resource/Constitution_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Constitution_Day_(Norway)', 'http://dbpedia.org/resource/Constitution_Day_(Russia)', 'http://dbpedia.org/resource/Constitution_Day_(South_Korea)', 'http://dbpedia.org/resource/Constitution_Day_(Ukraine)', 'http://dbpedia.org/resource/Constitution_Day_(United_States)', 'http://dbpedia.org/resource/Constitution_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Week', 'http://dbpedia.org/resource/Consualia', 'http://dbpedia.org/resource/Contraband_Days', 'http://dbpedia.org/resource/COPD_Awareness_Month', 'http://dbpedia.org/resource/Coral_Triangle_Day', 'http://dbpedia.org/resource/Cosmonautics_Day', 'http://dbpedia.org/resource/Côte-Rôtie', 'http://dbpedia.org/resource/Courir_de_Mardi_Gras', 'http://dbpedia.org/resource/Cow_Harbor_Day', 'http://dbpedia.org/resource/Crop_Over', "http://dbpedia.org/resource/Cruisin'_Downriver", 'http://dbpedia.org/resource/Cry_of_Dolores', 'http://dbpedia.org/resource/Culture_Day', 'http://dbpedia.org/resource/Čuvari_Hristovog_groba', 'http://dbpedia.org/resource/Cyber_Monday', 'http://dbpedia.org/resource/Daeboreum', 'http://dbpedia.org/resource/Dahi_Handi', 'http://dbpedia.org/resource/Dahi_Jatra', 'http://dbpedia.org/resource/Dalit_History_Month', 'http://dbpedia.org/resource/Dano_(festival)', 'http://dbpedia.org/resource/Dano_(Korean_festival)', 'http://dbpedia.org/resource/Darwin_Day', 'http://dbpedia.org/resource/Dashain', 'http://dbpedia.org/resource/Data_Privacy_Day', 'http://dbpedia.org/resource/Datta_Jayanti', 'http://dbpedia.org/resource/Davao_City_Torotot_Festival', 'http://dbpedia.org/resource/Day_of_Arafah', 'http://dbpedia.org/resource/Day_of_Conception', 'http://dbpedia.org/resource/Day_of_Missile_Forces_and_Artillery', 'http://dbpedia.org/resource/Day_of_National_Dignity', 'http://dbpedia.org/resource/Day_of_Neutrality', 'http://dbpedia.org/resource/Day_of_Prayer', 'http://dbpedia.org/resource/Day_of_Reconciliation', 'http://dbpedia.org/resource/Day_of_Remembrance_for_All_Victims_of_Chemical_Warfare', 'http://dbpedia.org/resource/Day_of_Remembrance_for_Truth_and_Justice', 'http://dbpedia.org/resource/Day_of_Remembrance_of_the_Victims_of_Political_Repressions', 'http://dbpedia.org/resource/Day_of_Republika_Srpska', 'http://dbpedia.org/resource/Day_of_Restoration_of_Independence_(Azerbaijan)', 'http://dbpedia.org/resource/Day_of_Silence', 'http://dbpedia.org/resource/Day_of_Songun', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_(Kyrgyzstan)', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_of_Azerbaijan', 'http://dbpedia.org/resource/Day_of_the_Canary_Islands', 'http://dbpedia.org/resource/Day_of_the_Cuban_Armed_Forces', 'http://dbpedia.org/resource/Day_of_the_Dead', 'http://dbpedia.org/resource/Day_of_the_Flemish_Community', 'http://dbpedia.org/resource/Day_of_the_Foundation_of_the_Republic', 'http://dbpedia.org/resource/Day_of_the_founding_of_the_German_Empire', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community_of_Belgium', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community', 'http://dbpedia.org/resource/Day_of_the_Little_Candles', 'http://dbpedia.org/resource/Day_of_the_National_Flag_(Ukraine)', 'http://dbpedia.org/resource/Day_of_the_Shining_Star', 'http://dbpedia.org/resource/Day_of_the_Sun', 'http://dbpedia.org/resource/Day_of_the_Unification_of_the_Romanian_Principalities', 'http://dbpedia.org/resource/Day_of_the_Union_of_Bessarabia_with_Romania', 'http://dbpedia.org/resource/Day_of_the_Walloon_Region', 'http://dbpedia.org/resource/Day_of_the_Young_Combatant', 'http://dbpedia.org/resource/Day_of_Ukrainian_Literature_and_Language', 'http://dbpedia.org/resource/Day_of_Valor', 'http://dbpedia.org/resource/Day_of_Victory_in_the_Great_Fatherland_Liberation_War', 'http://dbpedia.org/resource/Daylight_saving_time_in_Canada', 'http://dbpedia.org/resource/Deepothsavam', 'http://dbpedia.org/resource/Defence_Day', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day', 'http://dbpedia.org/resource/Defender_of_the_Motherland_Day', 'http://dbpedia.org/resource/Defenders_Day_(Maryland)', 'http://dbpedia.org/resource/Defenders_Day_(Ukraine)', 'http://dbpedia.org/resource/Dehwa_Daimana', 'http://dbpedia.org/resource/Dehwa_Hanina', 'http://dbpedia.org/resource/Dehwa_Rabba', 'http://dbpedia.org/resource/Democracy_and_National_Unity_Day', 'http://dbpedia.org/resource/Dev_Deepawali_(Varanasi)', 'http://dbpedia.org/resource/Dhammachakra_Pravartan_Din', 'http://dbpedia.org/resource/Dhanteras', 'http://dbpedia.org/resource/Dhanu_jatra', 'http://dbpedia.org/resource/Dhodha', 'http://dbpedia.org/resource/Día_de_la_Altagracia', 'http://dbpedia.org/resource/Día_Mundial_de_Ponce', 'http://dbpedia.org/resource/Día_Nacional_de_Galicia', 'http://dbpedia.org/resource/Días_Patrios_(Guatemala)', 'http://dbpedia.org/resource/Dinagyang', 'http://dbpedia.org/resource/Dinamulag_Festival', 'http://dbpedia.org/resource/Disabled_Access_Day', 'http://dbpedia.org/resource/Distaff_Day', 'http://dbpedia.org/resource/Dita_e_Verës', 'http://dbpedia.org/resource/Diwali_(Jainism)', 'http://dbpedia.org/resource/Diwali', 'http://dbpedia.org/resource/DNA_Day', 'http://dbpedia.org/resource/Dobruja_Day', 'http://dbpedia.org/resource/Dongzhi_Festival', 'http://dbpedia.org/resource/Dormition_of_the_Mother_of_God', 'http://dbpedia.org/resource/Dosmoche', 'http://dbpedia.org/resource/Double_Sixth_Festival', 'http://dbpedia.org/resource/Double_Third_Festival', 'http://dbpedia.org/resource/Downfall_of_the_Derg_(holiday)', 'http://dbpedia.org/resource/Dożynki', 'http://dbpedia.org/resource/Dragon_Boat_Festival', 'http://dbpedia.org/resource/Drupka_Teshi', 'http://dbpedia.org/resource/Duanwu_Festival', 'http://dbpedia.org/resource/Duha', 'http://dbpedia.org/resource/Dundee_Fortnight', 'http://dbpedia.org/resource/Durga_Puja', 'http://dbpedia.org/resource/Durgapur_Free_Day', 'http://dbpedia.org/resource/Dziady', 'http://dbpedia.org/resource/Earth_Day', 'http://dbpedia.org/resource/Earth_Hour', 'http://dbpedia.org/resource/Easter', 'http://dbpedia.org/resource/Economics_of_Christmas', 'http://dbpedia.org/resource/Eid_al-Adha', 'http://dbpedia.org/resource/Eid_al-Fitr', 'http://dbpedia.org/resource/Eid_al-Ghadir', 'http://dbpedia.org/resource/Eid_il-Burbara', 'http://dbpedia.org/resource/Eid_prayers', 'http://dbpedia.org/resource/El_Buen_Fin', 'http://dbpedia.org/resource/Ely_Eel_Day', 'http://dbpedia.org/resource/Emergency_Services_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Employee_Appreciation_Day', 'http://dbpedia.org/resource/Enkutatash', 'http://dbpedia.org/resource/Epiphany_(Christian)', 'http://dbpedia.org/resource/Epiphany_(holiday)', 'http://dbpedia.org/resource/Epiphanytide', 'http://dbpedia.org/resource/Errol_Barrow_Day', 'http://dbpedia.org/resource/Erzya_Language_Day', 'http://dbpedia.org/resource/Ethiopian_Christmas', "http://dbpedia.org/resource/Ethiopian_Patriots'_Victory_Day", 'http://dbpedia.org/resource/Ettu_Nombu', 'http://dbpedia.org/resource/Europe_Day', 'http://dbpedia.org/resource/European_Day_of_the_Righteous', 'http://dbpedia.org/resource/Evacuation_Day_(Massachusetts)', 'http://dbpedia.org/resource/Evacuation_Day_(New_York)', 'http://dbpedia.org/resource/Evacuation_Day_(Syria)', 'http://dbpedia.org/resource/Evelio_Javier_Day', 'http://dbpedia.org/resource/Evolution_Day', 'http://dbpedia.org/resource/Execution_of_the_Báb', 'http://dbpedia.org/resource/Fajr_nafl_prayer', 'http://dbpedia.org/resource/Fajr_prayer', 'http://dbpedia.org/resource/Falklands_Day', 'http://dbpedia.org/resource/Family_Day_(Canada)', "http://dbpedia.org/resource/Farmers'_Day", 'http://dbpedia.org/resource/Fast_of_Esther', 'http://dbpedia.org/resource/Fast_of_Gedalia', 'http://dbpedia.org/resource/Fast_of_Nineveh', 'http://dbpedia.org/resource/Fast_of_the_Firstborn', 'http://dbpedia.org/resource/Father–Daughter_Day', "http://dbpedia.org/resource/Father's_Day_(United_States)", "http://dbpedia.org/resource/Father's_Day", 'http://dbpedia.org/resource/Fatimiyya', 'http://dbpedia.org/resource/Feast_of_Ezid', 'http://dbpedia.org/resource/Feast_of_Saint_George_(Palestine)', 'http://dbpedia.org/resource/Feast_of_Saints_Francis_and_Catherine', 'http://dbpedia.org/resource/Feast_of_Saints_Peter_and_Paul', 'http://dbpedia.org/resource/Feast_of_the_Annunciation', 'http://dbpedia.org/resource/Feast_of_the_Ass', 'http://dbpedia.org/resource/Feast_of_the_Assembly', 'http://dbpedia.org/resource/Feast_of_the_Black_Nazarene', 'http://dbpedia.org/resource/Feast_of_the_Great_Shishlam', 'http://dbpedia.org/resource/Feast_of_the_Immaculate_Conception', 'http://dbpedia.org/resource/Federal_Day_of_Thanksgiving,_Repentance_and_Prayer', 'http://dbpedia.org/resource/Federal_holidays_in_the_United_States', 'http://dbpedia.org/resource/Federal_Territory_Day', 'http://dbpedia.org/resource/Feralia', 'http://dbpedia.org/resource/Feria_de_Artesanías_de_Ponce', 'http://dbpedia.org/resource/Feriae_Latinae', 'http://dbpedia.org/resource/Ferragosto', 'http://dbpedia.org/resource/Festa_de_São_João_do_Porto', 'http://dbpedia.org/resource/Festa_della_Repubblica', 'http://dbpedia.org/resource/Festival_de_Bomba_y_Plena_de_San_Antón', 'http://dbpedia.org/resource/Festival_Folclórico_y_Reinado_Nacional_del_Bambuco', 'http://dbpedia.org/resource/Festival_Nacional_Afrocaribeño', 'http://dbpedia.org/resource/Festival_Nacional_de_la_Quenepa', 'http://dbpedia.org/resource/Festival_of_Lights_(Lyon)', 'http://dbpedia.org/resource/Festival_of_Perun', 'http://dbpedia.org/resource/Festival_of_Veles', 'http://dbpedia.org/resource/Festivus', 'http://dbpedia.org/resource/Festum_Ovorum', 'http://dbpedia.org/resource/Fiesta_Nacional_de_la_Danza', 'http://dbpedia.org/resource/Fiestas_de_Santa_Fe', 'http://dbpedia.org/resource/Fiestas_del_Pilar', 'http://dbpedia.org/resource/Fiestas_Patrias_(Chile)', 'http://dbpedia.org/resource/Fiestas_Patrias_(Peru)', 'http://dbpedia.org/resource/Fiestas_patronales_de_Ponce', 'http://dbpedia.org/resource/Fiji_Week', 'http://dbpedia.org/resource/Filipino_American_History_Month', 'http://dbpedia.org/resource/Filipino_Heritage_Month', 'http://dbpedia.org/resource/Filseta', 'http://dbpedia.org/resource/Finnish_Swedish_Heritage_Day', 'http://dbpedia.org/resource/First_day_of_summer_(Iceland)', 'http://dbpedia.org/resource/First_National_Government', 'http://dbpedia.org/resource/Flag_Day_(Albania)', 'http://dbpedia.org/resource/Flag_Day_(Argentina)', 'http://dbpedia.org/resource/Flag_Day_(Australia)', 'http://dbpedia.org/resource/Flag_Day_(United_Arab_Emirates)', 'http://dbpedia.org/resource/Flag_Day_(United_States)', 'http://dbpedia.org/resource/Flag_Day_in_Mexico', 'http://dbpedia.org/resource/Floralia', 'http://dbpedia.org/resource/Fordicidia', 'http://dbpedia.org/resource/Fossil_Fools_Day', 'http://dbpedia.org/resource/Fössta_tossdan_i_mass', "http://dbpedia.org/resource/Founders'_Day_(Ghana)", 'http://dbpedia.org/resource/Frankenstein_Day', 'http://dbpedia.org/resource/Fraternal_Day', 'http://dbpedia.org/resource/Freedom_and_Democracy_Day', 'http://dbpedia.org/resource/Freedom_Day_(Belarus)', 'http://dbpedia.org/resource/Freedom_Day_(Malta)', 'http://dbpedia.org/resource/Freedom_Day_(South_Africa)', 'http://dbpedia.org/resource/French_Community_Holiday', 'http://dbpedia.org/resource/Friendship_Day', 'http://dbpedia.org/resource/Fukagawa_Matsuri', 'http://dbpedia.org/resource/Funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Gaan-Ngai', 'http://dbpedia.org/resource/Gaecheonjeol', 'http://dbpedia.org/resource/Gai_Jatra', 'http://dbpedia.org/resource/Gajan_(festival)', 'http://dbpedia.org/resource/Galdan_Namchot', 'http://dbpedia.org/resource/Galician_Literature_Day', 'http://dbpedia.org/resource/Galungan', 'http://dbpedia.org/resource/Gandhi_Jayanti', 'http://dbpedia.org/resource/Ganesh_Chaturthi', 'http://dbpedia.org/resource/Ganesh_Jayanti', 'http://dbpedia.org/resource/Ganga_Dussehra', 'http://dbpedia.org/resource/Ganga_puja', 'http://dbpedia.org/resource/Gangamma_Jatara', 'http://dbpedia.org/resource/Gangaur', 'http://dbpedia.org/resource/Garifuna_Settlement_Day', 'http://dbpedia.org/resource/Gasparilla_Pirate_Festival', 'http://dbpedia.org/resource/Gaudete_Sunday', 'http://dbpedia.org/resource/Gaura_(festival)', 'http://dbpedia.org/resource/Gawai_Dayak', 'http://dbpedia.org/resource/Geek_Pride_Day', 'http://dbpedia.org/resource/General_Pulaski_Memorial_Day', "http://dbpedia.org/resource/George's_Day_in_Autumn", "http://dbpedia.org/resource/George's_Day_in_Spring", 'http://dbpedia.org/resource/Georgia_Day', 'http://dbpedia.org/resource/German_Unity_Day', 'http://dbpedia.org/resource/German-American_Day', 'http://dbpedia.org/resource/Ghanta_Karna', 'http://dbpedia.org/resource/Ghost_Festival', 'http://dbpedia.org/resource/Giant_Lantern_Festival', 'http://dbpedia.org/resource/Gibraltar_National_Day', 'http://dbpedia.org/resource/Gifaata', 'http://dbpedia.org/resource/Gilgit-Baltistan_Independence_Day', 'http://dbpedia.org/resource/Gion_Matsuri', 'http://dbpedia.org/resource/Giving_Tuesday', 'http://dbpedia.org/resource/GivingTuesday', 'http://dbpedia.org/resource/Glasgow_Fair', 'http://dbpedia.org/resource/Global_Accessibility_Awareness_Day', 'http://dbpedia.org/resource/Global_Day_of_Action_on_Military_Spending', 'http://dbpedia.org/resource/Global_Handwashing_Day', 'http://dbpedia.org/resource/Global_Information_Governance_Day', 'http://dbpedia.org/resource/Global_Money_Week', 'http://dbpedia.org/resource/Global_Running_Day', 'http://dbpedia.org/resource/Global_Wind_Day', 'http://dbpedia.org/resource/Goa_Liberation_Day', 'http://dbpedia.org/resource/Golden_Week_(Japan)', 'http://dbpedia.org/resource/Golu', 'http://dbpedia.org/resource/Good_Friday', 'http://dbpedia.org/resource/Good_Governance_Day', 'http://dbpedia.org/resource/Gopastami', 'http://dbpedia.org/resource/Govatsa_Dwadashi', 'http://dbpedia.org/resource/Gowri_Habba', "http://dbpedia.org/resource/Grand_Duke's_Official_Birthday", "http://dbpedia.org/resource/Grandparents'_Day", 'http://dbpedia.org/resource/Great_Union_Day', 'http://dbpedia.org/resource/Green_Monday', 'http://dbpedia.org/resource/Green_week', 'http://dbpedia.org/resource/Greenery_Day', 'http://dbpedia.org/resource/Groundhog_Day', 'http://dbpedia.org/resource/Guam_Discovery_Day', 'http://dbpedia.org/resource/Guanacaste_Day', 'http://dbpedia.org/resource/Gudi_Padwa', 'http://dbpedia.org/resource/Gunla', 'http://dbpedia.org/resource/Guru_Nanak_Gurpurab', 'http://dbpedia.org/resource/Guru_Purnima', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', 'http://dbpedia.org/resource/Gustor_Festival', 'http://dbpedia.org/resource/Hadaka_Matsuri', 'http://dbpedia.org/resource/Haitian_Heritage_Month', 'http://dbpedia.org/resource/Hakata_Dontaku', 'http://dbpedia.org/resource/Hakata_Gion_Yamakasa', 'http://dbpedia.org/resource/Halloween', 'http://dbpedia.org/resource/Handsel_Monday', 'http://dbpedia.org/resource/Hangul_Day', 'http://dbpedia.org/resource/Hanukkah', 'http://dbpedia.org/resource/Hanuman_Jayanti', 'http://dbpedia.org/resource/Harela_Mela', 'http://dbpedia.org/resource/Harriet_Tubman_Day', 'http://dbpedia.org/resource/Harvey_Milk_Day', 'http://dbpedia.org/resource/Haya_Day', 'http://dbpedia.org/resource/Heikru_Hidongba', 'http://dbpedia.org/resource/Helen_Keller_Day', 'http://dbpedia.org/resource/Heritage_Day_(South_Africa)', "http://dbpedia.org/resource/Heroes'_Day_(Namibia)", "http://dbpedia.org/resource/Heroes'_Day", 'http://dbpedia.org/resource/Herzl_Day', 'http://dbpedia.org/resource/Higalaay_Festival', 'http://dbpedia.org/resource/Higantes_Festival', 'http://dbpedia.org/resource/Hilaria', 'http://dbpedia.org/resource/Hillbilly_Days', 'http://dbpedia.org/resource/Hiloula_of_Rabbi_Haim_Pinto', 'http://dbpedia.org/resource/Hinamatsuri', 'http://dbpedia.org/resource/Hindi_Day', 'http://dbpedia.org/resource/History_of_lysergic_acid_diethylamide', 'http://dbpedia.org/resource/Hizb_Rateb', 'http://dbpedia.org/resource/Hıdırellez', 'http://dbpedia.org/resource/Hobiyee', 'http://dbpedia.org/resource/Hogmanay', 'http://dbpedia.org/resource/Hola_Mohalla', 'http://dbpedia.org/resource/Holi', 'http://dbpedia.org/resource/Holidays_with_paid_time_off_in_the_United_States', 'http://dbpedia.org/resource/Holika_Dahan', 'http://dbpedia.org/resource/Holy_Saturday', 'http://dbpedia.org/resource/Holy_Week_in_Ruvo_di_Puglia', 'http://dbpedia.org/resource/Hōnensai', 'http://dbpedia.org/resource/Honey_Feast_of_the_Saviour', 'http://dbpedia.org/resource/Hong_Kong_Foundation_Day', 'http://dbpedia.org/resource/Hong_Kong_Special_Administrative_Region_Establishment_Day', 'http://dbpedia.org/resource/Honor_America_Days', 'http://dbpedia.org/resource/Hop-tu-Naa', 'http://dbpedia.org/resource/Hosay', 'http://dbpedia.org/resource/Human_Rights_Day', 'http://dbpedia.org/resource/HumanLight', "http://dbpedia.org/resource/Hùng_Kings'_Festival", 'http://dbpedia.org/resource/Hyderabad-Karnataka_Liberation_Day', 'http://dbpedia.org/resource/Icelandic_National_Day', 'http://dbpedia.org/resource/Imbolc', 'http://dbpedia.org/resource/Imoinu_Iratpa', 'http://dbpedia.org/resource/In_town,_without_my_car!', 'http://dbpedia.org/resource/Independence_and_Unity_Day_(Slovenia)', 'http://dbpedia.org/resource/Independence_Day_(Abkhazia)', 'http://dbpedia.org/resource/Independence_Day_(Algeria)', 'http://dbpedia.org/resource/Independence_Day_(Armenia)', 'http://dbpedia.org/resource/Independence_Day_(Bahrain)', 'http://dbpedia.org/resource/Independence_Day_(Bangladesh)', 'http://dbpedia.org/resource/Independence_Day_(Belarus)', 'http://dbpedia.org/resource/Independence_Day_(Bosnia_and_Herzegovina)', 'http://dbpedia.org/resource/Independence_Day_(Botswana)', 'http://dbpedia.org/resource/Independence_Day_(Brazil)', 'http://dbpedia.org/resource/Independence_Day_(Croatia)', 'http://dbpedia.org/resource/Independence_Day_(Cyprus)', 'http://dbpedia.org/resource/Independence_Day_(Djibouti)', 'http://dbpedia.org/resource/Independence_Day_(Eritrea)', 'http://dbpedia.org/resource/Independence_Day_(Estonia)', 'http://dbpedia.org/resource/Independence_Day_(Finland)', 'http://dbpedia.org/resource/Independence_Day_(Georgia)', 'http://dbpedia.org/resource/Independence_Day_(Ghana)', 'http://dbpedia.org/resource/Independence_Day_(Grenada)', 'http://dbpedia.org/resource/Independence_Day_(Hawaii)', 'http://dbpedia.org/resource/Independence_Day_(India)', 'http://dbpedia.org/resource/Independence_Day_(Indonesia)', 'http://dbpedia.org/resource/Independence_Day_(Jamaica)', 'http://dbpedia.org/resource/Independence_Day_(Jordan)', 'http://dbpedia.org/resource/Independence_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Independence_Day_(Kyrgyzstan)', 'http://dbpedia.org/resource/Independence_Day_(Malaysia)', 'http://dbpedia.org/resource/Independence_Day_(Malta)', 'http://dbpedia.org/resource/Independence_Day_(Myanmar)', 'http://dbpedia.org/resource/Independence_Day_(Niger)', 'http://dbpedia.org/resource/Independence_Day_(North_Macedonia)', 'http://dbpedia.org/resource/Independence_Day_(Pakistan)', 'http://dbpedia.org/resource/Independence_Day_(Philippines)', 'http://dbpedia.org/resource/Independence_Day_(Somalia)', 'http://dbpedia.org/resource/Independence_Day_(Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(South_Ossetia)', 'http://dbpedia.org/resource/Independence_Day_(Sri_Lanka)', 'http://dbpedia.org/resource/Independence_Day_(State_of_Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(Tajikistan)', 'http://dbpedia.org/resource/Independence_Day_(Turkmenistan)', 'http://dbpedia.org/resource/Independence_Day_(Uganda)', 'http://dbpedia.org/resource/Independence_Day_(United_States)', 'http://dbpedia.org/resource/Independence_Day_(Uzbekistan)', 'http://dbpedia.org/resource/Independence_Day_of_Cambodia', 'http://dbpedia.or</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Democratic_Alignment_(2015)', 'http://dbpedia.org/resource/Movement_of_Democratic_Socialists', 'http://dbpedia.org/resource/Movement_of_Free_Citizens_(Greece)', 'http://dbpedia.org/resource/PASOK_–_Movement_for_Change', 'http://dbpedia.org/resource/PASOK', 'http://dbpedia.org/resource/Radical_Movement_of_Social_Democratic_Alliance']</t>
+  </si>
+  <si>
     <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Cubism', 'http://dbpedia.org/resource/Surrealism']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/Brigitte_Mira', 'http://dbpedia.org/resource/David_Epley_(entertainer)', 'http://dbpedia.org/resource/Friederike_Caroline_Neuber', 'http://dbpedia.org/resource/Gordon_Hopkirk', 'http://dbpedia.org/resource/Shimon_Schwarzschild', 'http://dbpedia.org/resource/Walter_Bluhm', 'http://dbpedia.org/resource/Walther_Süssenguth']</t>
+  </si>
+  <si>
     <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
+  </si>
+  <si>
     <t>['Adele Laurie Blue Adkins']</t>
   </si>
   <si>
@@ -1105,15 +1863,30 @@
     <t>['http://dbpedia.org/resource/Julius_Lester']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/Fawlty_Towers', "http://dbpedia.org/resource/Monty_Python's_Fliegender_Zirkus", "http://dbpedia.org/resource/Monty_Python's_Flying_Circus", "http://dbpedia.org/resource/Monty_Python's_Personal_Best", 'http://dbpedia.org/resource/Parrot_Sketch_Not_Included_–_20_Years_of_Monty_Python', 'http://dbpedia.org/resource/Python_Night_–_30_Years_of_Monty_Python']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Abdulrazak_Gurnah', 'http://dbpedia.org/resource/Aleksandr_Solzhenitsyn', 'http://dbpedia.org/resource/Alice_Munro', 'http://dbpedia.org/resource/Annie_Ernaux', 'http://dbpedia.org/resource/Czesław_Miłosz', "http://dbpedia.org/resource/Eugene_O'Neill", 'http://dbpedia.org/resource/Gerhart_Hauptmann', 'http://dbpedia.org/resource/Harold_Pinter', 'http://dbpedia.org/resource/Hermann_Hesse', 'http://dbpedia.org/resource/J._M._Coetzee', 'http://dbpedia.org/resource/John_Steinbeck', 'http://dbpedia.org/resource/José_Saramago', 'http://dbpedia.org/resource/Juan_Ramón_Jiménez', 'http://dbpedia.org/resource/Louise_Glück', 'http://dbpedia.org/resource/Octavio_Paz', 'http://dbpedia.org/resource/Olga_Tokarczuk', 'http://dbpedia.org/resource/Patrick_Modiano', 'http://dbpedia.org/resource/Patrick_White', 'http://dbpedia.org/resource/Sorley_MacLean', 'http://dbpedia.org/resource/Svetlana_Alexievich', 'http://dbpedia.org/resource/Thomas_Mann', 'http://dbpedia.org/resource/Toni_Morrison', 'http://dbpedia.org/resource/William_Faulkner', 'http://dbpedia.org/resource/William_Golding__William_Golding__1', 'http://dbpedia.org/resource/Wisława_Szymborska']</t>
+  </si>
+  <si>
     <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
+  </si>
+  <si>
     <t>['http://dbpedia.org/resource/Ottawa']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/Aaron_Xuereb', 'http://dbpedia.org/resource/Adrian_Ciantar', 'http://dbpedia.org/resource/Adrian_Mifsud', 'http://dbpedia.org/resource/Adrian_Pulis', 'http://dbpedia.org/resource/Alishia_Sultana', 'http://dbpedia.org/resource/Andrei_Agius', 'http://dbpedia.org/resource/Andrew_Cohen_(footballer)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1977)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1981)', 'http://dbpedia.org/resource/Brenda_Borg', 'http://dbpedia.org/resource/Brian_Said', 'http://dbpedia.org/resource/Brian_Strutt', 'http://dbpedia.org/resource/Callum_Talbot', 'http://dbpedia.org/resource/Carlo_Mamo', 'http://dbpedia.org/resource/Charles_Azzopardi', 'http://dbpedia.org/resource/Charles_Micallef', 'http://dbpedia.org/resource/Charles_Muscat', 'http://dbpedia.org/resource/Charlie_Williams_(footballer,_born_1944)', 'http://dbpedia.org/resource/Claude_Mattocks', 'http://dbpedia.org/resource/Cleavon_Frendo', 'http://dbpedia.org/resource/Cornelius_Hogan', 'http://dbpedia.org/resource/Daniel_Theuma', 'http://dbpedia.org/resource/Darren_Debono', 'http://dbpedia.org/resource/David_Camilleri', 'http://dbpedia.org/resource/David_Cluett', 'http://dbpedia.org/resource/Denis_Cauchi', 'http://dbpedia.org/resource/Dennis_Mizzi', 'http://dbpedia.org/resource/Dexter_Xuereb', 'http://dbpedia.org/resource/Dorianne_Theuma', 'http://dbpedia.org/resource/Edmond_Agius', 'http://dbpedia.org/resource/Edward_Azzopardi', 'http://dbpedia.org/resource/Emanuel_Fabri', 'http://dbpedia.org/resource/Emma_Xuerreb', 'http://dbpedia.org/resource/Gareth_Sciberras', 'http://dbpedia.org/resource/George_Mallia', 'http://dbpedia.org/resource/Hubert_Suda', 'http://dbpedia.org/resource/Ian_Azzopardi', 'http://dbpedia.org/resource/Ian_Ciantar', 'http://dbpedia.org/resource/Ivan_Zammit', 'http://dbpedia.org/resource/Jade_Flask', 'http://dbpedia.org/resource/Jamie_Zerafa', 'http://dbpedia.org/resource/Jean_Paul_Farrugia', 'http://dbpedia.org/resource/Jeffrey_Chetcuti', 'http://dbpedia.org/resource/Jesmond_Delia', 'http://dbpedia.org/resource/Joe_Brincat', 'http://dbpedia.org/resource/Johann_Bezzina', 'http://dbpedia.org/resource/John_Bonello', 'http://dbpedia.org/resource/John_McNeill_(footballer)', 'http://dbpedia.org/resource/Jonathan_Caruana', 'http://dbpedia.org/resource/Jonathan_Holland_(footballer)', 'http://dbpedia.org/resource/Jonathan_Magri_Overend', 'http://dbpedia.org/resource/Josef_Mifsud', 'http://dbpedia.org/resource/Joseph_Farrugia', 'http://dbpedia.org/resource/Juan_Carlos_Corbalan', 'http://dbpedia.org/resource/Justin_Haber', 'http://dbpedia.org/resource/Kenneth_Scicluna', 'http://dbpedia.org/resource/Kevin_Sammut', 'http://dbpedia.org/resource/Kristian_Laferla', 'http://dbpedia.org/resource/Lino_Galea', 'http://dbpedia.org/resource/Lolly_Vella', 'http://dbpedia.org/resource/Malcolm_Licari', 'http://dbpedia.org/resource/Maria_Farrugia', 'http://dbpedia.org/resource/Mario_Farrugia', 'http://dbpedia.org/resource/Martina_Borg', 'http://dbpedia.org/resource/Massimo_Grima', 'http://dbpedia.org/resource/Matthew_Guillaumier', 'http://dbpedia.org/resource/Michael_Cutajar', 'http://dbpedia.org/resource/Michael_Galea', 'http://dbpedia.org/resource/Michael_Johnson_(footballer,_born_1994)', 'http://dbpedia.org/resource/Nicole_Buttigieg', 'http://dbpedia.org/resource/Nicole_Sciberras', 'http://dbpedia.org/resource/Noel_Turner_(footballer)', 'http://dbpedia.org/resource/Paul_Fenech_(footballer)', 'http://dbpedia.org/resource/Pierre_Aquilina', 'http://dbpedia.org/resource/Ray_Farrugia', 'http://dbpedia.org/resource/Raymond_Xuereb', "http://dbpedia.org/resource/Rebecca_D'Agostino", 'http://dbpedia.org/resource/Reginald_Cini', 'http://dbpedia.org/resource/Roderick_Briffa', 'http://dbpedia.org/resource/Ronnie_Cocks', 'http://dbpedia.org/resource/Saviour_Darmanin', 'http://dbpedia.org/resource/Sean_Sullivan_(footballer)', 'http://dbpedia.org/resource/Simon_Tortell', 'http://dbpedia.org/resource/Stefan_Giglio', 'http://dbpedia.org/resource/Stefania_Farrugia', 'http://dbpedia.org/resource/Stephen_Wellman', 'http://dbpedia.org/resource/Steve_Bezzina', 'http://dbpedia.org/resource/Steve_Pisani', 'http://dbpedia.org/resource/Terence_Scerri', 'http://dbpedia.org/resource/Terence_Vella', 'http://dbpedia.org/resource/Vincent_Borg_Bonaci', 'http://dbpedia.org/resource/William_Camenzuli']</t>
+  </si>
+  <si>
     <t>['http://dbpedia.org/resource/Yaoundé']</t>
   </si>
   <si>
+    <t>['1325']</t>
+  </si>
+  <si>
     <t>['http://dbpedia.org/resource/Abdulmanap_Nurmagomedov', 'http://dbpedia.org/resource/Aleksandr_Aleksandrovich_Blagonravov', 'http://dbpedia.org/resource/Alexander_Gorodnitsky', 'http://dbpedia.org/resource/Alexander_Sergeyevich_Yakovlev', 'http://dbpedia.org/resource/Alexei_Gvishiani', 'http://dbpedia.org/resource/Andrei_Kuznetsov_(volleyball)', 'http://dbpedia.org/resource/Boris_Mironov_(historian)', 'http://dbpedia.org/resource/Boris_Uspenskij', 'http://dbpedia.org/resource/Denis_Maidanov', 'http://dbpedia.org/resource/Dmitry_Smirnov_(entrepreneur)', 'http://dbpedia.org/resource/Eduard_Sibiryakov', 'http://dbpedia.org/resource/Elena_Mikhailovskaya', 'http://dbpedia.org/resource/Evgeni_Krasilnikov', 'http://dbpedia.org/resource/Fedir_Lashchonov', 'http://dbpedia.org/resource/Fyodor_Grigoryevich_Reshetnikov', 'http://dbpedia.org/resource/Genamii_Nokolaevich_Dulnev', 'http://dbpedia.org/resource/Gennady_Manakov', 'http://dbpedia.org/resource/Georgy_Grechko', 'http://dbpedia.org/resource/Igor_Grivennikov', 'http://dbpedia.org/resource/Igor_Runov', 'http://dbpedia.org/resource/Lilya_Budzhurova', 'http://dbpedia.org/resource/List_of_Rocky_characters__Ludmilla_Vobet_Drago__1', 'http://dbpedia.org/resource/Lyudmila_Borozna', 'http://dbpedia.org/resource/Lyudmila_Gureyeva', 'http://dbpedia.org/resource/Maria_Klenova', 'http://dbpedia.org/resource/Marita_Katusheva', 'http://dbpedia.org/resource/Mikhail_Barsukov', 'http://dbpedia.org/resource/Mikhail_Golant', 'http://dbpedia.org/resource/Mukhamet_Kharrasov', 'http://dbpedia.org/resource/Nadezhda_Radzevich', 'http://dbpedia.org/resource/Nataliya_Kudreva', 'http://dbpedia.org/resource/Oleg_Makarov_(cosmonaut)', 'http://dbpedia.org/resource/Pavel_Sheremet', 'http://dbpedia.org/resource/Pavel_Sukhoi', 'http://dbpedia.org/resource/Rostislav_Shilo', 'http://dbpedia.org/resource/Sergei_Petrovich_Mitrofanov', 'http://dbpedia.org/resource/Tatyana_Kraynova', 'http://dbpedia.org/resource/Tatyana_Menshova', 'http://dbpedia.org/resource/Tatyana_Roshchina', 'http://dbpedia.org/resource/Tatyana_Sidorenko', 'http://dbpedia.org/resource/Valentin_Aleskovsky', 'http://dbpedia.org/resource/Valentin_Bliznyuk', 'http://dbpedia.org/resource/Valeri_Kalachikhin', 'http://dbpedia.org/resource/Valery_Losev', 'http://dbpedia.org/resource/Vasily_Vladimirov', 'http://dbpedia.org/resource/Viktor_Pugachev', 'http://dbpedia.org/resource/Vitali_Kovalenko', 'http://dbpedia.org/resource/Vitaly_Vorotnikov', 'http://dbpedia.org/resource/Vladimir_Chernyshyov', 'http://dbpedia.org/resource/Vladimir_Churilovski', 'http://dbpedia.org/resource/Vladimir_Dorokhov', 'http://dbpedia.org/resource/Vladimir_Patkin', 'http://dbpedia.org/resource/Vladimir_Petlyakov', 'http://dbpedia.org/resource/Vladimir_Putyatov', 'http://dbpedia.org/resource/Vladimir_Shatalov', 'http://dbpedia.org/resource/Vladimir_Shkurikhin', 'http://dbpedia.org/resource/Vladimir_Ulanov', 'http://dbpedia.org/resource/Volodymyr_Ivanov_(volleyball)', 'http://dbpedia.org/resource/Vyacheslav_Domani', 'http://dbpedia.org/resource/Yefim_Chulak', 'http://dbpedia.org/resource/Yelena_Volkova_(volleyball)', 'http://dbpedia.org/resource/Yuri_Cherednik', 'http://dbpedia.org/resource/Yuri_Chesnokov_(volleyball)']</t>
   </si>
   <si>
@@ -1141,10 +1914,16 @@
     <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Fleishman_Is_in_Trouble_(miniseries)', 'http://dbpedia.org/resource/Free_Samples', 'http://dbpedia.org/resource/Get_Real_(American_TV_series)', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/A_Summer_Tale', 'http://dbpedia.org/resource/Afghan_Muscles', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case', 'http://dbpedia.org/resource/Another_Round_(film)', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar', 'http://dbpedia.org/resource/Bag_Københavns_kulisser', 'http://dbpedia.org/resource/Barefoot_(2017_film)', "http://dbpedia.org/resource/Benny's_Bathtub", 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light', 'http://dbpedia.org/resource/Bornholms_stemme', 'http://dbpedia.org/resource/Breaking_the_Waves', 'http://dbpedia.org/resource/Busters_verden', 'http://dbpedia.org/resource/Constance_(film)', 'http://dbpedia.org/resource/Crying_for_Love', 'http://dbpedia.org/resource/De_besejrede_Pebersvende', 'http://dbpedia.org/resource/De_Udstillede', 'http://dbpedia.org/resource/Den_farlige_alder', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært', 'http://dbpedia.org/resource/Ditte,_Child_of_Man', 'http://dbpedia.org/resource/Domino_(2019_film)', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs', 'http://dbpedia.org/resource/Echo_(2007_film)', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee', 'http://dbpedia.org/resource/Eksperimentet', 'http://dbpedia.org/resource/En_slem_Dreng', 'http://dbpedia.org/resource/Eye_of_the_Eagle_(1997_film)', 'http://dbpedia.org/resource/Familien_Pille_som_Spejdere', 'http://dbpedia.org/resource/Family_Matters_(film)', 'http://dbpedia.org/resource/Farlig_Ungdom', 'http://dbpedia.org/resource/Fidibus', 'http://dbpedia.org/resource/Five_Get_into_Trouble_(film)', 'http://dbpedia.org/resource/Flee_(film)', 'http://dbpedia.org/resource/Flickering_Lights', 'http://dbpedia.org/resource/Frække_Frida_og_de_frygtløse_spioner', 'http://dbpedia.org/resource/Frk._Møllers_jubilæum', 'http://dbpedia.org/resource/Frode_og_alle_de_andre_rødder__Frode_og_alle_de_andre_rødder__1', "http://dbpedia.org/resource/Gasolin'_(film)", 'http://dbpedia.org/resource/Ghost_Train_International', 'http://dbpedia.org/resource/Giv_Gud_en_chance_om_søndagen', "http://dbpedia.org/resource/Goutte_d'Or_(film)", "http://dbpedia.org/resource/Help!_I'm_a_Fish", 'http://dbpedia.org/resource/Herberg_for_Hjemløse', 'http://dbpedia.org/resource/His_New_Grey_Trousers', 'http://dbpedia.org/resource/Højt_paa_en_kvist', 'http://dbpedia.org/resource/Holes_in_the_Soup', 'http://dbpedia.org/resource/Human_Remains_(film)', 'http://dbpedia.org/resource/Ikíngut', 'http://dbpedia.org/resource/Jag_är_din_krigare', 'http://dbpedia.org/resource/Jeg_har_elsket_og_levet', 'http://dbpedia.org/resource/Journey_to_Saturn', 'http://dbpedia.org/resource/Kærlighed_og_Mobilisering', "http://dbpedia.org/resource/Karla's_World", 'http://dbpedia.org/resource/Khartoum_Offside', "http://dbpedia.org/resource/Kira's_Reason:_A_Love_Story", 'http://dbpedia.org/resource/Klown_Forever', 'http://dbpedia.org/resource/København,_Kalundborg_og_-_%3F', 'http://dbpedia.org/resource/Koko-di_Koko-da', 'http://dbpedia.org/resource/Kun_en_Tigger', 'http://dbpedia.org/resource/Little_Brother,_Big_Trouble:_A_Christmas_Adventure', 'http://dbpedia.org/resource/Løvejagten', 'http://dbpedia.org/resource/Manslaughter_(2005_film)', 'http://dbpedia.org/resource/Margrete:_Queen_of_the_North', 'http://dbpedia.org/resource/Matador_(Danish_TV_series)', 'http://dbpedia.org/resource/Melody_of_Murder', 'http://dbpedia.org/resource/Minor_Mishaps', 'http://dbpedia.org/resource/Monas_verden', 'http://dbpedia.org/resource/Murderous_Trance', 'http://dbpedia.org/resource/Murk_(film)', 'http://dbpedia.org/resource/Nation_Estate', 'http://dbpedia.org/resource/Next_Stop_Paradise_(1980_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1934_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1974_film)', 'http://dbpedia.org/resource/Nordhavets_mænd', 'http://dbpedia.org/resource/Nynne', "http://dbpedia.org/resource/O'_Horten", 'http://dbpedia.org/resource/Pelle_the_Conqueror', 'http://dbpedia.org/resource/Pervert_Park', 'http://dbpedia.org/resource/Princess_(2006_film)', 'http://dbpedia.org/resource/Pusher_(film_series)', 'http://dbpedia.org/resource/Regel_nr._1', 'http://dbpedia.org/resource/Reptilicus', 'http://dbpedia.org/resource/Return_to_Sender_(2004_film)', 'http://dbpedia.org/resource/Samson_&amp;_Sally', 'http://dbpedia.org/resource/Sekstet', 'http://dbpedia.org/resource/Smiling_in_a_War_Zone', 'http://dbpedia.org/resource/Something_Better_to_Come', 'http://dbpedia.org/resource/Songs_from_the_Second_Floor', 'http://dbpedia.org/resource/Sons_of_the_Soil', 'http://dbpedia.org/resource/Speed_Sisters', 'http://dbpedia.org/resource/Speed_Walking', 'http://dbpedia.org/resource/Stealing_Rembrandt', 'http://dbpedia.org/resource/Stjerneskud', 'http://dbpedia.org/resource/Stolen_Spring_(film)', 'http://dbpedia.org/resource/Storm_(2009_film)', 'http://dbpedia.org/resource/Strømer', 'http://dbpedia.org/resource/Sun_over_Denmark', 'http://dbpedia.org/resource/Sunes_familie', 'http://dbpedia.org/resource/Supervoksen', 'http://dbpedia.org/resource/Susanne_(1950_film)', 'http://dbpedia.org/resource/Teddy_Bear_(2012_film)', 'http://dbpedia.org/resource/Terribly_Happy', "http://dbpedia.org/resource/That's_Me,_Too", 'http://dbpedia.org/resource/The_Crimson_Circle_(1960_film)', 'http://dbpedia.org/resource/The_Forbidden_Team', 'http://dbpedia.org/resource/The_House_of_the_Spirits_(film)', 'http://dbpedia.org/resource/The_Inheritance_(2003_film)', "http://dbpedia.org/resource/The_King's_Choice", 'http://dbpedia.org/resource/The_Lego_Ninjago_Movie', 'http://dbpedia.org/resource/The_Mahabharata_(1989_film)', 'http://dbpedia.org/resource/The_Monastery:_Mr._Vig_and_the_Nun', 'http://dbpedia.org/resource/The_Perfect_Human', 'http://dbpedia.org/resource/The_Red_Meadows', 'http://dbpedia.org/resource/The_Thralls', 'http://dbpedia.org/resource/The_Viking_Watch_of_the_Danish_Seaman', 'http://dbpedia.org/resource/The_White_Slave_Trade', 'http://dbpedia.org/resource/Those_Blasted_Kids', 'http://dbpedia.org/resource/Torremolinos_73', 'http://dbpedia.org/resource/Valhalla_(1986_film)', 'http://dbpedia.org/resource/Vildledt_Elskov', "http://dbpedia.org/resource/We_Meet_at_Tove's", 'http://dbpedia.org/resource/Webmaster_(film)', 'http://dbpedia.org/resource/What_No_One_Knows', 'http://dbpedia.org/resource/You_Are_Not_Alone_(film)']</t>
+  </si>
+  <si>
     <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Aida_(musical)', 'http://dbpedia.org/resource/Billy_Elliot_the_Musical', 'http://dbpedia.org/resource/Lestat_(musical)', 'http://dbpedia.org/resource/Tammy_Faye_(musical)', 'http://dbpedia.org/resource/The_Devil_Wears_Prada_(musical)', 'http://dbpedia.org/resource/The_Lion_King_(musical)']</t>
+    <t>['http://dbpedia.org/resource/Asia']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Leipzig_University']</t>
   </si>
   <si>
     <t>['http://dbpedia.org/resource/1969–70_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1971–72_VfL_Bochum_season', 'http://dbpedia.org/resource/1972–73_VfL_Bochum_season', 'http://dbpedia.org/resource/1973–74_VfL_Bochum_season', 'http://dbpedia.org/resource/1974–75_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1974–75_VfL_Bochum_season', 'http://dbpedia.org/resource/1975–76_VfL_Bochum_season', 'http://dbpedia.org/resource/1976–77_Tennis_Borussia_Berlin_season', 'http://dbpedia.org/resource/1976–77_VfL_Bochum_season', 'http://dbpedia.org/resource/1977–78_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1977–78_VfL_Bochum_season', 'http://dbpedia.org/resource/1978–79_VfL_Bochum_season', 'http://dbpedia.org/resource/1979–80_VfL_Bochum_season', 'http://dbpedia.org/resource/1980–81_VfL_Bochum_season', 'http://dbpedia.org/resource/1981–82_VfL_Bochum_season', 'http://dbpedia.org/resource/1982–83_VfL_Bochum_season', 'http://dbpedia.org/resource/1983–84_VfL_Bochum_season', 'http://dbpedia.org/resource/1984–85_VfL_Bochum_season', 'http://dbpedia.org/resource/1985–86_VfL_Bochum_season', 'http://dbpedia.org/resource/1986–87_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1986–87_VfL_Bochum_season', 'http://dbpedia.org/resource/1987–88_VfL_Bochum_season', 'http://dbpedia.org/resource/1988–89_VfL_Bochum_season', 'http://dbpedia.org/resource/1989–90_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1989–90_VfL_Bochum_season', 'http://dbpedia.org/resource/1990–91_VfL_Bochum_season', 'http://dbpedia.org/resource/1991–92_VfL_Bochum_season', 'http://dbpedia.org/resource/1992–93_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1992–93_VfL_Bochum_season', 'http://dbpedia.org/resource/1994–95_VfL_Bochum_season', 'http://dbpedia.org/resource/1995–96_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1996–97_VfL_Bochum_season', 'http://dbpedia.org/resource/1997–98_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1997–98_VfL_Bochum_season', 'http://dbpedia.org/resource/1998–99_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/1998–99_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1998–99_Hertha_BSC_season', 'http://dbpedia.org/resource/1998–99_VfL_Bochum_season', 'http://dbpedia.org/resource/2000–01_VfL_Bochum_season', 'http://dbpedia.org/resource/2002–03_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2002–03_VfL_Bochum_season', 'http://dbpedia.org/resource/2003–04_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2003–04_VfL_Bochum_season', 'http://dbpedia.org/resource/2004–05_FC_Schalke_04_season', 'http://dbpedia.org/resource/2004–05_VfL_Bochum_season', 'http://dbpedia.org/resource/2005–06_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2006–07_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2006–07_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2006–07_VfL_Bochum_season', 'http://dbpedia.org/resource/2006–07_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2007–08_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2007–08_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2007–08_VfL_Bochum_season', 'http://dbpedia.org/resource/2008–09_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2008–09_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2008–09_VfL_Bochum_season', 'http://dbpedia.org/resource/2009–10_FC_Schalke_04_season', 'http://dbpedia.org/resource/2009–10_VfL_Bochum_season', 'http://dbpedia.org/resource/2010–11_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2010–11_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2010–11_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2011–12_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_SC_Freiburg_season', 'http://dbpedia.org/resource/2012–13_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2012–13_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2012–13_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2012–13_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2012–13_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2013–14_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2013–14_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2013–14_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2013–14_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2014–15_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2014–15_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2014–15_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2014–15_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2015–16_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2015–16_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2015–16_FC_Ingolstadt_04_season', 'http://dbpedia.org/resource/2015–16_FC_Schalke_04_season', 'http://dbpedia.org/resource/2015–16_SK_Rapid_Wien_season', 'http://dbpedia.org/resource/2015–16_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2016–17_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2016–17_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2016–17_FC_Schalke_04_season', 'http://dbpedia.org/resource/2016–17_Hamburger_SV_season']</t>
@@ -1156,9 +1935,6 @@
     <t>['http://dbpedia.org/resource/RCA_Victor']</t>
   </si>
   <si>
-    <t>["http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Assassination_of_Wissam_al-Hassan']</t>
   </si>
   <si>
@@ -1177,12 +1953,6 @@
     <t>['198']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Aleksandr_Pletnev', 'http://dbpedia.org/resource/Aleksandr_Samsonov', 'http://dbpedia.org/resource/Aleksey_Matveyev', 'http://dbpedia.org/resource/Alexandra_Patskevich', 'http://dbpedia.org/resource/Alexey_Zinovyev', 'http://dbpedia.org/resource/Alla_Shishkina', 'http://dbpedia.org/resource/Anastasia_Chaun', 'http://dbpedia.org/resource/Anastasia_Davydova', 'http://dbpedia.org/resource/Anastasia_Gloushkov', 'http://dbpedia.org/resource/Anastasiya_Yermakova', 'http://dbpedia.org/resource/Andrey_Dunayev', 'http://dbpedia.org/resource/Anisya_Olkhova', 'http://dbpedia.org/resource/Anton_Chupkov', 'http://dbpedia.org/resource/Artem_Lobuzov', 'http://dbpedia.org/resource/Daniela_Inácio', 'http://dbpedia.org/resource/Daniil_Pasynkov', 'http://dbpedia.org/resource/Danil_Haustov', 'http://dbpedia.org/resource/Daria_Vaskina', 'http://dbpedia.org/resource/Elena_Prokofyeva', 'http://dbpedia.org/resource/Elena_Sokolova_(swimmer)', 'http://dbpedia.org/resource/Elvira_Khasyanova', 'http://dbpedia.org/resource/Galina_Sosnova', 'http://dbpedia.org/resource/Gelena_Topilina', 'http://dbpedia.org/resource/Irina_Pozdnyakova', 'http://dbpedia.org/resource/Kliment_Kolesnikov', 'http://dbpedia.org/resource/Lyubov_Kobzova', 'http://dbpedia.org/resource/Maria_Gromova_(swimmer)', 'http://dbpedia.org/resource/Maria_Shurochkina', 'http://dbpedia.org/resource/Maria_Ugolkova', 'http://dbpedia.org/resource/Marina_Chepurkova', 'http://dbpedia.org/resource/Marina_Klyuchnikova', 'http://dbpedia.org/resource/Mariya_Chernyayeva', 'http://dbpedia.org/resource/Mariya_Gromova', 'http://dbpedia.org/resource/Mikhail_Dovgalyuk', 'http://dbpedia.org/resource/Mikhail_Polischuk', 'http://dbpedia.org/resource/Natalya_Mikhaylova', 'http://dbpedia.org/resource/Nika_Godun', 'http://dbpedia.org/resource/Nikolai_Pankin', 'http://dbpedia.org/resource/Nikolay_Suhorukov', 'http://dbpedia.org/resource/Oleg_Fotin', 'http://dbpedia.org/resource/Olesya_Vladykina', 'http://dbpedia.org/resource/Olga_Sedakova_(synchronised_swimmer)', 'http://dbpedia.org/resource/Rozaliya_Nasretdinova', 'http://dbpedia.org/resource/Ruslan_Gaziev', 'http://dbpedia.org/resource/Semyon_Belits-Geiman', 'http://dbpedia.org/resource/Sergey_Gusev_(swimmer)', 'http://dbpedia.org/resource/Sergey_Lavrenov', 'http://dbpedia.org/resource/Svetlana_Chimrova', 'http://dbpedia.org/resource/Svetlana_Romashina', 'http://dbpedia.org/resource/Tamara_Sosnova', 'http://dbpedia.org/resource/Tatyana_Titova_(synchronised_swimmer)', 'http://dbpedia.org/resource/Valentin_Kuzmin', 'http://dbpedia.org/resource/Valentina_Poznyak', 'http://dbpedia.org/resource/Valentina_Tutayeva', 'http://dbpedia.org/resource/Viktor_Drobinsky', 'http://dbpedia.org/resource/Viktor_Mazanov', 'http://dbpedia.org/resource/Vladimir_Kravchenko', 'http://dbpedia.org/resource/Vladimir_Mikheyev', 'http://dbpedia.org/resource/Vladislav_Grinev', 'http://dbpedia.org/resource/Yekaterina_Vinogradova', 'http://dbpedia.org/resource/Yelena_Makarova', 'http://dbpedia.org/resource/Yevgeny_Korotyshkin', 'http://dbpedia.org/resource/Yevhen_Mykhailov']</t>
   </si>
   <si>
@@ -1192,70 +1962,25 @@
     <t>['http://dbpedia.org/resource/Himalayas']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
-  </si>
-  <si>
     <t>['44.8']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', "http://dbpedia.org/resource/International_Men's_Day", "http://dbpedia.org/resource/Knut's_party", "http://dbpedia.org/resource/Saint_Knut's_Day", "http://dbpedia.org/resource/Sweden_Finns'_Day", 'http://dbpedia.org/resource/Veterans_Day_(Sweden)', 'http://dbpedia.org/resource/Victoria_Days']</t>
-  </si>
-  <si>
     <t>['9.98E10']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/140th_Anniversary_Celebration_of_the_Emancipation_Proclamation', 'http://dbpedia.org/resource/19_Kislev', "http://dbpedia.org/resource/21_July_Martyr's_Day_Rally", 'http://dbpedia.org/resource/3_May_Constitution_Day', 'http://dbpedia.org/resource/420_(cannabis_culture)', 'http://dbpedia.org/resource/75th_Anniversary_of_Indian_Independence', 'http://dbpedia.org/resource/Aadi_Perukku', 'http://dbpedia.org/resource/Abaca_Festival', 'http://dbpedia.org/resource/Aberri_Eguna', 'http://dbpedia.org/resource/Absentee_funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Accession_Day_(Jammu_and_Kashmir)', 'http://dbpedia.org/resource/Adae_Festival', 'http://dbpedia.org/resource/Advent_Sunday', 'http://dbpedia.org/resource/Advent', 'http://dbpedia.org/resource/Adwa_Victory_Day', 'http://dbpedia.org/resource/Afghan_Independence_Day', 'http://dbpedia.org/resource/Africa_Day', 'http://dbpedia.org/resource/Afro-Colombian_Day', 'http://dbpedia.org/resource/Agawan_Festival', 'http://dbpedia.org/resource/Agonalia', 'http://dbpedia.org/resource/Agrasen_Jayanti', 'http://dbpedia.org/resource/Ahoi_Ashtami', 'http://dbpedia.org/resource/Air_Force_Day_(Pakistan)', 'http://dbpedia.org/resource/Airborne_March', 'http://dbpedia.org/resource/Akita_Kantō', 'http://dbpedia.org/resource/Akitu', 'http://dbpedia.org/resource/Akshaya_Tritiya', 'http://dbpedia.org/resource/Akwasidae_Festival', 'http://dbpedia.org/resource/Alabama_Day', "http://dbpedia.org/resource/Åland's_Autonomy_Day", 'http://dbpedia.org/resource/Alaska_Day', 'http://dbpedia.org/resource/Aldersgate_Day', 'http://dbpedia.org/resource/Alexandra_Rose_Day', "http://dbpedia.org/resource/All_Saints'_Day", "http://dbpedia.org/resource/All_Souls'_Day", 'http://dbpedia.org/resource/Allantide', 'http://dbpedia.org/resource/Allhallowtide', 'http://dbpedia.org/resource/Amalaka_Ekadashi', 'http://dbpedia.org/resource/Ambedkar_Jayanti', 'http://dbpedia.org/resource/Ambubachi_Mela', 'http://dbpedia.org/resource/Amburbium', 'http://dbpedia.org/resource/America_Recycles_Day', "http://dbpedia.org/resource/American_Business_Women's_Day", 'http://dbpedia.org/resource/American_Family_Day', 'http://dbpedia.org/resource/American_Heart_Month', 'http://dbpedia.org/resource/An_Act_for_the_Admission_of_the_State_of_California', 'http://dbpedia.org/resource/Anant_Chaturdashi', 'http://dbpedia.org/resource/Angam_Day', 'http://dbpedia.org/resource/Angarki_Sankashti_Chaturthi', 'http://dbpedia.org/resource/Anishinaabe_Giizhigad', 'http://dbpedia.org/resource/Anniversary_of_the_Unification_of_Italy', 'http://dbpedia.org/resource/Antarctica_Day', 'http://dbpedia.org/resource/Anti-Bullying_Day', 'http://dbpedia.org/resource/Anti-Fascist_Struggle_Day', 'http://dbpedia.org/resource/Anzac_Day', 'http://dbpedia.org/resource/Apple_Feast_of_the_Saviour', "http://dbpedia.org/resource/April_Fools'_Day", 'http://dbpedia.org/resource/Arattupuzha_Pooram', 'http://dbpedia.org/resource/Aravan_Festival_in_Coimbatore', "http://dbpedia.org/resource/Arba'een", 'http://dbpedia.org/resource/Arbor_Day', 'http://dbpedia.org/resource/Armed_Forces_Day_(Bangladesh)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Poland)', 'http://dbpedia.org/resource/Armed_Forces_Day_(South_Korea)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Tajikistan)', 'http://dbpedia.org/resource/Armed_Forces_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Armenian_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Armilustrium', 'http://dbpedia.org/resource/Armistice_Day', 'http://dbpedia.org/resource/Army_Day_(Armenia)', 'http://dbpedia.org/resource/Aromanian_National_Day', 'http://dbpedia.org/resource/Artsakh_Revival_Day', 'http://dbpedia.org/resource/Asalha_Puja', 'http://dbpedia.org/resource/Ash_Wednesday', 'http://dbpedia.org/resource/Ashadhi_Puja', 'http://dbpedia.org/resource/Ashanti_Yam_Festival', 'http://dbpedia.org/resource/Ashenda', 'http://dbpedia.org/resource/Ashtimki', 'http://dbpedia.org/resource/Ashura', 'http://dbpedia.org/resource/Asian_American_and_Pacific_Islander_Heritage_Month', 'http://dbpedia.org/resource/Ask_a_Stupid_Question_Day', 'http://dbpedia.org/resource/Asr_prayer', 'http://dbpedia.org/resource/Assumption_of_Mary', 'http://dbpedia.org/resource/Astan_Bandar', 'http://dbpedia.org/resource/Asteroid_Day', 'http://dbpedia.org/resource/Astronauts_Day', 'http://dbpedia.org/resource/Ati-Atihan_festival', 'http://dbpedia.org/resource/Atla_Tadde', 'http://dbpedia.org/resource/Attukal_Pongala', 'http://dbpedia.org/resource/Auckland_Anniversary_Day', 'http://dbpedia.org/resource/August_Holiday', 'http://dbpedia.org/resource/Australia_Day', 'http://dbpedia.org/resource/Australian_Citizenship_Day', 'http://dbpedia.org/resource/Autism_Sunday', 'http://dbpedia.org/resource/Autumnal_Equinox_Day', 'http://dbpedia.org/resource/Awukudae_Festival', 'http://dbpedia.org/resource/Ayudha_Puja', 'http://dbpedia.org/resource/Ayurveda_Day', 'http://dbpedia.org/resource/Azad_Kashmir_Day', 'http://dbpedia.org/resource/Azores_Day', 'http://dbpedia.org/resource/Baba_Marta_Day', 'http://dbpedia.org/resource/Babinden', 'http://dbpedia.org/resource/Baci', 'http://dbpedia.org/resource/Bali_Jatra', 'http://dbpedia.org/resource/Balipratipada', 'http://dbpedia.org/resource/Ballarat_Show', 'http://dbpedia.org/resource/Baltic_Freedom_Day', 'http://dbpedia.org/resource/Baltic_Unity_Day', 'http://dbpedia.org/resource/Bandi_Chhor_Divas', 'http://dbpedia.org/resource/Bandna', 'http://dbpedia.org/resource/Banned_Books_Week', 'http://dbpedia.org/resource/Barack_Obama_Day', 'http://dbpedia.org/resource/Basant_(festival)', 'http://dbpedia.org/resource/Bastille_Day_military_parade', 'http://dbpedia.org/resource/Bastille_Day', 'http://dbpedia.org/resource/Batakari_Day', 'http://dbpedia.org/resource/Bathukamma', 'http://dbpedia.org/resource/Batik_Day', 'http://dbpedia.org/resource/Battle_of_Saragarhi__Day__1', 'http://dbpedia.org/resource/Bauernfest', 'http://dbpedia.org/resource/Belgian_National_Day', 'http://dbpedia.org/resource/Beltane', 'http://dbpedia.org/resource/Ben-Gurion_Day', 'http://dbpedia.org/resource/Beñesmen', 'http://dbpedia.org/resource/Bengali_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Bennington_Battle_Day', 'http://dbpedia.org/resource/Berchtoldstag', 'http://dbpedia.org/resource/Bhai_Dooj', 'http://dbpedia.org/resource/Bhairava_Ashtami', 'http://dbpedia.org/resource/Bhimana_Amavasya', 'http://dbpedia.org/resource/Bhogi', 'http://dbpedia.org/resource/Bhumchu', 'http://dbpedia.org/resource/Bhume_Naach', 'http://dbpedia.org/resource/Bibi-Ka-Alam', 'http://dbpedia.org/resource/Bihar_Day', 'http://dbpedia.org/resource/Bihu', 'http://dbpedia.org/resource/Binirayan_festival', 'http://dbpedia.org/resource/Birkat_Hachama', "http://dbpedia.org/resource/Birth_of_Baháʼu'lláh", 'http://dbpedia.org/resource/Bisexual_Awareness_Week', 'http://dbpedia.org/resource/Bisu_Parba', 'http://dbpedia.org/resource/Bizhu', 'http://dbpedia.org/resource/Black_Day_(South_Korea)', 'http://dbpedia.org/resource/Black_Friday_(partying)', 'http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Black_History_Month', 'http://dbpedia.org/resource/Black_Ribbon_Day', 'http://dbpedia.org/resource/Blackout_Wednesday', "http://dbpedia.org/resource/Blacks_and_Whites'_Carnival", 'http://dbpedia.org/resource/Blasphemy_Day', 'http://dbpedia.org/resource/Blessed_Rainy_Day', 'http://dbpedia.org/resource/Blue_Beanie_Day', 'http://dbpedia.org/resource/Blue_Christmas_(holiday)', 'http://dbpedia.org/resource/Blue_Mass', 'http://dbpedia.org/resource/Bodhi_Day', 'http://dbpedia.org/resource/Bohag_Bihu', 'http://dbpedia.org/resource/Boishakhi_Mela', 'http://dbpedia.org/resource/Boita_Bandana', 'http://dbpedia.org/resource/Bon_(festival)', 'http://dbpedia.org/resource/Bon_Festival', 'http://dbpedia.org/resource/Bon_Om_Touk', 'http://dbpedia.org/resource/Bonalu', 'http://dbpedia.org/resource/Bonifacio_Day', 'http://dbpedia.org/resource/Book_Lovers_Day', 'http://dbpedia.org/resource/Border_Guards_Day', "http://dbpedia.org/resource/Boss's_Day", 'http://dbpedia.org/resource/Boun_Suang_Huea', 'http://dbpedia.org/resource/Boxing_Day', 'http://dbpedia.org/resource/Boxing_Week', 'http://dbpedia.org/resource/Brain_Tumor_Awareness_Month', "http://dbpedia.org/resource/Buddha's_Birthday", 'http://dbpedia.org/resource/Buhe', 'http://dbpedia.org/resource/Buisu', 'http://dbpedia.org/resource/Bukovina_Day', 'http://dbpedia.org/resource/Bulgarian_Armed_Forces_Day', "http://dbpedia.org/resource/Burmese_Martyrs'_Day", 'http://dbpedia.org/resource/Burns_supper', 'http://dbpedia.org/resource/Buß-_und_Bettag', 'http://dbpedia.org/resource/Busu_Dima', 'http://dbpedia.org/resource/Buwan_ng_Wika', 'http://dbpedia.org/resource/Buy_Nothing_Day', 'http://dbpedia.org/resource/Bwisagu', 'http://dbpedia.org/resource/Cake_and_Cunnilingus_Day', 'http://dbpedia.org/resource/Calan_Gaeaf', 'http://dbpedia.org/resource/Cambodian_New_Year', 'http://dbpedia.org/resource/Canada_Day', 'http://dbpedia.org/resource/Canberra_Day', 'http://dbpedia.org/resource/Cancer_Control_Month', 'http://dbpedia.org/resource/Candlemas', 'http://dbpedia.org/resource/Caribbean-American_Heritage_Month', 'http://dbpedia.org/resource/Caristia', 'http://dbpedia.org/resource/Carl_Garner_Federal_Lands_Cleanup_Day', 'http://dbpedia.org/resource/Carmentalia', 'http://dbpedia.org/resource/Carnaval_de_Ponce', 'http://dbpedia.org/resource/Carnaval_de_Vejigantes', 'http://dbpedia.org/resource/Carnival_in_Belize', 'http://dbpedia.org/resource/Carnival_of_Madeira', 'http://dbpedia.org/resource/Carnival_of_Ovar', 'http://dbpedia.org/resource/Carnival_of_Santa_Cruz_de_Tenerife', 'http://dbpedia.org/resource/Casimir_Pulaski_Day', 'http://dbpedia.org/resource/Cassette_Store_Day', 'http://dbpedia.org/resource/Cassinga_Day', 'http://dbpedia.org/resource/Castile_and_León_Day', 'http://dbpedia.org/resource/Castleton_Garland_Day', 'http://dbpedia.org/resource/Catandungan_Festival', 'http://dbpedia.org/resource/Celebrate_Bisexuality_Day', 'http://dbpedia.org/resource/Ceremony_of_the_Keys_(London)', 'http://dbpedia.org/resource/Cesar_Chavez_Day', 'http://dbpedia.org/resource/Ceuta_Day', 'http://dbpedia.org/resource/Chaand_Raat', "http://dbpedia.org/resource/Chafa'a", 'http://dbpedia.org/resource/Chaharshanbe_Suri', 'http://dbpedia.org/resource/Chaiti_Festival,_Rayagada', 'http://dbpedia.org/resource/Chak_Phra', 'http://dbpedia.org/resource/Chandeshwori_Jatra', 'http://dbpedia.org/resource/Chapchar_Kut', 'http://dbpedia.org/resource/Charak_Puja', 'http://dbpedia.org/resource/Charro_Days', 'http://dbpedia.org/resource/Chasok_Tangnam', 'http://dbpedia.org/resource/Chatar_jatra', 'http://dbpedia.org/resource/Chaturmasya', 'http://dbpedia.org/resource/Cheti_Chand', 'http://dbpedia.org/resource/Chhadakhai', 'http://dbpedia.org/resource/Chhath', 'http://dbpedia.org/resource/Child_Health_Day', 'http://dbpedia.org/resource/Childbirth_Masses', "http://dbpedia.org/resource/Children's_Day_(India)", "http://dbpedia.org/resource/Children's_Day_(Japan)", "http://dbpedia.org/resource/Children's_Day", 'http://dbpedia.org/resource/Chilseok', "http://dbpedia.org/resource/Chinese_New_Year's_Eve", 'http://dbpedia.org/resource/Chinese_New_Year', 'http://dbpedia.org/resource/Chitra_Pournami_(festival)', 'http://dbpedia.org/resource/Chocolate_Day_(Ghana)', 'http://dbpedia.org/resource/Christmas_and_holiday_season', 'http://dbpedia.org/resource/Christmas_Eve', 'http://dbpedia.org/resource/Christmas_in_Ireland', 'http://dbpedia.org/resource/Christmas_in_Romania', 'http://dbpedia.org/resource/Christmas_in_Russia', 'http://dbpedia.org/resource/Christmas_in_Sweden', 'http://dbpedia.org/resource/Christmas_in_Ukraine', 'http://dbpedia.org/resource/Christmas_lights_in_Medellín', 'http://dbpedia.org/resource/Christmas_pageant', 'http://dbpedia.org/resource/Christmas_Sunday', 'http://dbpedia.org/resource/Christmas_traditions', 'http://dbpedia.org/resource/Christmas', 'http://dbpedia.org/resource/Christmastide', 'http://dbpedia.org/resource/Cimarrones_Festival', 'http://dbpedia.org/resource/Cinco_de_Mayo', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Civic_Holiday', 'http://dbpedia.org/resource/Classics_Day', 'http://dbpedia.org/resource/Coast_Guard_Day', 'http://dbpedia.org/resource/Cold_Food_Festival', 'http://dbpedia.org/resource/Coming_of_Age_Day', 'http://dbpedia.org/resource/Commemoration_Day_of_Fallen_Soldiers', 'http://dbpedia.org/resource/Commemoration_Day', 'http://dbpedia.org/resource/Commemoration_of_Atatürk,_Youth_and_Sports_Day', 'http://dbpedia.org/resource/Commonwealth_Day', 'http://dbpedia.org/resource/Concord_Day', 'http://dbpedia.org/resource/Confederate_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Day_(Denmark)', 'http://dbpedia.org/resource/Constitution_Day_(Ghana)', 'http://dbpedia.org/resource/Constitution_Day_(India)', 'http://dbpedia.org/resource/Constitution_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Constitution_Day_(Norway)', 'http://dbpedia.org/resource/Constitution_Day_(Russia)', 'http://dbpedia.org/resource/Constitution_Day_(South_Korea)', 'http://dbpedia.org/resource/Constitution_Day_(Ukraine)', 'http://dbpedia.org/resource/Constitution_Day_(United_States)', 'http://dbpedia.org/resource/Constitution_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Week', 'http://dbpedia.org/resource/Consualia', 'http://dbpedia.org/resource/Contraband_Days', 'http://dbpedia.org/resource/COPD_Awareness_Month', 'http://dbpedia.org/resource/Coral_Triangle_Day', 'http://dbpedia.org/resource/Cosmonautics_Day', 'http://dbpedia.org/resource/Côte-Rôtie', 'http://dbpedia.org/resource/Courir_de_Mardi_Gras', 'http://dbpedia.org/resource/Cow_Harbor_Day', 'http://dbpedia.org/resource/Crop_Over', "http://dbpedia.org/resource/Cruisin'_Downriver", 'http://dbpedia.org/resource/Cry_of_Dolores', 'http://dbpedia.org/resource/Culture_Day', 'http://dbpedia.org/resource/Čuvari_Hristovog_groba', 'http://dbpedia.org/resource/Cyber_Monday', 'http://dbpedia.org/resource/Daeboreum', 'http://dbpedia.org/resource/Dahi_Handi', 'http://dbpedia.org/resource/Dahi_Jatra', 'http://dbpedia.org/resource/Dalit_History_Month', 'http://dbpedia.org/resource/Dano_(festival)', 'http://dbpedia.org/resource/Dano_(Korean_festival)', 'http://dbpedia.org/resource/Darwin_Day', 'http://dbpedia.org/resource/Dashain', 'http://dbpedia.org/resource/Data_Privacy_Day', 'http://dbpedia.org/resource/Datta_Jayanti', 'http://dbpedia.org/resource/Davao_City_Torotot_Festival', 'http://dbpedia.org/resource/Day_of_Arafah', 'http://dbpedia.org/resource/Day_of_Conception', 'http://dbpedia.org/resource/Day_of_Missile_Forces_and_Artillery', 'http://dbpedia.org/resource/Day_of_National_Dignity', 'http://dbpedia.org/resource/Day_of_Neutrality', 'http://dbpedia.org/resource/Day_of_Prayer', 'http://dbpedia.org/resource/Day_of_Reconciliation', 'http://dbpedia.org/resource/Day_of_Remembrance_for_All_Victims_of_Chemical_Warfare', 'http://dbpedia.org/resource/Day_of_Remembrance_for_Truth_and_Justice', 'http://dbpedia.org/resource/Day_of_Remembrance_of_the_Victims_of_Political_Repressions', 'http://dbpedia.org/resource/Day_of_Republika_Srpska', 'http://dbpedia.org/resource/Day_of_Restoration_of_Independence_(Azerbaijan)', 'http://dbpedia.org/resource/Day_of_Silence', 'http://dbpedia.org/resource/Day_of_Songun', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_(Kyrgyzstan)', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_of_Azerbaijan', 'http://dbpedia.org/resource/Day_of_the_Canary_Islands', 'http://dbpedia.org/resource/Day_of_the_Cuban_Armed_Forces', 'http://dbpedia.org/resource/Day_of_the_Dead', 'http://dbpedia.org/resource/Day_of_the_Flemish_Community', 'http://dbpedia.org/resource/Day_of_the_Foundation_of_the_Republic', 'http://dbpedia.org/resource/Day_of_the_founding_of_the_German_Empire', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community_of_Belgium', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community', 'http://dbpedia.org/resource/Day_of_the_Little_Candles', 'http://dbpedia.org/resource/Day_of_the_National_Flag_(Ukraine)', 'http://dbpedia.org/resource/Day_of_the_Shining_Star', 'http://dbpedia.org/resource/Day_of_the_Sun', 'http://dbpedia.org/resource/Day_of_the_Unification_of_the_Romanian_Principalities', 'http://dbpedia.org/resource/Day_of_the_Union_of_Bessarabia_with_Romania', 'http://dbpedia.org/resource/Day_of_the_Walloon_Region', 'http://dbpedia.org/resource/Day_of_the_Young_Combatant', 'http://dbpedia.org/resource/Day_of_Ukrainian_Literature_and_Language', 'http://dbpedia.org/resource/Day_of_Valor', 'http://dbpedia.org/resource/Day_of_Victory_in_the_Great_Fatherland_Liberation_War', 'http://dbpedia.org/resource/Daylight_saving_time_in_Canada', 'http://dbpedia.org/resource/Deepothsavam', 'http://dbpedia.org/resource/Defence_Day', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day', 'http://dbpedia.org/resource/Defender_of_the_Motherland_Day', 'http://dbpedia.org/resource/Defenders_Day_(Maryland)', 'http://dbpedia.org/resource/Defenders_Day_(Ukraine)', 'http://dbpedia.org/resource/Dehwa_Daimana', 'http://dbpedia.org/resource/Dehwa_Hanina', 'http://dbpedia.org/resource/Dehwa_Rabba', 'http://dbpedia.org/resource/Democracy_and_National_Unity_Day', 'http://dbpedia.org/resource/Dev_Deepawali_(Varanasi)', 'http://dbpedia.org/resource/Dhammachakra_Pravartan_Din', 'http://dbpedia.org/resource/Dhanteras', 'http://dbpedia.org/resource/Dhanu_jatra', 'http://dbpedia.org/resource/Dhodha', 'http://dbpedia.org/resource/Día_de_la_Altagracia', 'http://dbpedia.org/resource/Día_Mundial_de_Ponce', 'http://dbpedia.org/resource/Día_Nacional_de_Galicia', 'http://dbpedia.org/resource/Días_Patrios_(Guatemala)', 'http://dbpedia.org/resource/Dinagyang', 'http://dbpedia.org/resource/Dinamulag_Festival', 'http://dbpedia.org/resource/Disabled_Access_Day', 'http://dbpedia.org/resource/Distaff_Day', 'http://dbpedia.org/resource/Dita_e_Verës', 'http://dbpedia.org/resource/Diwali_(Jainism)', 'http://dbpedia.org/resource/Diwali', 'http://dbpedia.org/resource/DNA_Day', 'http://dbpedia.org/resource/Dobruja_Day', 'http://dbpedia.org/resource/Dongzhi_Festival', 'http://dbpedia.org/resource/Dormition_of_the_Mother_of_God', 'http://dbpedia.org/resource/Dosmoche', 'http://dbpedia.org/resource/Double_Sixth_Festival', 'http://dbpedia.org/resource/Double_Third_Festival', 'http://dbpedia.org/resource/Downfall_of_the_Derg_(holiday)', 'http://dbpedia.org/resource/Dożynki', 'http://dbpedia.org/resource/Dragon_Boat_Festival', 'http://dbpedia.org/resource/Drupka_Teshi', 'http://dbpedia.org/resource/Duanwu_Festival', 'http://dbpedia.org/resource/Duha', 'http://dbpedia.org/resource/Dundee_Fortnight', 'http://dbpedia.org/resource/Durga_Puja', 'http://dbpedia.org/resource/Durgapur_Free_Day', 'http://dbpedia.org/resource/Dziady', 'http://dbpedia.org/resource/Earth_Day', 'http://dbpedia.org/resource/Earth_Hour', 'http://dbpedia.org/resource/Easter', 'http://dbpedia.org/resource/Economics_of_Christmas', 'http://dbpedia.org/resource/Eid_al-Adha', 'http://dbpedia.org/resource/Eid_al-Fitr', 'http://dbpedia.org/resource/Eid_al-Ghadir', 'http://dbpedia.org/resource/Eid_il-Burbara', 'http://dbpedia.org/resource/Eid_prayers', 'http://dbpedia.org/resource/El_Buen_Fin', 'http://dbpedia.org/resource/Ely_Eel_Day', 'http://dbpedia.org/resource/Emergency_Services_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Employee_Appreciation_Day', 'http://dbpedia.org/resource/Enkutatash', 'http://dbpedia.org/resource/Epiphany_(Christian)', 'http://dbpedia.org/resource/Epiphany_(holiday)', 'http://dbpedia.org/resource/Epiphanytide', 'http://dbpedia.org/resource/Errol_Barrow_Day', 'http://dbpedia.org/resource/Erzya_Language_Day', 'http://dbpedia.org/resource/Ethiopian_Christmas', "http://dbpedia.org/resource/Ethiopian_Patriots'_Victory_Day", 'http://dbpedia.org/resource/Ettu_Nombu', 'http://dbpedia.org/resource/Europe_Day', 'http://dbpedia.org/resource/European_Day_of_the_Righteous', 'http://dbpedia.org/resource/Evacuation_Day_(Massachusetts)', 'http://dbpedia.org/resource/Evacuation_Day_(New_York)', 'http://dbpedia.org/resource/Evacuation_Day_(Syria)', 'http://dbpedia.org/resource/Evelio_Javier_Day', 'http://dbpedia.org/resource/Evolution_Day', 'http://dbpedia.org/resource/Execution_of_the_Báb', 'http://dbpedia.org/resource/Fajr_nafl_prayer', 'http://dbpedia.org/resource/Fajr_prayer', 'http://dbpedia.org/resource/Falklands_Day', 'http://dbpedia.org/resource/Family_Day_(Canada)', "http://dbpedia.org/resource/Farmers'_Day", 'http://dbpedia.org/resource/Fast_of_Esther', 'http://dbpedia.org/resource/Fast_of_Gedalia', 'http://dbpedia.org/resource/Fast_of_Nineveh', 'http://dbpedia.org/resource/Fast_of_the_Firstborn', 'http://dbpedia.org/resource/Father–Daughter_Day', "http://dbpedia.org/resource/Father's_Day_(United_States)", "http://dbpedia.org/resource/Father's_Day", 'http://dbpedia.org/resource/Fatimiyya', 'http://dbpedia.org/resource/Feast_of_Ezid', 'http://dbpedia.org/resource/Feast_of_Saint_George_(Palestine)', 'http://dbpedia.org/resource/Feast_of_Saints_Francis_and_Catherine', 'http://dbpedia.org/resource/Feast_of_Saints_Peter_and_Paul', 'http://dbpedia.org/resource/Feast_of_the_Annunciation', 'http://dbpedia.org/resource/Feast_of_the_Ass', 'http://dbpedia.org/resource/Feast_of_the_Assembly', 'http://dbpedia.org/resource/Feast_of_the_Black_Nazarene', 'http://dbpedia.org/resource/Feast_of_the_Great_Shishlam', 'http://dbpedia.org/resource/Feast_of_the_Immaculate_Conception', 'http://dbpedia.org/resource/Federal_Day_of_Thanksgiving,_Repentance_and_Prayer', 'http://dbpedia.org/resource/Federal_holidays_in_the_United_States', 'http://dbpedia.org/resource/Federal_Territory_Day', 'http://dbpedia.org/resource/Feralia', 'http://dbpedia.org/resource/Feria_de_Artesanías_de_Ponce', 'http://dbpedia.org/resource/Feriae_Latinae', 'http://dbpedia.org/resource/Ferragosto', 'http://dbpedia.org/resource/Festa_de_São_João_do_Porto', 'http://dbpedia.org/resource/Festa_della_Repubblica', 'http://dbpedia.org/resource/Festival_de_Bomba_y_Plena_de_San_Antón', 'http://dbpedia.org/resource/Festival_Folclórico_y_Reinado_Nacional_del_Bambuco', 'http://dbpedia.org/resource/Festival_Nacional_Afrocaribeño', 'http://dbpedia.org/resource/Festival_Nacional_de_la_Quenepa', 'http://dbpedia.org/resource/Festival_of_Lights_(Lyon)', 'http://dbpedia.org/resource/Festival_of_Perun', 'http://dbpedia.org/resource/Festival_of_Veles', 'http://dbpedia.org/resource/Festivus', 'http://dbpedia.org/resource/Festum_Ovorum', 'http://dbpedia.org/resource/Fiesta_Nacional_de_la_Danza', 'http://dbpedia.org/resource/Fiestas_de_Santa_Fe', 'http://dbpedia.org/resource/Fiestas_del_Pilar', 'http://dbpedia.org/resource/Fiestas_Patrias_(Chile)', 'http://dbpedia.org/resource/Fiestas_Patrias_(Peru)', 'http://dbpedia.org/resource/Fiestas_patronales_de_Ponce', 'http://dbpedia.org/resource/Fiji_Week', 'http://dbpedia.org/resource/Filipino_American_History_Month', 'http://dbpedia.org/resource/Filipino_Heritage_Month', 'http://dbpedia.org/resource/Filseta', 'http://dbpedia.org/resource/Finnish_Swedish_Heritage_Day', 'http://dbpedia.org/resource/First_day_of_summer_(Iceland)', 'http://dbpedia.org/resource/First_National_Government', 'http://dbpedia.org/resource/Flag_Day_(Albania)', 'http://dbpedia.org/resource/Flag_Day_(Argentina)', 'http://dbpedia.org/resource/Flag_Day_(Australia)', 'http://dbpedia.org/resource/Flag_Day_(United_Arab_Emirates)', 'http://dbpedia.org/resource/Flag_Day_(United_States)', 'http://dbpedia.org/resource/Flag_Day_in_Mexico', 'http://dbpedia.org/resource/Floralia', 'http://dbpedia.org/resource/Fordicidia', 'http://dbpedia.org/resource/Fossil_Fools_Day', 'http://dbpedia.org/resource/Fössta_tossdan_i_mass', "http://dbpedia.org/resource/Founders'_Day_(Ghana)", 'http://dbpedia.org/resource/Frankenstein_Day', 'http://dbpedia.org/resource/Fraternal_Day', 'http://dbpedia.org/resource/Freedom_and_Democracy_Day', 'http://dbpedia.org/resource/Freedom_Day_(Belarus)', 'http://dbpedia.org/resource/Freedom_Day_(Malta)', 'http://dbpedia.org/resource/Freedom_Day_(South_Africa)', 'http://dbpedia.org/resource/French_Community_Holiday', 'http://dbpedia.org/resource/Friendship_Day', 'http://dbpedia.org/resource/Fukagawa_Matsuri', 'http://dbpedia.org/resource/Funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Gaan-Ngai', 'http://dbpedia.org/resource/Gaecheonjeol', 'http://dbpedia.org/resource/Gai_Jatra', 'http://dbpedia.org/resource/Gajan_(festival)', 'http://dbpedia.org/resource/Galdan_Namchot', 'http://dbpedia.org/resource/Galician_Literature_Day', 'http://dbpedia.org/resource/Galungan', 'http://dbpedia.org/resource/Gandhi_Jayanti', 'http://dbpedia.org/resource/Ganesh_Chaturthi', 'http://dbpedia.org/resource/Ganesh_Jayanti', 'http://dbpedia.org/resource/Ganga_Dussehra', 'http://dbpedia.org/resource/Ganga_puja', 'http://dbpedia.org/resource/Gangamma_Jatara', 'http://dbpedia.org/resource/Gangaur', 'http://dbpedia.org/resource/Garifuna_Settlement_Day', 'http://dbpedia.org/resource/Gasparilla_Pirate_Festival', 'http://dbpedia.org/resource/Gaudete_Sunday', 'http://dbpedia.org/resource/Gaura_(festival)', 'http://dbpedia.org/resource/Gawai_Dayak', 'http://dbpedia.org/resource/Geek_Pride_Day', 'http://dbpedia.org/resource/General_Pulaski_Memorial_Day', "http://dbpedia.org/resource/George's_Day_in_Autumn", "http://dbpedia.org/resource/George's_Day_in_Spring", 'http://dbpedia.org/resource/Georgia_Day', 'http://dbpedia.org/resource/German_Unity_Day', 'http://dbpedia.org/resource/German-American_Day', 'http://dbpedia.org/resource/Ghanta_Karna', 'http://dbpedia.org/resource/Ghost_Festival', 'http://dbpedia.org/resource/Giant_Lantern_Festival', 'http://dbpedia.org/resource/Gibraltar_National_Day', 'http://dbpedia.org/resource/Gifaata', 'http://dbpedia.org/resource/Gilgit-Baltistan_Independence_Day', 'http://dbpedia.org/resource/Gion_Matsuri', 'http://dbpedia.org/resource/Giving_Tuesday', 'http://dbpedia.org/resource/GivingTuesday', 'http://dbpedia.org/resource/Glasgow_Fair', 'http://dbpedia.org/resource/Global_Accessibility_Awareness_Day', 'http://dbpedia.org/resource/Global_Day_of_Action_on_Military_Spending', 'http://dbpedia.org/resource/Global_Handwashing_Day', 'http://dbpedia.org/resource/Global_Information_Governance_Day', 'http://dbpedia.org/resource/Global_Money_Week', 'http://dbpedia.org/resource/Global_Running_Day', 'http://dbpedia.org/resource/Global_Wind_Day', 'http://dbpedia.org/resource/Goa_Liberation_Day', 'http://dbpedia.org/resource/Golden_Week_(Japan)', 'http://dbpedia.org/resource/Golu', 'http://dbpedia.org/resource/Good_Friday', 'http://dbpedia.org/resource/Good_Governance_Day', 'http://dbpedia.org/resource/Gopastami', 'http://dbpedia.org/resource/Govatsa_Dwadashi', 'http://dbpedia.org/resource/Gowri_Habba', "http://dbpedia.org/resource/Grand_Duke's_Official_Birthday", "http://dbpedia.org/resource/Grandparents'_Day", 'http://dbpedia.org/resource/Great_Union_Day', 'http://dbpedia.org/resource/Green_Monday', 'http://dbpedia.org/resource/Green_week', 'http://dbpedia.org/resource/Greenery_Day', 'http://dbpedia.org/resource/Groundhog_Day', 'http://dbpedia.org/resource/Guam_Discovery_Day', 'http://dbpedia.org/resource/Guanacaste_Day', 'http://dbpedia.org/resource/Gudi_Padwa', 'http://dbpedia.org/resource/Gunla', 'http://dbpedia.org/resource/Guru_Nanak_Gurpurab', 'http://dbpedia.org/resource/Guru_Purnima', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', 'http://dbpedia.org/resource/Gustor_Festival', 'http://dbpedia.org/resource/Hadaka_Matsuri', 'http://dbpedia.org/resource/Haitian_Heritage_Month', 'http://dbpedia.org/resource/Hakata_Dontaku', 'http://dbpedia.org/resource/Hakata_Gion_Yamakasa', 'http://dbpedia.org/resource/Halloween', 'http://dbpedia.org/resource/Handsel_Monday', 'http://dbpedia.org/resource/Hangul_Day', 'http://dbpedia.org/resource/Hanukkah', 'http://dbpedia.org/resource/Hanuman_Jayanti', 'http://dbpedia.org/resource/Harela_Mela', 'http://dbpedia.org/resource/Harriet_Tubman_Day', 'http://dbpedia.org/resource/Harvey_Milk_Day', 'http://dbpedia.org/resource/Haya_Day', 'http://dbpedia.org/resource/Heikru_Hidongba', 'http://dbpedia.org/resource/Helen_Keller_Day', 'http://dbpedia.org/resource/Heritage_Day_(South_Africa)', "http://dbpedia.org/resource/Heroes'_Day_(Namibia)", "http://dbpedia.org/resource/Heroes'_Day", 'http://dbpedia.org/resource/Herzl_Day', 'http://dbpedia.org/resource/Higalaay_Festival', 'http://dbpedia.org/resource/Higantes_Festival', 'http://dbpedia.org/resource/Hilaria', 'http://dbpedia.org/resource/Hillbilly_Days', 'http://dbpedia.org/resource/Hiloula_of_Rabbi_Haim_Pinto', 'http://dbpedia.org/resource/Hinamatsuri', 'http://dbpedia.org/resource/Hindi_Day', 'http://dbpedia.org/resource/History_of_lysergic_acid_diethylamide', 'http://dbpedia.org/resource/Hizb_Rateb', 'http://dbpedia.org/resource/Hıdırellez', 'http://dbpedia.org/resource/Hobiyee', 'http://dbpedia.org/resource/Hogmanay', 'http://dbpedia.org/resource/Hola_Mohalla', 'http://dbpedia.org/resource/Holi', 'http://dbpedia.org/resource/Holidays_with_paid_time_off_in_the_United_States', 'http://dbpedia.org/resource/Holika_Dahan', 'http://dbpedia.org/resource/Holy_Saturday', 'http://dbpedia.org/resource/Holy_Week_in_Ruvo_di_Puglia', 'http://dbpedia.org/resource/Hōnensai', 'http://dbpedia.org/resource/Honey_Feast_of_the_Saviour', 'http://dbpedia.org/resource/Hong_Kong_Foundation_Day', 'http://dbpedia.org/resource/Hong_Kong_Special_Administrative_Region_Establishment_Day', 'http://dbpedia.org/resource/Honor_America_Days', 'http://dbpedia.org/resource/Hop-tu-Naa', 'http://dbpedia.org/resource/Hosay', 'http://dbpedia.org/resource/Human_Rights_Day', 'http://dbpedia.org/resource/HumanLight', "http://dbpedia.org/resource/Hùng_Kings'_Festival", 'http://dbpedia.org/resource/Hyderabad-Karnataka_Liberation_Day', 'http://dbpedia.org/resource/Icelandic_National_Day', 'http://dbpedia.org/resource/Imbolc', 'http://dbpedia.org/resource/Imoinu_Iratpa', 'http://dbpedia.org/resource/In_town,_without_my_car!', 'http://dbpedia.org/resource/Independence_and_Unity_Day_(Slovenia)', 'http://dbpedia.org/resource/Independence_Day_(Abkhazia)', 'http://dbpedia.org/resource/Independence_Day_(Algeria)', 'http://dbpedia.org/resource/Independence_Day_(Armenia)', 'http://dbpedia.org/resource/Independence_Day_(Bahrain)', 'http://dbpedia.org/resource/Independence_Day_(Bangladesh)', 'http://dbpedia.org/resource/Independence_Day_(Belarus)', 'http://dbpedia.org/resource/Independence_Day_(Bosnia_and_Herzegovina)', 'http://dbpedia.org/resource/Independence_Day_(Botswana)', 'http://dbpedia.org/resource/Independence_Day_(Brazil)', 'http://dbpedia.org/resource/Independence_Day_(Croatia)', 'http://dbpedia.org/resource/Independence_Day_(Cyprus)', 'http://dbpedia.org/resource/Independence_Day_(Djibouti)', 'http://dbpedia.org/resource/Independence_Day_(Eritrea)', 'http://dbpedia.org/resource/Independence_Day_(Estonia)', 'http://dbpedia.org/resource/Independence_Day_(Finland)', 'http://dbpedia.org/resource/Independence_Day_(Georgia)', 'http://dbpedia.org/resource/Independence_Day_(Ghana)', 'http://dbpedia.org/resource/Independence_Day_(Grenada)', 'http://dbpedia.org/resource/Independence_Day_(Hawaii)', 'http://dbpedia.org/resource/Independence_Day_(India)', 'http://dbpedia.org/resource/Independence_Day_(Indonesia)', 'http://dbpedia.org/resource/Independence_Day_(Jamaica)', 'http://dbpedia.org/resource/Independence_Day_(Jordan)', 'http://dbpedia.org/resource/Independence_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Independence_Day_(Kyrgyzstan)', 'http://dbpedia.org/resource/Independence_Day_(Malaysia)', 'http://dbpedia.org/resource/Independence_Day_(Malta)', 'http://dbpedia.org/resource/Independence_Day_(Myanmar)', 'http://dbpedia.org/resource/Independence_Day_(Niger)', 'http://dbpedia.org/resource/Independence_Day_(North_Macedonia)', 'http://dbpedia.org/resource/Independence_Day_(Pakistan)', 'http://dbpedia.org/resource/Independence_Day_(Philippines)', 'http://dbpedia.org/resource/Independence_Day_(Somalia)', 'http://dbpedia.org/resource/Independence_Day_(Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(South_Ossetia)', 'http://dbpedia.org/resource/Independence_Day_(Sri_Lanka)', 'http://dbpedia.org/resource/Independence_Day_(State_of_Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(Tajikistan)', 'http://dbpedia.org/resource/Independence_Day_(Turkmenistan)', 'http://dbpedia.org/resource/Independence_Day_(Uganda)', 'http://dbpedia.org/resource/Independence_Day_(United_States)', 'http://dbpedia.org/resource/Independence_Day_(Uzbekistan)', 'http://dbpedia.org/resource/Independence_Day_of_Cambodia', 'http://dbpedia.or</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Democratic_Alignment_(2015)', 'http://dbpedia.org/resource/Movement_of_Democratic_Socialists', 'http://dbpedia.org/resource/Movement_of_Free_Citizens_(Greece)', 'http://dbpedia.org/resource/PASOK_–_Movement_for_Change', 'http://dbpedia.org/resource/PASOK', 'http://dbpedia.org/resource/Radical_Movement_of_Social_Democratic_Alliance']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Brigitte_Mira', 'http://dbpedia.org/resource/David_Epley_(entertainer)', 'http://dbpedia.org/resource/Friederike_Caroline_Neuber', 'http://dbpedia.org/resource/Gordon_Hopkirk', 'http://dbpedia.org/resource/Shimon_Schwarzschild', 'http://dbpedia.org/resource/Walter_Bluhm', 'http://dbpedia.org/resource/Walther_Süssenguth']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Seven_Seas_of_Rhye']</t>
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Cass_Browne']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Fawlty_Towers', "http://dbpedia.org/resource/Monty_Python's_Fliegender_Zirkus", "http://dbpedia.org/resource/Monty_Python's_Flying_Circus", "http://dbpedia.org/resource/Monty_Python's_Personal_Best", 'http://dbpedia.org/resource/Parrot_Sketch_Not_Included_–_20_Years_of_Monty_Python', 'http://dbpedia.org/resource/Python_Night_–_30_Years_of_Monty_Python']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Abdulrazak_Gurnah', 'http://dbpedia.org/resource/Aleksandr_Solzhenitsyn', 'http://dbpedia.org/resource/Alice_Munro', 'http://dbpedia.org/resource/Annie_Ernaux', 'http://dbpedia.org/resource/Czesław_Miłosz', "http://dbpedia.org/resource/Eugene_O'Neill", 'http://dbpedia.org/resource/Gerhart_Hauptmann', 'http://dbpedia.org/resource/Harold_Pinter', 'http://dbpedia.org/resource/Hermann_Hesse', 'http://dbpedia.org/resource/J._M._Coetzee', 'http://dbpedia.org/resource/John_Steinbeck', 'http://dbpedia.org/resource/José_Saramago', 'http://dbpedia.org/resource/Juan_Ramón_Jiménez', 'http://dbpedia.org/resource/Louise_Glück', 'http://dbpedia.org/resource/Octavio_Paz', 'http://dbpedia.org/resource/Olga_Tokarczuk', 'http://dbpedia.org/resource/Patrick_Modiano', 'http://dbpedia.org/resource/Patrick_White', 'http://dbpedia.org/resource/Sorley_MacLean', 'http://dbpedia.org/resource/Svetlana_Alexievich', 'http://dbpedia.org/resource/Thomas_Mann', 'http://dbpedia.org/resource/Toni_Morrison', 'http://dbpedia.org/resource/William_Faulkner', 'http://dbpedia.org/resource/William_Golding__William_Golding__1', 'http://dbpedia.org/resource/Wisława_Szymborska']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/A._J._Bramlett', 'http://dbpedia.org/resource/A._J._Brodeur', 'http://dbpedia.org/resource/A._J._Davis_(basketball)', 'http://dbpedia.org/resource/A._J._Edu', 'http://dbpedia.org/resource/A._J._Granger', 'http://dbpedia.org/resource/A._J._Hammons', 'http://dbpedia.org/resource/A._W._Davis', 'http://dbpedia.org/resource/A._W._Holt', 'http://dbpedia.org/resource/A.C._Green', "http://dbpedia.org/resource/A'Darius_Pegues", 'http://dbpedia.org/resource/Aamir_Simms', 'http://dbpedia.org/resource/Aaric_Murray', 'http://dbpedia.org/resource/Aaron_Anderson_(basketball)', 'http://dbpedia.org/resource/Aaron_Epps', 'http://dbpedia.org/resource/Aaron_Falzon', 'http://dbpedia.org/resource/Aaron_Gordon', 'http://dbpedia.org/resource/Aaron_Gray', 'http://dbpedia.org/resource/Aaron_Harper_(basketball)', 'http://dbpedia.org/resource/Aaron_James_(basketball)', 'http://dbpedia.org/resource/Aaron_McGhee', 'http://dbpedia.org/resource/Aaron_White_(basketball)', 'http://dbpedia.org/resource/Aaron_Williams_(basketball)', 'http://dbpedia.org/resource/Abdel_Kader_Sylla', 'http://dbpedia.org/resource/Abdelrahman_Abdelhaleem', 'http://dbpedia.org/resource/Abdou_Badji', 'http://dbpedia.org/resource/Abdoul_Karim_Coulibaly', 'http://dbpedia.org/resource/Abdul_Jeelani', 'http://dbpedia.org/resource/Abdul_Shamsid-Deen', 'http://dbpedia.org/resource/Abdul_Yahaya', 'http://dbpedia.org/resource/Abdul-Malik_Abu', 'http://dbpedia.org/resource/Abdullah_Matalkeh', 'http://dbpedia.org/resource/Abdullahi_Kuso', 'http://dbpedia.org/resource/Abibou_Toure', 'http://dbpedia.org/resource/Abu_Kigab', 'http://dbpedia.org/resource/Ace_Custis', 'http://dbpedia.org/resource/Ace_Gruenig', 'http://dbpedia.org/resource/Acie_Earl', 'http://dbpedia.org/resource/AD_Smith', 'http://dbpedia.org/resource/Adam_Chubb', 'http://dbpedia.org/resource/Adam_Hrycaniuk', 'http://dbpedia.org/resource/Adam_Keefe_(basketball)', 'http://dbpedia.org/resource/Adam_Kemp', 'http://dbpedia.org/resource/Adam_Koch', 'http://dbpedia.org/resource/Adam_Łapeta', 'http://dbpedia.org/resource/Adam_Morrison', 'http://dbpedia.org/resource/Adam_Parada', 'http://dbpedia.org/resource/Adam_Pecháček', 'http://dbpedia.org/resource/Adam_Woodbury', 'http://dbpedia.org/resource/Adama_Diakhite', 'http://dbpedia.org/resource/Adama_Sanogo', 'http://dbpedia.org/resource/Adarrial_Smylie', 'http://dbpedia.org/resource/Adem_Bona', 'http://dbpedia.org/resource/Adem_Ören', 'http://dbpedia.org/resource/Adnan_Hodžić', 'http://dbpedia.org/resource/Adonal_Foyle', 'http://dbpedia.org/resource/Adreian_Payne', 'http://dbpedia.org/resource/Adrian_Branch', 'http://dbpedia.org/resource/Adrian_Caldwell', 'http://dbpedia.org/resource/Adrian_Moss_(basketball,_born_1981)', 'http://dbpedia.org/resource/Adrián_Zamora', 'http://dbpedia.org/resource/Aerick_Sanders', 'http://dbpedia.org/resource/Agustín_Caffaro', 'http://dbpedia.org/resource/Aher_Uguak', 'http://dbpedia.org/resource/Ahmad_Ibrahim_(basketball)', 'http://dbpedia.org/resource/Ahmad_Nivins', 'http://dbpedia.org/resource/Ahsan_Asadullah', 'http://dbpedia.org/resource/Aidan_Igiehon', 'http://dbpedia.org/resource/Ajak_Magot', 'http://dbpedia.org/resource/Ajdin_Penava', 'http://dbpedia.org/resource/Ajou_Deng', 'http://dbpedia.org/resource/Akin_Akingbala', 'http://dbpedia.org/resource/Al_Beard', 'http://dbpedia.org/resource/Al_Bunge', 'http://dbpedia.org/resource/Al_Carlson_(basketball)', 'http://dbpedia.org/resource/Al_Cueto', 'http://dbpedia.org/resource/Al_Fleming_(basketball)', 'http://dbpedia.org/resource/Al_Harrington', 'http://dbpedia.org/resource/Al_Henry', 'http://dbpedia.org/resource/Al_Horford', 'http://dbpedia.org/resource/Al_Jefferson', 'http://dbpedia.org/resource/Al_Miksis', 'http://dbpedia.org/resource/Al_Salvadori', 'http://dbpedia.org/resource/Al_Sanders_(basketball)', 'http://dbpedia.org/resource/Al_Thornton', 'http://dbpedia.org/resource/Al_Tucker', 'http://dbpedia.org/resource/Al-Farouq_Aminu', 'http://dbpedia.org/resource/Alaa_Abdelnaby', 'http://dbpedia.org/resource/Alade_Aminu', 'http://dbpedia.org/resource/Alain_Koffi', 'http://dbpedia.org/resource/Alan_Hardy_(basketball)', 'http://dbpedia.org/resource/Alan_Henderson', 'http://dbpedia.org/resource/Alan_Ogg', 'http://dbpedia.org/resource/Alan_Wiggins_Jr.', 'http://dbpedia.org/resource/Alan_Williams_(basketball)', 'http://dbpedia.org/resource/Albert_Almanza', 'http://dbpedia.org/resource/Albert_Burditt', 'http://dbpedia.org/resource/Albert_Culton', 'http://dbpedia.org/resource/Alberto_Corbacho', 'http://dbpedia.org/resource/Alberto_Herreros', 'http://dbpedia.org/resource/Alec_Brown', 'http://dbpedia.org/resource/Alec_Kessler', 'http://dbpedia.org/resource/Alec_Peters', 'http://dbpedia.org/resource/Aleem_Ford', 'http://dbpedia.org/resource/Alekos_Petroulas', 'http://dbpedia.org/resource/Aleks_Marić', 'http://dbpedia.org/resource/Aleksandar_Lazić', 'http://dbpedia.org/resource/Aleksandar_Pavlović', 'http://dbpedia.org/resource/Aleksandar_Radojević', 'http://dbpedia.org/resource/Aleksandar_Šterjov', 'http://dbpedia.org/resource/Aleksandar_Todorović', 'http://dbpedia.org/resource/Aleksandar_Vezenkov', 'http://dbpedia.org/resource/Aleksandar_Zečević_(basketball,_born_1996)', 'http://dbpedia.org/resource/Aleksandr_Boloshev', 'http://dbpedia.org/resource/Aleksej_Pokuševski', 'http://dbpedia.org/resource/Alen_Smailagić', 'http://dbpedia.org/resource/Alessandro_Tonolli', 'http://dbpedia.org/resource/Alex_Chubrevich', 'http://dbpedia.org/resource/Alex_Crisano', 'http://dbpedia.org/resource/Alex_Davis_(basketball)', 'http://dbpedia.org/resource/Alex_English', 'http://dbpedia.org/resource/Alex_Galindo', 'http://dbpedia.org/resource/Alex_Gilbert_(basketball)', 'http://dbpedia.org/resource/Alex_Groza', 'http://dbpedia.org/resource/Alex_Hannum', 'http://dbpedia.org/resource/Alex_Holcombe', 'http://dbpedia.org/resource/Alex_Jensen', 'http://dbpedia.org/resource/Alex_Jones_(basketball)', 'http://dbpedia.org/resource/Alex_King_(basketball)', 'http://dbpedia.org/resource/Alex_Kirk', 'http://dbpedia.org/resource/Alex_Len', 'http://dbpedia.org/resource/Alex_Liatsos', 'http://dbpedia.org/resource/Álex_Mumbrú', 'http://dbpedia.org/resource/Alex_Murphy_(basketball)', 'http://dbpedia.org/resource/Alex_Oriakhi', 'http://dbpedia.org/resource/Alex_Poythress', 'http://dbpedia.org/resource/Alex_Rosenberg_(basketball)', 'http://dbpedia.org/resource/Alex_Stepheson', 'http://dbpedia.org/resource/Alex_Stivrins', 'http://dbpedia.org/resource/Álex_Suárez_(basketball)', 'http://dbpedia.org/resource/Alex_Tyus', 'http://dbpedia.org/resource/Alexander_Belov', 'http://dbpedia.org/resource/Alexander_Ermolinskij', 'http://dbpedia.org/resource/Alexander_Johnson_(basketball)__Alexander_Johnson__1', 'http://dbpedia.org/resource/Alexander_Kühl', 'http://dbpedia.org/resource/Alexander_Lokhmanchuk', 'http://dbpedia.org/resource/Alexander_Nelcha', 'http://dbpedia.org/resource/Alexander_Petrenko', 'http://dbpedia.org/resource/Alexander_Sizonenko', 'http://dbpedia.org/resource/Alexander_Volkov_(basketball)', 'http://dbpedia.org/resource/Alexander_Zakharov_(basketball)', 'http://dbpedia.org/resource/Alexandros_Sigkounas', 'http://dbpedia.org/resource/Alexandros_Varitimiadis', 'http://dbpedia.org/resource/Alexandru_Olah', 'http://dbpedia.org/resource/Alexis_Ajinça', 'http://dbpedia.org/resource/Alexis_Wangmene', 'http://dbpedia.org/resource/Alexis_Yetna', 'http://dbpedia.org/resource/Alfa_Ntiallo', 'http://dbpedia.org/resource/Alfons_Alzamora', 'http://dbpedia.org/resource/Alfonso_Reyes_(basketball)', 'http://dbpedia.org/resource/Alfonzo_McKinnie', 'http://dbpedia.org/resource/Alfred_Aboya', 'http://dbpedia.org/resource/Ali_Demić', 'http://dbpedia.org/resource/Ali_Doraghi', 'http://dbpedia.org/resource/Ali_Fakhreddine', 'http://dbpedia.org/resource/Ali_Haidar_(basketball)', 'http://dbpedia.org/resource/Ali_Jamal_Zaghab', 'http://dbpedia.org/resource/Ali_Traoré', 'http://dbpedia.org/resource/Alihan_Demir', 'http://dbpedia.org/resource/Alison_Bales', 'http://dbpedia.org/resource/Alize_Johnson', 'http://dbpedia.org/resource/Allan_Bristow', 'http://dbpedia.org/resource/Alonzo_Mourning', 'http://dbpedia.org/resource/Alperen_Şengün', 'http://dbpedia.org/resource/Alpha_Diallo_(basketball,_born_1997)', 'http://dbpedia.org/resource/Alpha_Kaba', 'http://dbpedia.org/resource/Alton_Ford', 'http://dbpedia.org/resource/Alton_Lister', 'http://dbpedia.org/resource/Alvan_Adams', 'http://dbpedia.org/resource/Álvaro_Teherán', 'http://dbpedia.org/resource/Alvin_Heggs', 'http://dbpedia.org/resource/Alvin_Jones_(basketball)', 'http://dbpedia.org/resource/Alvin_Scott', 'http://dbpedia.org/resource/Alzhan_Zharmukhamedov', 'http://dbpedia.org/resource/Amadou_Aboubakar_Zaki', 'http://dbpedia.org/resource/Amal_McCaskill', 'http://dbpedia.org/resource/Amanze_Egekeze', "http://dbpedia.org/resource/Amar'e_Stoudemire", 'http://dbpedia.org/resource/Amara_Sy', "http://dbpedia.org/resource/Amath_M'Baye", 'http://dbpedia.org/resource/Amen_Thompson', 'http://dbpedia.org/resource/Amida_Brimah', 'http://dbpedia.org/resource/Amile_Jefferson', 'http://dbpedia.org/resource/Amir_Coffey', 'http://dbpedia.org/resource/Amir_Johnson', 'http://dbpedia.org/resource/Amir_Sedighi', 'http://dbpedia.org/resource/Amjyot_Singh', 'http://dbpedia.org/resource/Amos_Thomas_(basketball)', 'http://dbpedia.org/resource/Anas_Mahmoud', 'http://dbpedia.org/resource/Anatoli_Polivoda', 'http://dbpedia.org/resource/Anatoly_Myshkin', 'http://dbpedia.org/resource/Anatoly_Zourpenko', 'http://dbpedia.org/resource/Anderson_Varejão', 'http://dbpedia.org/resource/Andrae_Patterson__Andrae_Patterson__1', 'http://dbpedia.org/resource/Andray_Blatche', 'http://dbpedia.org/resource/Andre_Brown_(basketball)', 'http://dbpedia.org/resource/Andre_Drummond', 'http://dbpedia.org/resource/André_Ernesto_Stoffel', 'http://dbpedia.org/resource/Andre_Hutson', 'http://dbpedia.org/resource/Andre_Moore', 'http://dbpedia.org/resource/Andre_Patterson', 'http://dbpedia.org/resource/Andre_Riddick', 'http://dbpedia.org/resource/André_Roberson', 'http://dbpedia.org/resource/Andre_Smith_(basketball,_born_1985)', 'http://dbpedia.org/resource/Andre_Smith_(Nebraska_basketball)', 'http://dbpedia.org/resource/Andrea_Bargnani', 'http://dbpedia.org/resource/Andrea_Conti_(basketball)', 'http://dbpedia.org/resource/Andrea_Crosariol', 'http://dbpedia.org/resource/Andrea_Meneghin', 'http://dbpedia.org/resource/Andreas_Glyniadakis', 'http://dbpedia.org/resource/Andreas_Kanonidis', 'http://dbpedia.org/resource/Andreas_Pelekoudas', 'http://dbpedia.org/resource/Andreas_Schreiber', 'http://dbpedia.org/resource/Andreas_Tsoumanis', 'http://dbpedia.org/resource/Andrei_Fetisov', 'http://dbpedia.org/resource/Andrei_Kirilenko', 'http://dbpedia.org/resource/Andrej_Stojaković', 'http://dbpedia.org/resource/Andrés_Guibert', 'http://dbpedia.org/resource/Andrés_Jiménez_(basketball)', 'http://dbpedia.org/resource/Andrés_Nocioni', 'http://dbpedia.org/resource/Andrew_Betts', 'http://dbpedia.org/resource/Andrew_Bogut', 'http://dbpedia.org/resource/Andrew_Bynum', 'http://dbpedia.org/resource/Andrew_DeClercq', 'http://dbpedia.org/resource/Andrew_Fields', 'http://dbpedia.org/resource/Andrew_Fitzgerald_(basketball)', 'http://dbpedia.org/resource/Andrew_Kennedy_(basketball)', 'http://dbpedia.org/resource/Andrew_Lang_(basketball)', 'http://dbpedia.org/resource/Andrew_Nicholson_(basketball)', 'http://dbpedia.org/resource/Andrew_Smith_(basketball,_born_1990)', 'http://dbpedia.org/resource/Andrew_Sullivan_(basketball)', 'http://dbpedia.org/resource/Andrew_Vlahov', 'http://dbpedia.org/resource/Andrew_White_(basketball)', 'http://dbpedia.org/resource/Andrew_Wiggins', 'http://dbpedia.org/resource/Andrey_Desyatnikov', 'http://dbpedia.org/resource/Andrey_Lopatov', 'http://dbpedia.org/resource/Andrianos_Perdikaris', 'http://dbpedia.org/resource/Andris_Biedriņš', 'http://dbpedia.org/resource/Andrius_Jurkūnas', 'http://dbpedia.org/resource/Andrius_Šležas', 'http://dbpedia.org/resource/Andriy_Malysh', 'http://dbpedia.org/resource/Andro_Knego', 'http://dbpedia.org/resource/Andronikos_Gizogiannis', 'http://dbpedia.org/resource/Andy_Ogide', 'http://dbpedia.org/resource/Andy_Panko', 'http://dbpedia.org/resource/Andy_Seigle', 'http://dbpedia.org/resource/Andy_Van_Vliet', 'http://dbpedia.org/resource/Ange_Kouame', 'http://dbpedia.org/resource/Ángel_Delgado', 'http://dbpedia.org/resource/Ángel_García_(basketball,_born_1988)__Ángel_García__1', 'http://dbpedia.org/resource/Angelo_Caloiaro', 'http://dbpedia.org/resource/Angelo_Chol', 'http://dbpedia.org/resource/Angelo_Gigli', 'http://dbpedia.org/resource/Angelo_Reyes_(basketball)', 'http://dbpedia.org/resource/Angelos_Siamandouras', 'http://dbpedia.org/resource/Anna_Prins', 'http://dbpedia.org/resource/Anne_Donovan', 'http://dbpedia.org/resource/Ansley_Truitt', 'http://dbpedia.org/resource/Ansu_Sesay', 'http://dbpedia.org/resource/Antanas_Kavaliauskas', 'http://dbpedia.org/resource/Antawn_Jamison', 'http://dbpedia.org/resource/Ante_Đugum', 'http://dbpedia.org/resource/Ante_Grgurević', 'http://dbpedia.org/resource/Ante_Krapić', 'http://dbpedia.org/resource/Ante_Mašić', 'http://dbpedia.org/resource/Ante_Žižić', 'http://dbpedia.org/resource/Anthony_Avent', 'http://dbpedia.org/resource/Anthony_Bennett_(basketball)', 'http://dbpedia.org/resource/Anthony_Bonner__Anthony_Bonner__1', 'http://dbpedia.org/resource/Anthony_Brown_(basketball)', 'http://dbpedia.org/resource/Anthony_Cook_(basketball)', 'http://dbpedia.org/resource/Anthony_Davis', 'http://dbpedia.org/resource/Anthony_Duruji', 'http://dbpedia.org/resource/Anthony_Elechi', 'http://dbpedia.org/resource/Anthony_Fernandez', 'http://dbpedia.org/resource/Anthony_Frederick', 'http://dbpedia.org/resource/Anthony_Gill_(basketball)', 'http://dbpedia.org/resource/Anthony_Jones_(basketball,_born_1967)', 'http://dbpedia.org/resource/Anthony_King_(basketball)', 'http://dbpedia.org/resource/Anthony_Lawrence_(basketball)', 'http://dbpedia.org/resource/Anthony_Mason_(basketball)', 'http://dbpedia.org/resource/Anthony_McHenry', 'http://dbpedia.org/resource/Anthony_Miller_(basketball)', 'http://dbpedia.org/resource/Anthony_Myles_(basketball,_born_1982)', 'http://dbpedia.org/resource/Anthony_Pelle', 'http://dbpedia.org/resource/Anthony_Pérez_(basketball)', 'http://dbpedia.org/resource/Anthony_Pullard', 'http://dbpedia.org/resource/Anthony_Randolph', 'http://dbpedia.org/resource/Anthony_Richardson_(basketball)', 'http://dbpedia.org/resource/Anthony_Smith_(basketball)', 'http://dbpedia.org/resource/Anthony_Stover', 'http://dbpedia.org/resource/Anthony_Teachey', 'http://dbpedia.org/resource/Anthony_Tolliver', 'http://dbpedia.org/resource/Anthony_Tucker_(basketball)', 'http://dbpedia.org/resource/Antoine_Carr', 'http://dbpedia.org/resource/Antoine_Joseph', 'http://dbpedia.org/resource/Antoine_Rigaudeau', 'http://dbpedia.org/resource/Antoine_Walker', 'http://dbpedia.org/resource/Antoine_Wright_(basketball)', 'http://dbpedia.org/resource/Anton_Odabasi', 'http://dbpedia.org/resource/Anton_Pushkov', 'http://dbpedia.org/resource/Anton_Shoutvin', 'http://dbpedia.org/resource/Anton_Watson', 'http://dbpedia.org/resource/Antone_Warren', 'http://dbpedia.org/resource/Antonio_Campbell', 'http://dbpedia.org/resource/Antonio_Davis__Antonio_Davis__1', 'http://dbpedia.org/resource/Antonio_Granger', 'http://dbpedia.org/resource/Antonio_Harvey', 'http://dbpedia.org/resource/Antonio_Lang', 'http://dbpedia.org/resource/Antonio_Martín_Espina', 'http://dbpedia.org/resource/Antonio_McDyess', 'http://dbpedia.org/resource/Antonio_Meeking', 'http://dbpedia.org/resource/Antonio_Reynolds-Dean', 'http://dbpedia.org/resource/Antonios_Asimakopoulos', 'http://dbpedia.org/resource/Antonis_Fotsis', 'http://dbpedia.org/resource/Antonis_Michaloglou', 'http://dbpedia.org/resource/Antti_Nikkilä', 'http://dbpedia.org/resource/Antwain_Smith', 'http://dbpedia.org/resource/Antwaine_Wiggins', 'http://dbpedia.org/resource/Antwan_January', 'http://dbpedia.org/resource/Antywane_Robinson', 'http://dbpedia.org/resource/Anwar_Ferguson', 'http://dbpedia.org/resource/Anžejs_Pasečņiks', 'http://dbpedia.org/resource/Aramis_Naglić', 'http://dbpedia.org/resource/Archie_Dees', 'http://dbpedia.org/resource/Archie_Marshall_(basketball)', 'http://dbpedia.org/resource/Argiris_Kambouris', 'http://dbpedia.org/resource/Argiris_Papapetrou', 'http://dbpedia.org/resource/Aric_Holman', 'http://dbpedia.org/resource/Arijan_Komazec', 'http://dbpedia.org/resource/Arinze_Onuaku', 'http://dbpedia.org/resource/Aristides_Josuel_dos_Santos', 'http://dbpedia.org/resource/Arman_Zangeneh', 'http://dbpedia.org/resource/Armando_Bacot', 'http://dbpedia.org/resource/Armen_Gilliam', 'http://dbpedia.org/resource/Arnaud_Cotture', 'http://dbpedia.org/resource/Arnett_Moultrie', 'http://dbpedia.org/resource/Arnette_Hallman', 'http://dbpedia.org/resource/Arnie_Risen', 'http://dbpedia.org/resource/Arnis_Vecvagars', 'http://dbpedia.org/resource/Arnold_Van_Opstal', 'http://dbpedia.org/resource/Aron_Baynes', 'http://dbpedia.org/resource/Arsalan_Kazemi', 'http://dbpedia.org/resource/Art_Becker', 'http://dbpedia.org/resource/Art_Hillhouse', 'http://dbpedia.org/resource/Art_Long', 'http://dbpedia.org/resource/Art_Spoelstra', 'http://dbpedia.org/resource/Artem_Zabelin', 'http://dbpedia.org/resource/Arthur_Johnson_(basketball)', 'http://dbpedia.org/resource/Arthur_Kaluma', 'http://dbpedia.org/resource/Arthur_Kenney_(basketball)', 'http://dbpedia.org/resource/Artis_Gilmore', 'http://dbpedia.org/resource/Artsiom_Parakhouski', 'http://dbpedia.org/resource/Artūras_Javtokas', 'http://dbpedia.org/resource/Artūras_Jomantas', 'http://dbpedia.org/resource/Artūras_Masiulis', 'http://dbpedia.org/resource/Arvid_Kramer', 'http://dbpedia.org/resource/Arvydas_Sabonis', 'http://dbpedia.org/resource/Asbjørn_Midtgaard', 'http://dbpedia.org/resource/Asghar_Kardoust', 'http://dbpedia.org/resource/Ashante_Johnson', 'http://dbpedia.org/resource/Ashley_Hamilton_(basketball)', 'http://dbpedia.org/resource/Ashraf_Amaya', 'http://dbpedia.org/resource/Ashton_Pankey', 'http://dbpedia.org/resource/Asi_Taulava', 'http://dbpedia.org/resource/Asım_Pars', 'http://dbpedia.org/resource/Asko_Paade', 'http://dbpedia.org/resource/Assem_Marei', 'http://dbpedia.org/resource/Astan_Dabo', 'http://dbpedia.org/resource/Atanas_Golomeev', 'http://dbpedia.org/resource/Ater_Majok', 'http://dbpedia.org/resource/Atsuya_Ota', 'http://dbpedia.org/resource/Attarius_Norwood', 'http://dbpedia.org/resource/Audie_Norris', 'http://dbpedia.org/resource/Augustine_Rubit', 'http://dbpedia.org/resource/Augusto_Binelli', 'http://dbpedia.org/resource/Augusto_Lima', 'http://dbpedia.org/resource/Augustus_Gilchrist', 'http://dbpedia.org/resource/Aulcie_Perry', 'http://dbpedia.org/resource/Aurimas_Kieža', 'http://dbpedia.org/resource/Aurimas_Majauskas', 'http://dbpedia.org/resource/Ausar_Thompson', 'http://dbpedia.org/resource/Austin_Croshere', 'http://dbpedia.org/resource/Austin_Dufault', 'http://dbpedia.org/resource/Austin_Nichols_(basketball)', 'http://dbpedia.org/resource/Austin_Steed', 'http://dbpedia.org/resource/Austin_Wiley', 'http://dbpedia.org/resource/Axel_Bouteille', 'http://dbpedia.org/resource/Axel_Hervelle', 'http://dbpedia.org/resource/Axel_Toupane', 'http://dbpedia.org/resource/Ayberk_Olmaz', 'http://dbpedia.org/resource/Ayman_Adais', 'http://dbpedia.org/resource/B._B._Davis', 'http://dbpedia.org/resource/B._H._Born', 'http://dbpedia.org/resource/B._J._Johnson_(basketball)', 'http://dbpedia.org/resource/Babacar_Camara', 'http://dbpedia.org/resource/Babacar_Sané', 'http://dbpedia.org/resource/Babacar_Touré', 'http://dbpedia.org/resource/Bailey_Howell', 'http://dbpedia.org/resource/Bakari_Hendrix', 'http://dbpedia.org/resource/Balša_Koprivica', 'http://dbpedia.org/resource/Balša_Radunović', 'http://dbpedia.org/resource/Bam_Adebayo', 'http://dbpedia.org/resource/Bamba_Fall', 'http://dbpedia.org/resource/Bambale_Osby', 'http://dbpedia.org/resource/Bara_Diop', 'http://dbpedia.org/resource/Bariša_Krasić', 'http://dbpedia.org/resource/Barış_Hersek', 'http://dbpedia.org/resource/Barney_Cable', 'http://dbpedia.org/resource/Barry_Mungar', 'http://dbpedia.org/resource/Barry_Nelson_(basketball)', 'http://dbpedia.org/resource/Barry_Sumpter', 'http://dbpedia.org/resource/Barry_Yates', 'http://dbpedia.org/resource/Bas_Veenstra', 'http://dbpedia.org/resource/Bassel_Bawji', 'http://dbpedia.org/resource/Bayard_Forrest', 'http://dbpedia.org/resource/Baye_Fall_(basketball)', 'http://dbpedia.org/resource/Beau_Beech', 'http://dbpedia.org/resource/Bechir_Hadidane', 'http://dbpedia.org/resource/BeeJay_Anya', 'http://dbpedia.org/resource/Beka_Burjanadze', 'http://dbpedia.org/resource/Bekir_Yarangüme', 'http://dbpedia.org/resource/Ben_Altit', 'http://dbpedia.org/resource/Ben_Carter_(basketball)', 'http://dbpedia.org/resource/Ben_Clyde', 'http://dbpedia.org/resource/Ben_Coleman_(basketball)', 'http://dbpedia.org/resource/Ben_Davis_(basketball)', 'http://dbpedia.org/resource/Ben_Eisenhardt', 'http://dbpedia.org/resource/Ben_Gillery', 'http://dbpedia.org/resource/Ben_Handlogten', 'http://dbpedia.org/resource/Ben_Lammers', 'http://dbpedia.org/resource/Ben_Lawson_(basketball)', 'http://dbpedia.org/resource/Ben_McCauley', 'http://dbpedia.org/resource/Ben_McDonald_(basketball)', 'http://dbpedia.org/resource/Ben_Moore_(basketball)', 'http://dbpedia.org/resource/Ben_Poquette', 'http://dbpedia.org/resource/Ben_Simmons', 'http://dbpedia.org/resource/Ben_Strong_(basketball)', 'http://dbpedia.org/resource/Ben_Sullivan_(basketball)', 'http://dbpedia.org/resource/Ben_Vander_Plas', 'http://dbpedia.org/resource/Ben_Wallace_(basketball)', 'http://dbpedia.org/resource/Ben_Wilson_(basketball)', 'http://dbpedia.org/resource/Benjamin_Eze', 'http://dbpedia.org/resource/Benjamin_Ortner', 'http://dbpedia.org/resource/Bennett_Davison', 'http://dbpedia.org/resource/Bennett_Koch', 'http://dbpedia.org/resource/Bennie_Boatwright', 'http://dbpedia.org/resource/Bennie_Swain', 'http://dbpedia.org/resource/Benny_Williams_(basketball)', 'http://dbpedia.org/resource/Benoit_Benjamin', 'http://dbpedia.org/resource/Berend_Weijs', 'http://dbpedia.org/resource/Berk_Demir', 'http://dbpedia.org/resource/Berkan_Durmaz', 'http://dbpedia.org/resource/Berkay_Candan', 'http://dbpedia.org/resource/Bernadett_Határ', 'http://dbpedia.org/resource/Bernard_James', 'http://dbpedia.org/resource/Bernard_King', 'http://dbpedia.org/resource/Bernard_Toone', 'http://dbpedia.org/resource/Berni_Tamames', 'http://dbpedia.org/resource/Bernie_Harris_(basketball)', 'http://dbpedia.org/resource/Betinho_(basketball)', 'http://dbpedia.org/resource/Bevo_Francis', 'http://dbpedia.org/resource/Bevo_Nordmann', 'http://dbpedia.org/resource/Big_Moose_Meyer', 'http://dbpedia.org/resource/Bill_Allen_(basketball)', 'http://dbpedia.org/resource/Bill_Amis', 'http://dbpedia.org/resource/Bill_Buntin', 'http://dbpedia.org/resource/Bill_Bunting', 'http://dbpedia.org/resource/Bill_Campion', 'http://dbpedia.org/resource/Bill_Cartwright', 'http://dbpedia.org/resource/Bill_Chmielewski', 'http://dbpedia.org/resource/Bill_Coven', 'http://dbpedia.org/resource/Bill_Curley', 'http://dbpedia.org/resource/Bill_Dinwiddie', 'http://dbpedia.org/resource/Bill_Garner_(basketball)', 'http://dbpedia.org/resource/Bill_Garnett', 'http://dbpedia.org/resource/Bill_Gossett', 'http://dbpedia.org/resource/Bill_Hanzlik', 'http://dbpedia.org/resource/Bill_Henry_(basketball)', 'http://dbpedia.org/resource/Bill_Hewitt_(basketball)', 'http://dbpedia.org/resource/Bill_Hosket_Jr.', 'http://dbpedia.org/resource/Bill_Jones_(basketball,_born_1966)', 'http://dbpedia.org/resource/Bill_Laimbeer', 'http://dbpedia.org/resource/Bill_Logan_(basketball)', 'http://dbpedia.org/resource/Bill_Martin_(basketball)', 'http://dbpedia.org/resource/Bill_Mayfield', 'http://dbpedia.org/resource/Bill_McGill', 'http://dbpedia.org/resource/Bill_Melis', 'http://dbpedia.org/resource/Bill_Newton_(basketball)', 'http://dbpedia.org/resource/Bill_Roberts_(basketball)', 'http://dbpedia.org/resource/Bill_Robinzine', 'http://dbpedia.org/resource/Bill_Russell', 'http://dbpedia.org/resource/Bill_Sattler', 'http://dbpedia.org/resource/Bill_Schrader', 'http://dbpedia.org/resource/Bill_Spivey', 'http://dbpedia.org/resource/Bill_Stricker', 'http://dbpedia.org/resource/Bill_Thieben', 'http://dbpedia.org/resource/Bill_Turner_(basketball)', 'http://dbpedia.org/resource/Bill_Uhl', 'http://dbpedia.org/resource/Bill_Varner', 'http://dbpedia.org/resource/Bill_Walton', 'http://dbpedia.org/resource/Bill_Wennington', 'http://dbpedia.org/resource/Bill_Willoughby', 'http://dbpedia.org/resource/Billy_McShepard', 'http://dbpedia.org/resource/Billy_Owens', 'http://dbpedia.org/resource/Billy_Paultz', 'http://dbpedia.org/resource/Billy_Preston_(basketball)', 'http://dbpedia.org/resource/Billy_Singleton', 'http://dbpedia.org/resource/Billy_Thompson_(basketball)', 'http://dbpedia.org/resource/Billy_White_(basketball)', 'http://dbpedia.org/resource/Bismack_Biyombo', 'http://dbpedia.org/resource/Bison_Dele', 'http://dbpedia.org/resource/Blagota_Sekulić', 'http://dbpedia.org/resource/Blair_Rasmussen', 'http://dbpedia.org/resource/Blake_Aoki_Borysewicz', 'http://dbpedia.org/resource/Blake_Griffin', 'http://dbpedia.org/resource/Blerim_Mazreku', 'http://dbpedia.org/resource/Bo_Ellis__Bo_Ellis__1', 'http://dbpedia.org/resource/Bo_Outlaw', 'http://dbpedia.org/resource/Bob_Allen_(basketball)', 'http://dbpedia.org/resource/Bob_Armstrong_(basketball,_born_1933)', 'http://dbpedia.org/resource/Bob_Bedell', 'http://dbpedia.org/resource/Bob_Bigelow', 'http://dbpedia.org/resource/Bob_Boozer', 'http://dbpedia.org/resource/Bob_Brown_(basketball,_born_1921)', 'http://dbpedia.org/resource/Bob_Burrow', 'http://dbpedia.org/resource/Bob_Christian_(basketball)', 'http://dbpedia.org/resource/Bob_Cluggish', 'http://dbpedia.org/resource/Bob_Davis_(basketball_player)__Bob_Davis__1', 'http://dbpedia.org/resource/Bob_Dykstra', 'http://dbpedia.org/resource/Bob_Elliott_(basketball)', 'http://dbpedia.org/resource/Bob_Ferry', 'http://dbpedia.org/resource/Bob_Ford_(basketball)', 'http://dbpedia.org/resource/Bob_Greacen', 'http://dbpedia.org/resource/Bob_Hahn', 'http://dbpedia.org/resource/Bob_Harris_(basketball)', 'http://dbpedia.org/resource/Bob_Hogsett', 'http://dbpedia.org/resource/Bob_Hopkins__Bob_Hopkins__1', 'http://dbpedia.org/resource/Bob_Houbregs', 'http://dbpedia.org/resource/Bob_Kauffman', 'http://dbpedia.org/resource/Bob_Kurland', 'http://dbpedia.org/resource/Bob_Lanier', 'http://dbpedia.org/resource/Bob_Lavoy', 'http://dbpedia.org/resource/Bob_Lienhard', 'http://dbpedia.org/resource/Bob_Love', 'http://dbpedia.org/resource/Bob_Martin_(basketball)', 'http://dbpedia.org/resource/Bob_Mattick', 'http://dbpedia.org/resource/Bob_McAdoo', 'http://dbpedia.org/resource/Bob_McCurdy', 'http://dbpedia.org/resource/Bob_McKeen', 'http://dbpedia.org/resource/Bob_Miller_(basketball)', 'http://dbpedia.org/resource/Bob_Morse', 'http://dbpedia.org/resource/Bob_Myers', 'http://dbpedia.org/resource/Bob_Nash_(basketball)', 'http://dbpedia.org/resource/Bob_Netolicky', 'http://dbpedia.org/resource/Bob_Pelkington', 'http://dbpedia.org/resource/Bob_Pettit', 'http://dbpedia.org/resource/Bob_Riley_(basketball)', 'http://dbpedia.org/resource/Bob_Rule', 'http://dbpedia.org/resource/Bob_Spessard', 'http://dbpedia.org/resource/Bob_Thornton', 'http://dbpedia.org/resource/Bob_Woollard', 'http://dbpedia.org/resource/Boban_Janković', 'http://dbpedia.org/resource/Boban_Marjanović', 'http://dbpedia.org/resource/Bobby_Cattage', 'http://dbpedia.org/resource/Bobby_Croft', 'http://dbpedia.org/resource/Bobby_Jones_(basketball,_born_1951)', 'http://dbpedia.org/resource/Bobby_Jones_(basketball,_born_1984)', 'http://dbpedia.org/resource/Bobby_Lee_Hurt', 'http://dbpedia.org/resource/Bobby_Portis', 'http://dbpedia.org/resource/Bobby_Simmons', 'http://dbpedia.org/resource/Bobby_Speight', 'http://dbpedia.org/resource/Bobby_Watson_(basketball_coach)', 'http://dbpedia.org/resource/Bobby_Wilson_(basketball,_born_1944)', 'http://dbpedia.org/resource/Bojan_Subotić', 'http://dbpedia.org/resource/Bol_Bol', 'http://dbpedia.org/resource/Bonel_Balingit', "http://dbpedia.org/resource/Boniface_N'Dong", 'http://dbpedia.org/resource/Boo_Jackson__Boo_Jackson__1', 'http://dbpedia.org/resource/Bora_Paçun', 'http://dbpedia.org/resource/Boris_Diaw', 'http://dbpedia.org/resource/Boštjan_Nachbar', 'http://dbpedia.org/resource/Boubacar_Aw', 'http://dbpedia.org/resource/Boubacar_Coly', 'http://dbpedia.org/resource/Boubacar_Toure', 'http://dbpedia.org/resource/Brad_Branson', 'http://dbpedia.org/resource/Brad_Daugherty_(basketball)', 'http://dbpedia.org/resource/Brad_Lohaus', 'http://dbpedia.org/resource/Brad_Miley', 'http://dbpedia.org/resource/Brad_Miller_(basketball)', 'http://dbpedia.org/resource/Brad_Robinson_(basketball)', 'http://dbpedia.org/resource/Brad_Waldow', 'http://dbpedia.org/resource/Brad_Wright_(basketball)', 'http://dbpedia.org/resource/Bradley_Buckman', 'http://dbpedia.org/resource/Brady_Manek', 'http://dbpedia.org/resource/Brandan_Wright', 'http://dbpedia.org/resource/Brandon_Bass', 'http://dbpedia.org/resource/Brandon_Bowman', 'http://dbpedia.org/resource/Brandon_Clarke', 'http://dbpedia.org/resource/Brandon_Cole', 'http://dbpedia.org/resource/Brandon_Costner', 'http://dbpedia.org/resource/Brandon_Davies', 'http://dbpedia.org/resource/Brandon_Gilbeck', 'http://dbpedia.org/resource/Brandon_Hunter', 'http://dbpedia.org/resource/Brandon_Huntley-Hatfield', 'http://dbpedia.org/resource/Brandon_Ingram', 'http://dbpedia.org/resource/Brandon_McCoy', 'http://dbpedia.org/resource/Brandon_Miller_(basketball,_born_2002)', 'http://dbpedia.org/resource/Brandon_Penn', 'http://dbpedia.org/resource/Brandon_Sebirumbi', 'http://dbpedia.org/resource/Brandon_Slater', 'http://dbpedia.org/resource/Brandon_Ubel', 'http://dbpedia.org/resource/Brandon_Wallace', 'http://dbpedia.org/resource/Brant_Weidner', 'http://dbpedia.org/resource/Braxton_Key', 'http://dbpedia.org/resource/Brayon_Blake', 'http://dbpedia.org/resource/Brekkott_Chapman', 'http://dbpedia.org/resource/Brendan_Haywood', 'http://dbpedia.org/resource/Brendan_Lane_(basketball)', 'http://dbpedia.org/resource/Brennan_McElroy', 'http://dbpedia.org/resource/Brent_Barry', 'http://dbpedia.org/resource/Brent_Petway', 'http://dbpedia.org/resource/Brent_Scott_(basketball)', 'http://dbpedia.org/resource/Brent_Wright', 'http://dbpedia.org/resource/Bret_Brielmaier', 'http://dbpedia.org/resource/Brett_Roberts', 'http://dbpedia.org/resource/Brett_Szabo', 'http://dbpedia.org/resource/Brett_Vroman', 'http://dbpedia.org/resource/Brian_Beshara', 'http://dbpedia.org/resource/Brian_Butch', 'http://dbpedia.org/resource/Brian_Cardinal', 'http://dbpedia.org/resource/Brian_Cook_(basketball)', 'http://dbpedia.org/resource/Brian_Cusworth', 'http://dbpedia.org/resource/Brian_Davis_(basketball)', 'http://dbpedia.org/resource/Brian_Evans_(basketball)', 'http://dbpedia.org/resource/Brian_Fitzpatrick_(basketball)', 'http://dbpedia.org/resource/Brian_Grant', 'http://dbpedia.org/resource/Brian_Jackson_(basketball)', 'http://dbpedia.org/resource/Brian_Kerle', 'http://dbpedia.org/resource/Brian_Martin_(basketball)', 'http://dbpedia.org/resource/Brian_Oliver_(basketball,_born_1990)', 'http://dbpedia.org/resource/Brian_Quinnett', 'http://dbpedia.org/resource/Brian_Qvale', 'http://dbpedia.org/resource/Brian_Randle__Brian_Randle__1', 'http://dbpedia.org/resource/Brian_Rowsom', 'http://dbpedia.org/resource/Brian_Scalabrine', 'http://dbpedia.org/resource/Brian_Skinner', 'http://dbpedia.org/resource/Brian_Zoubek', 'http://dbpedia.org/resource/Brice_Assie__Brice_Assie__1', 'http://dbpedia.org/resource/Brice_Johnson', 'http://dbpedia.org/resource/Brice_Vounang', 'http://dbpedia.org/resource/Bright_Akhuetie', 'http://dbpedia.org/resource/Britton_Johnsen', 'http://dbpedia.org/resource/Brock_Motum', 'http://dbpedia.org/resource/Brook_Lopez', 'http://dbpedia.org/resource/Bruce_Bolden', 'http://dbpedia.org/resource/Bruce_Bowen', 'http://dbpedia.org/resource/Bruce_Flowers', 'http://dbpedia.org/resource/Bruce_Kuczenski', 'http://dbpedia.org/resource/Bruce_Seals', 'http://dbpedia.org/resource/Bruno_Boin', 'http://dbpedia.org/resource/Bruno_Caboclo', 'http://dbpedia.org/resource/Bruno_Coqueran', 'http://dbpedia.org/resource/Bruno_Fernando', 'http://dbpedia.org/resource/Bruno_Šundov', 'http://dbpedia.org/resource/Bruno-Nazaire_Kongaouin', 'http://dbpedia.org/resource/Bryan_Bracey', 'http://dbpedia.org/resource/Bryan_Davis_(basketball)', 'http://dbpedia.org/resource/Bryant_Dunston', 'http://dbpedia.org/resource/Bryant_Reeves', 'http://dbpedia.org/resource/Bryant_Smith', 'http://dbpedia.org/resource/Bryce_Douvier', 'http://dbpedia.org/resource/Bryce_Washington_(basketball)', 'http://dbpedia.org/resource/Bryon_Russell', 'http://dbpedia.org/resource/Bryson_Williams', '</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Aaron_Xuereb', 'http://dbpedia.org/resource/Adrian_Ciantar', 'http://dbpedia.org/resource/Adrian_Mifsud', 'http://dbpedia.org/resource/Adrian_Pulis', 'http://dbpedia.org/resource/Alishia_Sultana', 'http://dbpedia.org/resource/Andrei_Agius', 'http://dbpedia.org/resource/Andrew_Cohen_(footballer)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1977)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1981)', 'http://dbpedia.org/resource/Brenda_Borg', 'http://dbpedia.org/resource/Brian_Said', 'http://dbpedia.org/resource/Brian_Strutt', 'http://dbpedia.org/resource/Callum_Talbot', 'http://dbpedia.org/resource/Carlo_Mamo', 'http://dbpedia.org/resource/Charles_Azzopardi', 'http://dbpedia.org/resource/Charles_Micallef', 'http://dbpedia.org/resource/Charles_Muscat', 'http://dbpedia.org/resource/Charlie_Williams_(footballer,_born_1944)', 'http://dbpedia.org/resource/Claude_Mattocks', 'http://dbpedia.org/resource/Cleavon_Frendo', 'http://dbpedia.org/resource/Cornelius_Hogan', 'http://dbpedia.org/resource/Daniel_Theuma', 'http://dbpedia.org/resource/Darren_Debono', 'http://dbpedia.org/resource/David_Camilleri', 'http://dbpedia.org/resource/David_Cluett', 'http://dbpedia.org/resource/Denis_Cauchi', 'http://dbpedia.org/resource/Dennis_Mizzi', 'http://dbpedia.org/resource/Dexter_Xuereb', 'http://dbpedia.org/resource/Dorianne_Theuma', 'http://dbpedia.org/resource/Edmond_Agius', 'http://dbpedia.org/resource/Edward_Azzopardi', 'http://dbpedia.org/resource/Emanuel_Fabri', 'http://dbpedia.org/resource/Emma_Xuerreb', 'http://dbpedia.org/resource/Gareth_Sciberras', 'http://dbpedia.org/resource/George_Mallia', 'http://dbpedia.org/resource/Hubert_Suda', 'http://dbpedia.org/resource/Ian_Azzopardi', 'http://dbpedia.org/resource/Ian_Ciantar', 'http://dbpedia.org/resource/Ivan_Zammit', 'http://dbpedia.org/resource/Jade_Flask', 'http://dbpedia.org/resource/Jamie_Zerafa', 'http://dbpedia.org/resource/Jean_Paul_Farrugia', 'http://dbpedia.org/resource/Jeffrey_Chetcuti', 'http://dbpedia.org/resource/Jesmond_Delia', 'http://dbpedia.org/resource/Joe_Brincat', 'http://dbpedia.org/resource/Johann_Bezzina', 'http://dbpedia.org/resource/John_Bonello', 'http://dbpedia.org/resource/John_McNeill_(footballer)', 'http://dbpedia.org/resource/Jonathan_Caruana', 'http://dbpedia.org/resource/Jonathan_Holland_(footballer)', 'http://dbpedia.org/resource/Jonathan_Magri_Overend', 'http://dbpedia.org/resource/Josef_Mifsud', 'http://dbpedia.org/resource/Joseph_Farrugia', 'http://dbpedia.org/resource/Juan_Carlos_Corbalan', 'http://dbpedia.org/resource/Justin_Haber', 'http://dbpedia.org/resource/Kenneth_Scicluna', 'http://dbpedia.org/resource/Kevin_Sammut', 'http://dbpedia.org/resource/Kristian_Laferla', 'http://dbpedia.org/resource/Lino_Galea', 'http://dbpedia.org/resource/Lolly_Vella', 'http://dbpedia.org/resource/Malcolm_Licari', 'http://dbpedia.org/resource/Maria_Farrugia', 'http://dbpedia.org/resource/Mario_Farrugia', 'http://dbpedia.org/resource/Martina_Borg', 'http://dbpedia.org/resource/Massimo_Grima', 'http://dbpedia.org/resource/Matthew_Guillaumier', 'http://dbpedia.org/resource/Michael_Cutajar', 'http://dbpedia.org/resource/Michael_Galea', 'http://dbpedia.org/resource/Michael_Johnson_(footballer,_born_1994)', 'http://dbpedia.org/resource/Nicole_Buttigieg', 'http://dbpedia.org/resource/Nicole_Sciberras', 'http://dbpedia.org/resource/Noel_Turner_(footballer)', 'http://dbpedia.org/resource/Paul_Fenech_(footballer)', 'http://dbpedia.org/resource/Pierre_Aquilina', 'http://dbpedia.org/resource/Ray_Farrugia', 'http://dbpedia.org/resource/Raymond_Xuereb', "http://dbpedia.org/resource/Rebecca_D'Agostino", 'http://dbpedia.org/resource/Reginald_Cini', 'http://dbpedia.org/resource/Roderick_Briffa', 'http://dbpedia.org/resource/Ronnie_Cocks', 'http://dbpedia.org/resource/Saviour_Darmanin', 'http://dbpedia.org/resource/Sean_Sullivan_(footballer)', 'http://dbpedia.org/resource/Simon_Tortell', 'http://dbpedia.org/resource/Stefan_Giglio', 'http://dbpedia.org/resource/Stefania_Farrugia', 'http://dbpedia.org/resource/Stephen_Wellman', 'http://dbpedia.org/resource/Steve_Bezzina', 'http://dbpedia.org/resource/Steve_Pisani', 'http://dbpedia.org/resource/Terence_Scerri', 'http://dbpedia.org/resource/Terence_Vella', 'http://dbpedia.org/resource/Vincent_Borg_Bonaci', 'http://dbpedia.org/resource/William_Camenzuli']</t>
-  </si>
-  <si>
-    <t>['1325']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Aleksandr_Aleksandrovich_Volkov', 'http://dbpedia.org/resource/Aleksandr_Ivanchenkov', 'http://dbpedia.org/resource/Aleksandr_Laveykin', 'http://dbpedia.org/resource/Aleksandr_Nikolayevich_Balandin', 'http://dbpedia.org/resource/Aleksandr_Pavlovich_Aleksandrov__Aleksandr_Pavlovich_Aleksandrov__1', 'http://dbpedia.org/resource/Aleksandr_Serebrov', 'http://dbpedia.org/resource/Aleksandr_Viktorenko', 'http://dbpedia.org/resource/Aleksei_Gubarev', 'http://dbpedia.org/resource/Aleksei_Yeliseyev', 'http://dbpedia.org/resource/Anatoly_Berezovoy', 'http://dbpedia.org/resource/Anatoly_Filipchenko', 'http://dbpedia.org/resource/Anatoly_Levchenko__Anatoly_Semyonovich_Levchenko__1', 'http://dbpedia.org/resource/Andriyan_Nikolayev', 'http://dbpedia.org/resource/Boris_Andreyev_(cosmonaut)', 'http://dbpedia.org/resource/Boris_Volynov', 'http://dbpedia.org/resource/Boris_Yegorov', 'http://dbpedia.org/resource/Gennady_Manakov', 'http://dbpedia.org/resource/Gennady_Sarafanov', 'http://dbpedia.org/resource/Gennady_Strekalov', 'http://dbpedia.org/resource/Georgy_Dobrovolsky', 'http://dbpedia.org/resource/Georgy_Grechko', 'http://dbpedia.org/resource/Ivan_Anikeyev', 'http://dbpedia.org/resource/Konstantin_Feoktistov', 'http://dbpedia.org/resource/Leonid_Ivanov_(test_pilot)', 'http://dbpedia.org/resource/Leonid_Kizim', 'http://dbpedia.org/resource/Leonid_Popov', 'http://dbpedia.org/resource/Lev_Dyomin', 'http://dbpedia.org/resource/Mars_Rafikov', 'http://dbpedia.org/resource/Nikolai_Rukavishnikov', 'http://dbpedia.org/resource/Oleg_Atkov', 'http://dbpedia.org/resource/Oleg_Grigoriyevich_Kononenko', 'http://dbpedia.org/resource/Oleg_Makarov_(cosmonaut)', 'http://dbpedia.org/resource/Pavel_Belyayev', 'http://dbpedia.org/resource/Sergey_Volkov_(cosmonaut)', 'http://dbpedia.org/resource/Sergey_Vozovikov', 'http://dbpedia.org/resource/Valentin_Bondarenko', 'http://dbpedia.org/resource/Valentin_Lebedev', 'http://dbpedia.org/resource/Valery_Bykovsky', 'http://dbpedia.org/resource/Valery_Kubasov', 'http://dbpedia.org/resource/Valery_Rozhdestvensky', 'http://dbpedia.org/resource/Valery_Ryumin', 'http://dbpedia.org/resource/Vasily_Lazarev', 'http://dbpedia.org/resource/Viktor_Gorbatko', 'http://dbpedia.org/resource/Viktor_Patsayev', 'http://dbpedia.org/resource/Viktor_Savinykh', 'http://dbpedia.org/resource/Vitaly_Sevastyanov', 'http://dbpedia.org/resource/Vladimir_Aksyonov', 'http://dbpedia.org/resource/Vladimir_Dzhanibekov', 'http://dbpedia.org/resource/Vladimir_Shatalov', 'http://dbpedia.org/resource/Vladimir_Solovyov_(cosmonaut)', 'http://dbpedia.org/resource/Vladimir_Vasyutin', 'http://dbpedia.org/resource/Vladislav_Volkov', 'http://dbpedia.org/resource/Vyacheslav_Zudov', 'http://dbpedia.org/resource/Yevgeny_Khrunov', 'http://dbpedia.org/resource/Yuri_Artyukhin', 'http://dbpedia.org/resource/Yuri_Glazkov', 'http://dbpedia.org/resource/Yuri_Malyshev_(cosmonaut)', 'http://dbpedia.org/resource/Yuri_Romanenko']</t>
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Free_Samples', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/A_Summer_Tale', 'http://dbpedia.org/resource/Afghan_Muscles', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case', 'http://dbpedia.org/resource/Another_Round_(film)', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar', 'http://dbpedia.org/resource/Bag_Københavns_kulisser', 'http://dbpedia.org/resource/Barefoot_(2017_film)', "http://dbpedia.org/resource/Benny's_Bathtub", 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light', 'http://dbpedia.org/resource/Bornholms_stemme', 'http://dbpedia.org/resource/Breaking_the_Waves', 'http://dbpedia.org/resource/Busters_verden', 'http://dbpedia.org/resource/Constance_(film)', 'http://dbpedia.org/resource/Crying_for_Love', 'http://dbpedia.org/resource/De_besejrede_Pebersvende', 'http://dbpedia.org/resource/De_Udstillede', 'http://dbpedia.org/resource/Den_farlige_alder', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært', 'http://dbpedia.org/resource/Ditte,_Child_of_Man', 'http://dbpedia.org/resource/Domino_(2019_film)', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs', 'http://dbpedia.org/resource/Echo_(2007_film)', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee', 'http://dbpedia.org/resource/Eksperimentet', 'http://dbpedia.org/resource/En_slem_Dreng', 'http://dbpedia.org/resource/Eye_of_the_Eagle_(1997_film)', 'http://dbpedia.org/resource/Familien_Pille_som_Spejdere', 'http://dbpedia.org/resource/Family_Matters_(film)', 'http://dbpedia.org/resource/Farlig_Ungdom', 'http://dbpedia.org/resource/Fidibus', 'http://dbpedia.org/resource/Five_Get_into_Trouble_(film)', 'http://dbpedia.org/resource/Flee_(film)', 'http://dbpedia.org/resource/Flickering_Lights', 'http://dbpedia.org/resource/Frække_Frida_og_de_frygtløse_spioner', 'http://dbpedia.org/resource/Frk._Møllers_jubilæum', 'http://dbpedia.org/resource/Frode_og_alle_de_andre_rødder__Frode_og_alle_de_andre_rødder__1', "http://dbpedia.org/resource/Gasolin'_(film)", 'http://dbpedia.org/resource/Ghost_Train_International', 'http://dbpedia.org/resource/Giv_Gud_en_chance_om_søndagen', "http://dbpedia.org/resource/Goutte_d'Or_(film)", "http://dbpedia.org/resource/Help!_I'm_a_Fish", 'http://dbpedia.org/resource/Herberg_for_Hjemløse', 'http://dbpedia.org/resource/His_New_Grey_Trousers', 'http://dbpedia.org/resource/Højt_paa_en_kvist', 'http://dbpedia.org/resource/Holes_in_the_Soup', 'http://dbpedia.org/resource/Human_Remains_(film)', 'http://dbpedia.org/resource/Ikíngut', 'http://dbpedia.org/resource/Jag_är_din_krigare', 'http://dbpedia.org/resource/Jeg_har_elsket_og_levet', 'http://dbpedia.org/resource/Journey_to_Saturn', 'http://dbpedia.org/resource/Kærlighed_og_Mobilisering', "http://dbpedia.org/resource/Karla's_World", 'http://dbpedia.org/resource/Khartoum_Offside', "http://dbpedia.org/resource/Kira's_Reason:_A_Love_Story", 'http://dbpedia.org/resource/Klown_Forever', 'http://dbpedia.org/resource/København,_Kalundborg_og_-_%3F', 'http://dbpedia.org/resource/Koko-di_Koko-da', 'http://dbpedia.org/resource/Kun_en_Tigger', 'http://dbpedia.org/resource/Little_Brother,_Big_Trouble:_A_Christmas_Adventure', 'http://dbpedia.org/resource/Løvejagten', 'http://dbpedia.org/resource/Manslaughter_(2005_film)', 'http://dbpedia.org/resource/Margrete:_Queen_of_the_North', 'http://dbpedia.org/resource/Matador_(Danish_TV_series)', 'http://dbpedia.org/resource/Melody_of_Murder', 'http://dbpedia.org/resource/Minor_Mishaps', 'http://dbpedia.org/resource/Monas_verden', 'http://dbpedia.org/resource/Murderous_Trance', 'http://dbpedia.org/resource/Murk_(film)', 'http://dbpedia.org/resource/Nation_Estate', 'http://dbpedia.org/resource/Next_Stop_Paradise_(1980_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1934_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1974_film)', 'http://dbpedia.org/resource/Nordhavets_mænd', 'http://dbpedia.org/resource/Nynne', "http://dbpedia.org/resource/O'_Horten", 'http://dbpedia.org/resource/Pelle_the_Conqueror', 'http://dbpedia.org/resource/Pervert_Park', 'http://dbpedia.org/resource/Princess_(2006_film)', 'http://dbpedia.org/resource/Pusher_(film_series)', 'http://dbpedia.org/resource/Regel_nr._1', 'http://dbpedia.org/resource/Reptilicus', 'http://dbpedia.org/resource/Return_to_Sender_(2004_film)', 'http://dbpedia.org/resource/Samson_&amp;_Sally', 'http://dbpedia.org/resource/Sekstet', 'http://dbpedia.org/resource/Smiling_in_a_War_Zone', 'http://dbpedia.org/resource/Something_Better_to_Come', 'http://dbpedia.org/resource/Songs_from_the_Second_Floor', 'http://dbpedia.org/resource/Sons_of_the_Soil', 'http://dbpedia.org/resource/Speed_Sisters', 'http://dbpedia.org/resource/Speed_Walking', 'http://dbpedia.org/resource/Stealing_Rembrandt', 'http://dbpedia.org/resource/Stjerneskud', 'http://dbpedia.org/resource/Stolen_Spring_(film)', 'http://dbpedia.org/resource/Storm_(2009_film)', 'http://dbpedia.org/resource/Strømer', 'http://dbpedia.org/resource/Sun_over_Denmark', 'http://dbpedia.org/resource/Sunes_familie', 'http://dbpedia.org/resource/Supervoksen', 'http://dbpedia.org/resource/Susanne_(1950_film)', 'http://dbpedia.org/resource/Teddy_Bear_(2012_film)', 'http://dbpedia.org/resource/Terribly_Happy', "http://dbpedia.org/resource/That's_Me,_Too", 'http://dbpedia.org/resource/The_Crimson_Circle_(1960_film)', 'http://dbpedia.org/resource/The_Forbidden_Team', 'http://dbpedia.org/resource/The_House_of_the_Spirits_(film)', 'http://dbpedia.org/resource/The_Inheritance_(2003_film)', "http://dbpedia.org/resource/The_King's_Choice", 'http://dbpedia.org/resource/The_Lego_Ninjago_Movie', 'http://dbpedia.org/resource/The_Mahabharata_(1989_film)', 'http://dbpedia.org/resource/The_Monastery:_Mr._Vig_and_the_Nun', 'http://dbpedia.org/resource/The_Perfect_Human', 'http://dbpedia.org/resource/The_Red_Meadows', 'http://dbpedia.org/resource/The_Thralls', 'http://dbpedia.org/resource/The_Viking_Watch_of_the_Danish_Seaman', 'http://dbpedia.org/resource/The_White_Slave_Trade', 'http://dbpedia.org/resource/Those_Blasted_Kids', 'http://dbpedia.org/resource/Torremolinos_73', 'http://dbpedia.org/resource/Valhalla_(1986_film)', 'http://dbpedia.org/resource/Vildledt_Elskov', "http://dbpedia.org/resource/We_Meet_at_Tove's", 'http://dbpedia.org/resource/Webmaster_(film)', 'http://dbpedia.org/resource/What_No_One_Knows', 'http://dbpedia.org/resource/You_Are_Not_Alone_(film)']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Asia']</t>
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
@@ -1266,134 +1991,33 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Musical ; dbo:musicBy res:Elton_John . }",\n        "startIndex": 120,\n        "stopIndex": 127\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Musical ; dbo:musicBy res:Elton_John . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 128,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Apple_Inc. dbo:netIncome ?uri . }",\n        "startIndex": 462,\n        "stopIndex": 462\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Apple_Inc. dbo:netIncome ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:starring res:Julia_Roberts . ?uri dbo:director res:Garry_Marshall . }",\n        "startIndex": 120,\n        "stopIndex": 127\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:starring res:Julia_Roberts . ?uri dbo:director res:Garry_Marshall . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 149,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:owner res:Donald_Trump ; rdf:type dbo:Organisation . }",\n        "startIndex": 149,\n        "stopIndex": 156\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:owner res:Donald_Trump ; rdf:type dbo:Organisation . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Company . ?uri dbo:industry res:Advertising . }",\n        "startIndex": 120,\n        "stopIndex": 127\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Company . ?uri dbo:industry res:Advertising . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow . ?uri dbo:starring res:Neil_Patrick_Harris . }",\n        "startIndex": 120,\n        "stopIndex": 127\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow . ?uri dbo:starring res:Neil_Patrick_Harris . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 163,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Mount_Everest dbo:locatedInArea ?uri . ?uri rdf:type dbo:Country . }",\n        "startIndex": 163,\n        "stopIndex": 170\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Mount_Everest dbo:locatedInArea ?uri . ?uri rdf:type dbo:Country . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 111,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:Person . ?uri dbo:birthPlace res:Heraklion . }",\n        "startIndex": 111,\n        "stopIndex": 118\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:Person . ?uri dbo:birthPlace res:Heraklion . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:City ; dbo:populationTotal ?population . } ORDER BY ?population LIMIT 1",\n        "startIndex": 120,\n        "stopIndex": 127\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:City ; dbo:populationTotal ?population . } ORDER BY ?population LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow ; dbo:creator res:Walt_Disney . }",\n        "startIndex": 120,\n        "stopIndex": 127\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow ; dbo:creator res:Walt_Disney . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 141,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:country res:Sweden . ?uri rdf:type dbo:Holiday . }",\n        "startIndex": 141,\n        "stopIndex": 148\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:country res:Sweden . ?uri rdf:type dbo:Holiday . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 128,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Apple_Inc. dbo:netIncome ?uri . }",\n        "startIndex": 128,\n        "stopIndex": 128\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Apple_Inc. dbo:netIncome ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Holiday . }",\n        "startIndex": 120,\n        "stopIndex": 127\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Holiday . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:PoliticalParty ; dbo:country res:Greece ; dbo:ideology res:Pro-Europeanism . }",\n        "startIndex": 120,\n        "stopIndex": 127\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:PoliticalParty ; dbo:country res:Greece ; dbo:ideology res:Pro-Europeanism . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Actor . { ?uri dbo:birthPlace res:Germany . } UNION { ?uri dbo:birthPlace ?place . ?place dbo:country res:Germany . } }",\n        "startIndex": 120,\n        "stopIndex": 127\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Actor . { ?uri dbo:birthPlace res:Germany . } UNION { ?uri dbo:birthPlace ?place . ?place dbo:country res:Germany . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film ; dbo:director res:Francis_Ford_Coppola . }",\n        "startIndex": 120,\n        "stopIndex": 127\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film ; dbo:director res:Francis_Ford_Coppola . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"(\\": mismatched input \'(\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 220,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Album . ?uri dbo:artist res:Queen_(band) . ?uri dbo:releaseDate ?date } ORDER BY ?date LIMIT 1",\n        "startIndex": 220,\n        "stopIndex": 220\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Album . ?uri dbo:artist res:Queen_(band) . ?uri dbo:releaseDate ?date } ORDER BY ?date LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow . ?uri dbo:creator res:John_Cleese . }",\n        "startIndex": 120,\n        "stopIndex": 127\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow . ?uri dbo:creator res:John_Cleese . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Writer . ?uri dbo:award res:Nobel_Prize_in_Literature . }",\n        "startIndex": 120,\n        "stopIndex": 127\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Writer . ?uri dbo:award res:Nobel_Prize_in_Literature . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/Film&gt; . ?uri dbo:starring &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?uri dbo:starring &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }",\n        "startIndex": 120,\n        "stopIndex": 127\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/Film&gt; . ?uri dbo:starring &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?uri dbo:starring &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 152,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:birthPlace res:Malta . ?uri rdf:type dbo:SoccerPlayer . }",\n        "startIndex": 152,\n        "stopIndex": 159\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:birthPlace res:Malta . ?uri rdf:type dbo:SoccerPlayer . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 96,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub rdf:type dbo:ProgrammingLanguage . }",\n        "startIndex": 96,\n        "stopIndex": 103\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub rdf:type dbo:ProgrammingLanguage . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:country res:Denmark . }",\n        "startIndex": 120,\n        "stopIndex": 127\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:country res:Denmark . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 77,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Country . ?uri dbo:areaTotal ?area . } ORDER BY DESC(?area) LIMIT 1",\n        "startIndex": 77,\n        "stopIndex": 84\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Country . ?uri dbo:areaTotal ?area . } ORDER BY DESC(?area) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 150,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { res:Angela_Merkel dbo:almaMater ?res . ?res rdf:type dbo:EducationalInstitution . }",\n        "startIndex": 150,\n        "stopIndex": 157\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { res:Angela_Merkel dbo:almaMater ?res . ?res rdf:type dbo:EducationalInstitution . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"(\\": mismatched input \'(\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 220,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Album . ?uri dbo:artist res:Queen_(band) . ?uri dbo:releaseDate ?date } ORDER BY ?date LIMIT 1",\n        "startIndex": 554,\n        "stopIndex": 554\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Album . ?uri dbo:artist res:Queen_(band) . ?uri dbo:releaseDate ?date } ORDER BY ?date LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>Unadapted Dataset Patterns</t>
+  </si>
+  <si>
+    <t>Missing rdf:type</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
   </si>
   <si>
     <t>Query Bad Formed</t>
   </si>
   <si>
-    <t>Unadapted Dataset Patterns</t>
-  </si>
-  <si>
-    <t>Missing rdf:type</t>
-  </si>
-  <si>
-    <t>Structural Error</t>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
   </si>
   <si>
     <t>Wrong Ontology</t>
@@ -1764,13 +2388,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1795,8 +2419,17 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1807,13 +2440,13 @@
         <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1822,7 +2455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1833,13 +2466,13 @@
         <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F3" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1848,7 +2481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1859,22 +2492,22 @@
         <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>373</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1885,13 +2518,13 @@
         <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F5" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1900,7 +2533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1911,22 +2544,22 @@
         <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E6" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="F6" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1937,13 +2570,13 @@
         <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1952,7 +2585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1963,22 +2596,22 @@
         <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F8" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1989,13 +2622,13 @@
         <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E9" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F9" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2004,7 +2637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2012,16 +2645,16 @@
         <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F10" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -2030,7 +2663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2038,16 +2671,16 @@
         <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F11" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -2056,7 +2689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2064,16 +2697,16 @@
         <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E12" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F12" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2082,7 +2715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2090,16 +2723,16 @@
         <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E13" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F13" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2108,7 +2741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2116,25 +2749,31 @@
         <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D14" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E14" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="F14" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="I14" t="s">
+        <v>429</v>
+      </c>
+      <c r="J14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2142,16 +2781,16 @@
         <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F15" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2160,7 +2799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2168,16 +2807,16 @@
         <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E16" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F16" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -2186,7 +2825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2194,25 +2833,25 @@
         <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="E17" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="F17" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2220,16 +2859,16 @@
         <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E18" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F18" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2238,7 +2877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2246,25 +2885,25 @@
         <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E19" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="F19" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2272,16 +2911,16 @@
         <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E20" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F20" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2290,7 +2929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2298,16 +2937,16 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E21" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F21" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2316,7 +2955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2324,16 +2963,16 @@
         <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E22" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F22" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2342,7 +2981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2350,25 +2989,28 @@
         <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="E23" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="F23" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="I23" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2376,25 +3018,25 @@
         <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E24" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="F24" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2402,16 +3044,16 @@
         <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E25" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F25" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2420,7 +3062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2428,16 +3070,16 @@
         <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E26" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F26" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2446,7 +3088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2454,16 +3096,16 @@
         <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E27" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F27" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -2472,7 +3114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2480,16 +3122,16 @@
         <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E28" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F28" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -2498,7 +3140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2506,16 +3148,16 @@
         <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E29" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F29" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -2524,7 +3166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2532,16 +3174,16 @@
         <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E30" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F30" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -2550,7 +3192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2558,25 +3200,25 @@
         <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D31" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E31" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="F31" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2584,25 +3226,28 @@
         <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E32" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="F32" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="I32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2610,16 +3255,16 @@
         <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E33" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F33" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -2628,7 +3273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2636,25 +3281,25 @@
         <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="E34" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="F34" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2662,16 +3307,16 @@
         <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E35" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="F35" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -2680,7 +3325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2688,25 +3333,25 @@
         <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D36" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="E36" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="F36" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2714,16 +3359,16 @@
         <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D37" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="E37" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F37" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -2732,7 +3377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2740,25 +3385,25 @@
         <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="E38" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="F38" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2766,16 +3411,16 @@
         <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D39" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="E39" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F39" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -2784,7 +3429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2792,16 +3437,16 @@
         <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="E40" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="F40" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -2810,7 +3455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2818,25 +3463,25 @@
         <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E41" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="F41" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2844,25 +3489,28 @@
         <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D42" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="E42" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="F42" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="I42" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2870,25 +3518,25 @@
         <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E43" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="F43" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2896,16 +3544,16 @@
         <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E44" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="F44" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -2914,7 +3562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2922,25 +3570,25 @@
         <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="E45" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="F45" t="s">
         <v>419</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2948,16 +3596,16 @@
         <v>152</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="E46" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="F46" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -2966,7 +3614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2974,25 +3622,25 @@
         <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="E47" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="F47" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3000,16 +3648,16 @@
         <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D48" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="E48" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F48" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -3018,7 +3666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -3026,16 +3674,16 @@
         <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="E49" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="F49" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -3044,7 +3692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -3052,16 +3700,16 @@
         <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="E50" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="F50" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -3070,7 +3718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3078,16 +3726,16 @@
         <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="E51" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F51" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -3096,7 +3744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3104,16 +3752,16 @@
         <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="E52" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F52" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -3122,7 +3770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -3130,25 +3778,25 @@
         <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D53" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="E53" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="F53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3156,25 +3804,25 @@
         <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D54" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="E54" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="F54" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3182,25 +3830,25 @@
         <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="E55" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="F55" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3208,25 +3856,28 @@
         <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D56" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
       <c r="E56" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="F56" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="I56" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3234,16 +3885,16 @@
         <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D57" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="E57" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="F57" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -3252,7 +3903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3260,16 +3911,16 @@
         <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D58" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="E58" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="F58" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -3278,7 +3929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3286,16 +3937,16 @@
         <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D59" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="E59" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="F59" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -3304,7 +3955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3312,16 +3963,16 @@
         <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="E60" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="F60" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3330,7 +3981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3338,16 +3989,16 @@
         <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D61" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="E61" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="F61" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -3356,7 +4007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3364,16 +4015,16 @@
         <v>168</v>
       </c>
       <c r="C62" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="E62" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="F62" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
@@ -3382,7 +4033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3390,16 +4041,16 @@
         <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D63" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="E63" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="F63" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3408,7 +4059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3416,25 +4067,25 @@
         <v>170</v>
       </c>
       <c r="C64" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D64" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="E64" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="F64" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3442,25 +4093,25 @@
         <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D65" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="E65" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="F65" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3468,16 +4119,16 @@
         <v>172</v>
       </c>
       <c r="C66" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D66" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="E66" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="F66" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -3486,7 +4137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3494,16 +4145,16 @@
         <v>173</v>
       </c>
       <c r="C67" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="E67" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="F67" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -3512,7 +4163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3520,25 +4171,25 @@
         <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D68" t="s">
-        <v>306</v>
+        <v>369</v>
       </c>
       <c r="E68" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="F68" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3546,16 +4197,16 @@
         <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D69" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="E69" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="F69" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3564,7 +4215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3572,16 +4223,16 @@
         <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="E70" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="F70" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -3590,7 +4241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3598,25 +4249,25 @@
         <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="E71" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="F71" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3624,16 +4275,16 @@
         <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D72" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="E72" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="F72" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -3642,7 +4293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3650,25 +4301,28 @@
         <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D73" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
       <c r="E73" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="F73" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="I73" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3676,16 +4330,16 @@
         <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="E74" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="F74" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -3694,7 +4348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3702,16 +4356,16 @@
         <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D75" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="E75" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="F75" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -3720,7 +4374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3728,16 +4382,16 @@
         <v>182</v>
       </c>
       <c r="C76" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D76" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="E76" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="F76" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
@@ -3746,7 +4400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3754,25 +4408,25 @@
         <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D77" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="E77" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="F77" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3780,25 +4434,25 @@
         <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D78" t="s">
-        <v>306</v>
+        <v>378</v>
       </c>
       <c r="E78" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="F78" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3806,25 +4460,25 @@
         <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D79" t="s">
-        <v>306</v>
+        <v>379</v>
       </c>
       <c r="E79" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="F79" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3832,16 +4486,16 @@
         <v>186</v>
       </c>
       <c r="C80" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D80" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="E80" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="F80" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -3850,7 +4504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3858,16 +4512,16 @@
         <v>187</v>
       </c>
       <c r="C81" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D81" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E81" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F81" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
@@ -3876,7 +4530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3884,25 +4538,25 @@
         <v>188</v>
       </c>
       <c r="C82" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D82" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E82" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="F82" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3910,25 +4564,25 @@
         <v>189</v>
       </c>
       <c r="C83" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>306</v>
+        <v>381</v>
       </c>
       <c r="E83" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="F83" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3936,16 +4590,16 @@
         <v>190</v>
       </c>
       <c r="C84" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D84" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="E84" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="F84" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -3954,7 +4608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3962,25 +4616,25 @@
         <v>191</v>
       </c>
       <c r="C85" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D85" t="s">
-        <v>306</v>
+        <v>383</v>
       </c>
       <c r="E85" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="F85" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3988,16 +4642,16 @@
         <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="D86" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="E86" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="F86" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -4006,7 +4660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -4014,25 +4668,25 @@
         <v>193</v>
       </c>
       <c r="C87" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D87" t="s">
-        <v>306</v>
+        <v>385</v>
       </c>
       <c r="E87" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="F87" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -4040,25 +4694,25 @@
         <v>194</v>
       </c>
       <c r="C88" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D88" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="E88" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="F88" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4066,16 +4720,16 @@
         <v>195</v>
       </c>
       <c r="C89" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="D89" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="E89" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="F89" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -4084,7 +4738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4092,16 +4746,16 @@
         <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D90" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="E90" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="F90" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -4110,7 +4764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4118,16 +4772,16 @@
         <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D91" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="E91" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="F91" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -4136,7 +4790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4144,16 +4798,16 @@
         <v>198</v>
       </c>
       <c r="C92" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D92" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="E92" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="F92" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
@@ -4162,7 +4816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4170,16 +4824,16 @@
         <v>199</v>
       </c>
       <c r="C93" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D93" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="E93" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="F93" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -4188,7 +4842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4196,16 +4850,16 @@
         <v>200</v>
       </c>
       <c r="C94" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D94" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="E94" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="F94" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -4214,7 +4868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -4222,16 +4876,16 @@
         <v>201</v>
       </c>
       <c r="C95" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D95" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="E95" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="F95" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -4240,7 +4894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -4248,25 +4902,28 @@
         <v>202</v>
       </c>
       <c r="C96" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="E96" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="F96" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="I96" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -4274,25 +4931,25 @@
         <v>203</v>
       </c>
       <c r="C97" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D97" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="E97" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="F97" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -4300,16 +4957,16 @@
         <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D98" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="E98" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="F98" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
@@ -4318,7 +4975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -4326,25 +4983,25 @@
         <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
-        <v>306</v>
+        <v>397</v>
       </c>
       <c r="E99" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F99" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -4352,25 +5009,28 @@
         <v>206</v>
       </c>
       <c r="C100" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D100" t="s">
-        <v>306</v>
+        <v>398</v>
       </c>
       <c r="E100" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="F100" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="I100" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -4378,22 +5038,22 @@
         <v>207</v>
       </c>
       <c r="C101" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D101" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E101" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="F101" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
